--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="194">
   <si>
     <t>到期税后收益率</t>
   </si>
@@ -41,7 +41,7 @@
     <t>涨跌幅</t>
   </si>
   <si>
-    <t>176.14%</t>
+    <t>5318.57%</t>
   </si>
   <si>
     <t>404001</t>
@@ -56,529 +56,547 @@
     <t>2024-08-13</t>
   </si>
   <si>
-    <t>0.362</t>
+    <t>0.288</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>2.28%</t>
-  </si>
-  <si>
-    <t>113684</t>
-  </si>
-  <si>
-    <t>湘泵转债</t>
+    <t>1416.88%</t>
+  </si>
+  <si>
+    <t>404002</t>
+  </si>
+  <si>
+    <t>搜特退债</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>2026-03-12</t>
+  </si>
+  <si>
+    <t>1.866</t>
+  </si>
+  <si>
+    <t>-1.08%</t>
+  </si>
+  <si>
+    <t>123044</t>
+  </si>
+  <si>
+    <t>红相转债</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>-0.86%</t>
+  </si>
+  <si>
+    <t>-2.51%</t>
+  </si>
+  <si>
+    <t>123205</t>
+  </si>
+  <si>
+    <t>大叶转债</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>2029-07-17</t>
+  </si>
+  <si>
+    <t>5.216</t>
+  </si>
+  <si>
+    <t>0.46%</t>
+  </si>
+  <si>
+    <t>-2.78%</t>
+  </si>
+  <si>
+    <t>111015</t>
+  </si>
+  <si>
+    <t>东亚转债</t>
   </si>
   <si>
     <t>AA-</t>
   </si>
   <si>
-    <t>2030-04-01</t>
-  </si>
-  <si>
-    <t>5.997</t>
-  </si>
-  <si>
-    <t>1.90%</t>
-  </si>
-  <si>
-    <t>113683</t>
-  </si>
-  <si>
-    <t>伟24转债</t>
+    <t>2029-07-06</t>
+  </si>
+  <si>
+    <t>5.186</t>
+  </si>
+  <si>
+    <t>2.08%</t>
+  </si>
+  <si>
+    <t>-4.23%</t>
+  </si>
+  <si>
+    <t>127084</t>
+  </si>
+  <si>
+    <t>柳工转2</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>2029-03-27</t>
+  </si>
+  <si>
+    <t>4.91</t>
+  </si>
+  <si>
+    <t>0.89%</t>
+  </si>
+  <si>
+    <t>-4.37%</t>
+  </si>
+  <si>
+    <t>111017</t>
+  </si>
+  <si>
+    <t>蓝天转债</t>
   </si>
   <si>
     <t>AA</t>
   </si>
   <si>
-    <t>2030-03-27</t>
-  </si>
-  <si>
-    <t>5.984</t>
-  </si>
-  <si>
-    <t>1.27%</t>
-  </si>
-  <si>
-    <t>123044</t>
-  </si>
-  <si>
-    <t>红相转债</t>
-  </si>
-  <si>
-    <t>A-</t>
-  </si>
-  <si>
-    <t>2026-03-12</t>
-  </si>
-  <si>
-    <t>1.94</t>
+    <t>2029-08-15</t>
+  </si>
+  <si>
+    <t>5.296</t>
+  </si>
+  <si>
+    <t>2.49%</t>
+  </si>
+  <si>
+    <t>-5.08%</t>
+  </si>
+  <si>
+    <t>111011</t>
+  </si>
+  <si>
+    <t>冠盛转债</t>
+  </si>
+  <si>
+    <t>2029-01-03</t>
+  </si>
+  <si>
+    <t>4.682</t>
+  </si>
+  <si>
+    <t>-0.58%</t>
+  </si>
+  <si>
+    <t>-5.64%</t>
+  </si>
+  <si>
+    <t>118019</t>
+  </si>
+  <si>
+    <t>金盘转债</t>
+  </si>
+  <si>
+    <t>2028-09-16</t>
+  </si>
+  <si>
+    <t>4.384</t>
+  </si>
+  <si>
+    <t>-1.94%</t>
+  </si>
+  <si>
+    <t>-6.16%</t>
+  </si>
+  <si>
+    <t>113648</t>
+  </si>
+  <si>
+    <t>巨星转债</t>
+  </si>
+  <si>
+    <t>2028-04-25</t>
+  </si>
+  <si>
+    <t>3.989</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>-6.72%</t>
+  </si>
+  <si>
+    <t>113066</t>
+  </si>
+  <si>
+    <t>平煤转债</t>
+  </si>
+  <si>
+    <t>2029-03-16</t>
+  </si>
+  <si>
+    <t>4.88</t>
+  </si>
+  <si>
+    <t>1.49%</t>
+  </si>
+  <si>
+    <t>-7.24%</t>
+  </si>
+  <si>
+    <t>123223</t>
+  </si>
+  <si>
+    <t>九典转02</t>
+  </si>
+  <si>
+    <t>2029-09-15</t>
+  </si>
+  <si>
+    <t>5.381</t>
+  </si>
+  <si>
+    <t>-0.83%</t>
+  </si>
+  <si>
+    <t>-7.80%</t>
+  </si>
+  <si>
+    <t>128123</t>
+  </si>
+  <si>
+    <t>国光转债</t>
+  </si>
+  <si>
+    <t>2026-07-27</t>
+  </si>
+  <si>
+    <t>2.241</t>
   </si>
   <si>
     <t>0.03%</t>
   </si>
   <si>
-    <t>-2.53%</t>
-  </si>
-  <si>
-    <t>123225</t>
-  </si>
-  <si>
-    <t>翔丰转债</t>
-  </si>
-  <si>
-    <t>2029-10-09</t>
-  </si>
-  <si>
-    <t>5.521</t>
-  </si>
-  <si>
-    <t>-4.61%</t>
-  </si>
-  <si>
-    <t>-2.57%</t>
-  </si>
-  <si>
-    <t>123200</t>
-  </si>
-  <si>
-    <t>海泰转债</t>
+    <t>-8.56%</t>
+  </si>
+  <si>
+    <t>110074</t>
+  </si>
+  <si>
+    <t>精达转债</t>
+  </si>
+  <si>
+    <t>2026-08-19</t>
+  </si>
+  <si>
+    <t>2.304</t>
+  </si>
+  <si>
+    <t>-1.77%</t>
+  </si>
+  <si>
+    <t>-9.78%</t>
+  </si>
+  <si>
+    <t>110091</t>
+  </si>
+  <si>
+    <t>合力转债</t>
+  </si>
+  <si>
+    <t>AA+</t>
+  </si>
+  <si>
+    <t>2028-12-13</t>
+  </si>
+  <si>
+    <t>4.625</t>
+  </si>
+  <si>
+    <t>1.76%</t>
+  </si>
+  <si>
+    <t>-9.84%</t>
+  </si>
+  <si>
+    <t>113021</t>
+  </si>
+  <si>
+    <t>中信转债</t>
+  </si>
+  <si>
+    <t>2025-03-04</t>
+  </si>
+  <si>
+    <t>0.844</t>
+  </si>
+  <si>
+    <t>1.02%</t>
+  </si>
+  <si>
+    <t>-9.92%</t>
+  </si>
+  <si>
+    <t>110083</t>
+  </si>
+  <si>
+    <t>苏租转债</t>
+  </si>
+  <si>
+    <t>2027-11-11</t>
+  </si>
+  <si>
+    <t>3.534</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-10.31%</t>
+  </si>
+  <si>
+    <t>123127</t>
+  </si>
+  <si>
+    <t>耐普转债</t>
+  </si>
+  <si>
+    <t>2027-10-29</t>
+  </si>
+  <si>
+    <t>3.499</t>
+  </si>
+  <si>
+    <t>0.25%</t>
+  </si>
+  <si>
+    <t>-16.49%</t>
+  </si>
+  <si>
+    <t>127037</t>
+  </si>
+  <si>
+    <t>银轮转债</t>
+  </si>
+  <si>
+    <t>2027-06-07</t>
+  </si>
+  <si>
+    <t>3.104</t>
+  </si>
+  <si>
+    <t>-0.49%</t>
+  </si>
+  <si>
+    <t>-17.58%</t>
+  </si>
+  <si>
+    <t>128091</t>
+  </si>
+  <si>
+    <t>新天转债</t>
+  </si>
+  <si>
+    <t>2025-12-30</t>
+  </si>
+  <si>
+    <t>1.669</t>
+  </si>
+  <si>
+    <t>1.32%</t>
+  </si>
+  <si>
+    <t>-17.91%</t>
+  </si>
+  <si>
+    <t>110077</t>
+  </si>
+  <si>
+    <t>洪城转债</t>
+  </si>
+  <si>
+    <t>2026-11-20</t>
+  </si>
+  <si>
+    <t>2.559</t>
+  </si>
+  <si>
+    <t>1.03%</t>
+  </si>
+  <si>
+    <t>-20.66%</t>
+  </si>
+  <si>
+    <t>113027</t>
+  </si>
+  <si>
+    <t>华钰转债</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>2029-06-27</t>
-  </si>
-  <si>
-    <t>5.236</t>
-  </si>
-  <si>
-    <t>-8.59%</t>
-  </si>
-  <si>
-    <t>-3.22%</t>
-  </si>
-  <si>
-    <t>113044</t>
-  </si>
-  <si>
-    <t>大秦转债</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>2026-12-14</t>
-  </si>
-  <si>
-    <t>2.699</t>
-  </si>
-  <si>
-    <t>0.07%</t>
-  </si>
-  <si>
-    <t>-3.52%</t>
-  </si>
-  <si>
-    <t>111017</t>
-  </si>
-  <si>
-    <t>蓝天转债</t>
-  </si>
-  <si>
-    <t>2029-08-15</t>
-  </si>
-  <si>
-    <t>5.37</t>
-  </si>
-  <si>
-    <t>-0.09%</t>
-  </si>
-  <si>
-    <t>-3.87%</t>
-  </si>
-  <si>
-    <t>111011</t>
-  </si>
-  <si>
-    <t>冠盛转债</t>
-  </si>
-  <si>
-    <t>2029-01-03</t>
-  </si>
-  <si>
-    <t>4.756</t>
-  </si>
-  <si>
-    <t>-2.55%</t>
-  </si>
-  <si>
-    <t>-4.39%</t>
-  </si>
-  <si>
-    <t>123188</t>
-  </si>
-  <si>
-    <t>水羊转债</t>
-  </si>
-  <si>
-    <t>A+</t>
-  </si>
-  <si>
-    <t>2029-04-04</t>
-  </si>
-  <si>
-    <t>5.006</t>
-  </si>
-  <si>
-    <t>-1.82%</t>
-  </si>
-  <si>
-    <t>-6.23%</t>
-  </si>
-  <si>
-    <t>123192</t>
-  </si>
-  <si>
-    <t>科思转债</t>
-  </si>
-  <si>
-    <t>2029-04-13</t>
-  </si>
-  <si>
-    <t>5.03</t>
-  </si>
-  <si>
-    <t>0.75%</t>
-  </si>
-  <si>
-    <t>-6.53%</t>
-  </si>
-  <si>
-    <t>113648</t>
-  </si>
-  <si>
-    <t>巨星转债</t>
-  </si>
-  <si>
-    <t>2028-04-25</t>
-  </si>
-  <si>
-    <t>4.063</t>
-  </si>
-  <si>
-    <t>-0.22%</t>
-  </si>
-  <si>
-    <t>-6.77%</t>
-  </si>
-  <si>
-    <t>110091</t>
-  </si>
-  <si>
-    <t>合力转债</t>
-  </si>
-  <si>
-    <t>AA+</t>
-  </si>
-  <si>
-    <t>2028-12-13</t>
-  </si>
-  <si>
-    <t>4.699</t>
-  </si>
-  <si>
-    <t>0.15%</t>
-  </si>
-  <si>
-    <t>-7.05%</t>
-  </si>
-  <si>
-    <t>113672</t>
-  </si>
-  <si>
-    <t>福蓉转债</t>
-  </si>
-  <si>
-    <t>2029-07-18</t>
-  </si>
-  <si>
-    <t>5.293</t>
-  </si>
-  <si>
-    <t>-1.19%</t>
-  </si>
-  <si>
-    <t>-8.24%</t>
-  </si>
-  <si>
-    <t>110074</t>
-  </si>
-  <si>
-    <t>精达转债</t>
-  </si>
-  <si>
-    <t>2026-08-19</t>
-  </si>
-  <si>
-    <t>2.378</t>
-  </si>
-  <si>
-    <t>-1.99%</t>
-  </si>
-  <si>
-    <t>-8.58%</t>
-  </si>
-  <si>
-    <t>110083</t>
-  </si>
-  <si>
-    <t>苏租转债</t>
-  </si>
-  <si>
-    <t>2027-11-11</t>
-  </si>
-  <si>
-    <t>3.608</t>
+    <t>2025-06-14</t>
+  </si>
+  <si>
+    <t>1.123</t>
+  </si>
+  <si>
+    <t>0.73%</t>
+  </si>
+  <si>
+    <t>-22.39%</t>
+  </si>
+  <si>
+    <t>113534</t>
+  </si>
+  <si>
+    <t>鼎胜转债</t>
+  </si>
+  <si>
+    <t>2025-04-09</t>
+  </si>
+  <si>
+    <t>0.943</t>
+  </si>
+  <si>
+    <t>-4.57%</t>
+  </si>
+  <si>
+    <t>-24.37%</t>
+  </si>
+  <si>
+    <t>123106</t>
+  </si>
+  <si>
+    <t>正丹转债</t>
+  </si>
+  <si>
+    <t>2027-03-24</t>
+  </si>
+  <si>
+    <t>2.899</t>
+  </si>
+  <si>
+    <t>14.26%</t>
+  </si>
+  <si>
+    <t>-25.30%</t>
+  </si>
+  <si>
+    <t>123010</t>
+  </si>
+  <si>
+    <t>博世转债</t>
+  </si>
+  <si>
+    <t>2024-07-05</t>
+  </si>
+  <si>
+    <t>0.181</t>
+  </si>
+  <si>
+    <t>1.37%</t>
+  </si>
+  <si>
+    <t>-28.18%</t>
+  </si>
+  <si>
+    <t>123118</t>
+  </si>
+  <si>
+    <t>惠城转债</t>
+  </si>
+  <si>
+    <t>2027-07-07</t>
+  </si>
+  <si>
+    <t>3.186</t>
+  </si>
+  <si>
+    <t>1.7%</t>
+  </si>
+  <si>
+    <t>-34.95%</t>
+  </si>
+  <si>
+    <t>128106</t>
+  </si>
+  <si>
+    <t>华统转债</t>
+  </si>
+  <si>
+    <t>2026-04-10</t>
+  </si>
+  <si>
+    <t>1.945</t>
+  </si>
+  <si>
+    <t>0.08%</t>
+  </si>
+  <si>
+    <t>-40.73%</t>
+  </si>
+  <si>
+    <t>113615</t>
+  </si>
+  <si>
+    <t>金诚转债</t>
+  </si>
+  <si>
+    <t>2026-12-23</t>
+  </si>
+  <si>
+    <t>2.649</t>
+  </si>
+  <si>
+    <t>1.56%</t>
+  </si>
+  <si>
+    <t>-62.95%</t>
+  </si>
+  <si>
+    <t>128042</t>
+  </si>
+  <si>
+    <t>凯中转债</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>0.249</t>
+  </si>
+  <si>
+    <t>5.78%</t>
+  </si>
+  <si>
+    <t>-69.58%</t>
+  </si>
+  <si>
+    <t>110048</t>
+  </si>
+  <si>
+    <t>福能转债</t>
+  </si>
+  <si>
+    <t>2024-12-07</t>
+  </si>
+  <si>
+    <t>0.606</t>
   </si>
   <si>
     <t>0.91%</t>
-  </si>
-  <si>
-    <t>-9.94%</t>
-  </si>
-  <si>
-    <t>123127</t>
-  </si>
-  <si>
-    <t>耐普转债</t>
-  </si>
-  <si>
-    <t>2027-10-29</t>
-  </si>
-  <si>
-    <t>3.573</t>
-  </si>
-  <si>
-    <t>9.31%</t>
-  </si>
-  <si>
-    <t>-12.71%</t>
-  </si>
-  <si>
-    <t>127037</t>
-  </si>
-  <si>
-    <t>银轮转债</t>
-  </si>
-  <si>
-    <t>2027-06-07</t>
-  </si>
-  <si>
-    <t>3.178</t>
-  </si>
-  <si>
-    <t>-0.11%</t>
-  </si>
-  <si>
-    <t>-15.04%</t>
-  </si>
-  <si>
-    <t>110077</t>
-  </si>
-  <si>
-    <t>洪城转债</t>
-  </si>
-  <si>
-    <t>2026-11-20</t>
-  </si>
-  <si>
-    <t>2.633</t>
-  </si>
-  <si>
-    <t>0.61%</t>
-  </si>
-  <si>
-    <t>-19.99%</t>
-  </si>
-  <si>
-    <t>127014</t>
-  </si>
-  <si>
-    <t>北方转债</t>
-  </si>
-  <si>
-    <t>2025-10-24</t>
-  </si>
-  <si>
-    <t>1.559</t>
-  </si>
-  <si>
-    <t>0.13%</t>
-  </si>
-  <si>
-    <t>-23.57%</t>
-  </si>
-  <si>
-    <t>113534</t>
-  </si>
-  <si>
-    <t>鼎胜转债</t>
-  </si>
-  <si>
-    <t>2025-04-09</t>
-  </si>
-  <si>
-    <t>1.016</t>
-  </si>
-  <si>
-    <t>1.5%</t>
-  </si>
-  <si>
-    <t>-24.78%</t>
-  </si>
-  <si>
-    <t>123118</t>
-  </si>
-  <si>
-    <t>惠城转债</t>
-  </si>
-  <si>
-    <t>2027-07-07</t>
-  </si>
-  <si>
-    <t>3.26</t>
-  </si>
-  <si>
-    <t>-2.98%</t>
-  </si>
-  <si>
-    <t>-34.99%</t>
-  </si>
-  <si>
-    <t>128106</t>
-  </si>
-  <si>
-    <t>华统转债</t>
-  </si>
-  <si>
-    <t>2026-04-10</t>
-  </si>
-  <si>
-    <t>2.019</t>
-  </si>
-  <si>
-    <t>2.87%</t>
-  </si>
-  <si>
-    <t>-39.43%</t>
-  </si>
-  <si>
-    <t>113615</t>
-  </si>
-  <si>
-    <t>金诚转债</t>
-  </si>
-  <si>
-    <t>2026-12-23</t>
-  </si>
-  <si>
-    <t>2.723</t>
-  </si>
-  <si>
-    <t>4.4%</t>
-  </si>
-  <si>
-    <t>-62.67%</t>
-  </si>
-  <si>
-    <t>110048</t>
-  </si>
-  <si>
-    <t>福能转债</t>
-  </si>
-  <si>
-    <t>2024-12-07</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>-1.15%</t>
-  </si>
-  <si>
-    <t>-999%</t>
-  </si>
-  <si>
-    <t>113566</t>
-  </si>
-  <si>
-    <t>翔港转债</t>
-  </si>
-  <si>
-    <t>2026-02-28</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>-1.92%</t>
-  </si>
-  <si>
-    <t>127063</t>
-  </si>
-  <si>
-    <t>贵轮转债</t>
-  </si>
-  <si>
-    <t>2028-04-22</t>
-  </si>
-  <si>
-    <t>1.96%</t>
-  </si>
-  <si>
-    <t>113594</t>
-  </si>
-  <si>
-    <t>淳中转债</t>
-  </si>
-  <si>
-    <t>2026-07-21</t>
-  </si>
-  <si>
-    <t>-0.4%</t>
-  </si>
-  <si>
-    <t>123167</t>
-  </si>
-  <si>
-    <t>商络转债</t>
-  </si>
-  <si>
-    <t>2028-11-17</t>
-  </si>
-  <si>
-    <t>-6.73%</t>
-  </si>
-  <si>
-    <t>-2066.29%</t>
-  </si>
-  <si>
-    <t>132018</t>
-  </si>
-  <si>
-    <t>G三峡EB1</t>
-  </si>
-  <si>
-    <t>2024-04-09</t>
-  </si>
-  <si>
-    <t>0.016</t>
-  </si>
-  <si>
-    <t>-0.69%</t>
   </si>
 </sst>
 </file>
@@ -959,7 +977,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>65</v>
+        <v>6.527</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -985,7 +1003,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>0.828</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -1011,62 +1029,62 @@
         <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>119.162</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
       </c>
       <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="n">
+        <v>131</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="n">
-        <v>114</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="n">
+        <v>133.918</v>
+      </c>
+      <c r="E6" t="s">
         <v>36</v>
-      </c>
-      <c r="D6" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
@@ -1089,7 +1107,7 @@
         <v>42</v>
       </c>
       <c r="D7" t="n">
-        <v>136.75</v>
+        <v>140.233</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
@@ -1115,7 +1133,7 @@
         <v>49</v>
       </c>
       <c r="D8" t="n">
-        <v>119.885</v>
+        <v>141.485</v>
       </c>
       <c r="E8" t="s">
         <v>50</v>
@@ -1141,10 +1159,10 @@
         <v>56</v>
       </c>
       <c r="D9" t="n">
-        <v>135.435</v>
+        <v>147.298</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1167,10 +1185,10 @@
         <v>62</v>
       </c>
       <c r="D10" t="n">
-        <v>139.335</v>
+        <v>143.702</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1193,322 +1211,322 @@
         <v>68</v>
       </c>
       <c r="D11" t="n">
-        <v>146.106</v>
+        <v>143.533</v>
       </c>
       <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
         <v>69</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>70</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>71</v>
-      </c>
-      <c r="H11" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
         <v>73</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>74</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="n">
+        <v>152.189</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
         <v>75</v>
       </c>
-      <c r="D12" t="n">
-        <v>159.855</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>76</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>77</v>
-      </c>
-      <c r="H12" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
         <v>79</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>80</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="n">
+        <v>171.382</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
         <v>81</v>
       </c>
-      <c r="D13" t="n">
-        <v>147.01</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>82</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>83</v>
-      </c>
-      <c r="H13" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
         <v>85</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>86</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="n">
+        <v>132.99</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
         <v>87</v>
       </c>
-      <c r="D14" t="n">
-        <v>152.1</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>88</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
         <v>92</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="n">
+        <v>137.514</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
         <v>93</v>
       </c>
-      <c r="C15" t="s">
+      <c r="G15" t="s">
         <v>94</v>
       </c>
-      <c r="D15" t="n">
-        <v>161.808</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>95</v>
-      </c>
-      <c r="G15" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" t="s">
         <v>98</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="n">
+        <v>175.748</v>
+      </c>
+      <c r="E16" t="s">
         <v>99</v>
       </c>
-      <c r="C16" t="s">
+      <c r="F16" t="s">
         <v>100</v>
       </c>
-      <c r="D16" t="n">
-        <v>137.287</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>101</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>102</v>
-      </c>
-      <c r="H16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>105</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="n">
+        <v>118.613</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
         <v>106</v>
       </c>
-      <c r="D17" t="n">
-        <v>148.701</v>
-      </c>
-      <c r="E17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>107</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>108</v>
-      </c>
-      <c r="H17" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
         <v>110</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>111</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="n">
+        <v>155.556</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
         <v>112</v>
       </c>
-      <c r="D18" t="n">
-        <v>162</v>
-      </c>
-      <c r="E18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>113</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>114</v>
-      </c>
-      <c r="H18" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" t="s">
         <v>116</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>117</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="n">
+        <v>163.062</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
         <v>118</v>
       </c>
-      <c r="D19" t="n">
-        <v>170.5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>119</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>120</v>
-      </c>
-      <c r="H19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" t="s">
         <v>122</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>123</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="n">
+        <v>193.349</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
         <v>124</v>
       </c>
-      <c r="D20" t="n">
-        <v>168.079</v>
-      </c>
-      <c r="E20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>125</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>126</v>
-      </c>
-      <c r="H20" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" t="s">
         <v>128</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>129</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="n">
+        <v>154.516</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
         <v>130</v>
       </c>
-      <c r="D21" t="n">
-        <v>154.444</v>
-      </c>
-      <c r="E21" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>131</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>132</v>
-      </c>
-      <c r="H21" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s">
         <v>134</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>135</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="n">
+        <v>181.226</v>
+      </c>
+      <c r="E22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" t="s">
         <v>136</v>
       </c>
-      <c r="D22" t="n">
-        <v>143.265</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>137</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>138</v>
-      </c>
-      <c r="H22" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" t="s">
         <v>140</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>141</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="n">
+        <v>141.462</v>
+      </c>
+      <c r="E23" t="s">
         <v>142</v>
-      </c>
-      <c r="D23" t="n">
-        <v>290.088</v>
-      </c>
-      <c r="E23" t="s">
-        <v>69</v>
       </c>
       <c r="F23" t="s">
         <v>143</v>
@@ -1531,10 +1549,10 @@
         <v>148</v>
       </c>
       <c r="D24" t="n">
-        <v>257</v>
+        <v>136.778</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
         <v>149</v>
@@ -1557,10 +1575,10 @@
         <v>154</v>
       </c>
       <c r="D25" t="n">
-        <v>433.845</v>
+        <v>264.741</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
         <v>155</v>
@@ -1583,10 +1601,10 @@
         <v>160</v>
       </c>
       <c r="D26" t="n">
-        <v>186.13</v>
+        <v>111.501</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="F26" t="s">
         <v>161</v>
@@ -1609,10 +1627,10 @@
         <v>166</v>
       </c>
       <c r="D27" t="n">
-        <v>211.091</v>
+        <v>328.5</v>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
         <v>167</v>
@@ -1626,106 +1644,106 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D28" t="n">
-        <v>124.588</v>
+        <v>247.5</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G28" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H28" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C29" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D29" t="n">
-        <v>171.297</v>
+        <v>442.595</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G29" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="H29" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="B30" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C30" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D30" t="n">
-        <v>170.5</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G30" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="H30" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B31" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C31" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D31" t="n">
-        <v>161.05</v>
+        <v>184.633</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G31" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H31" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
   <si>
     <t>到期税后收益率</t>
   </si>
@@ -41,7 +41,7 @@
     <t>涨跌幅</t>
   </si>
   <si>
-    <t>5318.57%</t>
+    <t>1267.65%</t>
   </si>
   <si>
     <t>404001</t>
@@ -56,13 +56,514 @@
     <t>2024-08-13</t>
   </si>
   <si>
-    <t>0.288</t>
+    <t>0.195</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>1416.88%</t>
+    <t>17.02%</t>
+  </si>
+  <si>
+    <t>110072</t>
+  </si>
+  <si>
+    <t>广汇转债</t>
+  </si>
+  <si>
+    <t>AA+</t>
+  </si>
+  <si>
+    <t>2026-08-18</t>
+  </si>
+  <si>
+    <t>2.208</t>
+  </si>
+  <si>
+    <t>-17.92%</t>
+  </si>
+  <si>
+    <t>1.78%</t>
+  </si>
+  <si>
+    <t>113033</t>
+  </si>
+  <si>
+    <t>利群转债</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>2026-04-01</t>
+  </si>
+  <si>
+    <t>1.827</t>
+  </si>
+  <si>
+    <t>-2.09%</t>
+  </si>
+  <si>
+    <t>-3.28%</t>
+  </si>
+  <si>
+    <t>113044</t>
+  </si>
+  <si>
+    <t>大秦转债</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>2026-12-14</t>
+  </si>
+  <si>
+    <t>2.532</t>
+  </si>
+  <si>
+    <t>-0.48%</t>
+  </si>
+  <si>
+    <t>-3.66%</t>
+  </si>
+  <si>
+    <t>113055</t>
+  </si>
+  <si>
+    <t>成银转债</t>
+  </si>
+  <si>
+    <t>2028-03-03</t>
+  </si>
+  <si>
+    <t>3.751</t>
+  </si>
+  <si>
+    <t>-1.26%</t>
+  </si>
+  <si>
+    <t>-3.99%</t>
+  </si>
+  <si>
+    <t>127084</t>
+  </si>
+  <si>
+    <t>柳工转2</t>
+  </si>
+  <si>
+    <t>2029-03-27</t>
+  </si>
+  <si>
+    <t>4.816</t>
+  </si>
+  <si>
+    <t>2.24%</t>
+  </si>
+  <si>
+    <t>-5.01%</t>
+  </si>
+  <si>
+    <t>123044</t>
+  </si>
+  <si>
+    <t>红相转债</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>2026-03-12</t>
+  </si>
+  <si>
+    <t>1.773</t>
+  </si>
+  <si>
+    <t>-3.04%</t>
+  </si>
+  <si>
+    <t>-5.59%</t>
+  </si>
+  <si>
+    <t>111017</t>
+  </si>
+  <si>
+    <t>蓝天转债</t>
+  </si>
+  <si>
+    <t>2029-08-15</t>
+  </si>
+  <si>
+    <t>5.203</t>
+  </si>
+  <si>
+    <t>-1.38%</t>
+  </si>
+  <si>
+    <t>-5.89%</t>
+  </si>
+  <si>
+    <t>127092</t>
+  </si>
+  <si>
+    <t>运机转债</t>
+  </si>
+  <si>
+    <t>AA-</t>
+  </si>
+  <si>
+    <t>2029-09-21</t>
+  </si>
+  <si>
+    <t>5.304</t>
+  </si>
+  <si>
+    <t>4.98%</t>
+  </si>
+  <si>
+    <t>-6.17%</t>
+  </si>
+  <si>
+    <t>123107</t>
+  </si>
+  <si>
+    <t>温氏转债</t>
+  </si>
+  <si>
+    <t>2027-03-29</t>
+  </si>
+  <si>
+    <t>2.819</t>
+  </si>
+  <si>
+    <t>0.77%</t>
+  </si>
+  <si>
+    <t>127027</t>
+  </si>
+  <si>
+    <t>能化转债</t>
+  </si>
+  <si>
+    <t>2026-12-10</t>
+  </si>
+  <si>
+    <t>2.521</t>
+  </si>
+  <si>
+    <t>-0.31%</t>
+  </si>
+  <si>
+    <t>-6.39%</t>
+  </si>
+  <si>
+    <t>113648</t>
+  </si>
+  <si>
+    <t>巨星转债</t>
+  </si>
+  <si>
+    <t>2028-04-25</t>
+  </si>
+  <si>
+    <t>3.896</t>
+  </si>
+  <si>
+    <t>2.29%</t>
+  </si>
+  <si>
+    <t>-7.88%</t>
+  </si>
+  <si>
+    <t>123223</t>
+  </si>
+  <si>
+    <t>九典转02</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>2029-09-15</t>
+  </si>
+  <si>
+    <t>5.288</t>
+  </si>
+  <si>
+    <t>0.92%</t>
+  </si>
+  <si>
+    <t>-8.01%</t>
+  </si>
+  <si>
+    <t>113066</t>
+  </si>
+  <si>
+    <t>平煤转债</t>
+  </si>
+  <si>
+    <t>2029-03-16</t>
+  </si>
+  <si>
+    <t>4.786</t>
+  </si>
+  <si>
+    <t>0.17%</t>
+  </si>
+  <si>
+    <t>-10.26%</t>
+  </si>
+  <si>
+    <t>110091</t>
+  </si>
+  <si>
+    <t>合力转债</t>
+  </si>
+  <si>
+    <t>2028-12-13</t>
+  </si>
+  <si>
+    <t>4.532</t>
+  </si>
+  <si>
+    <t>0.79%</t>
+  </si>
+  <si>
+    <t>-10.34%</t>
+  </si>
+  <si>
+    <t>123127</t>
+  </si>
+  <si>
+    <t>耐普转债</t>
+  </si>
+  <si>
+    <t>2027-10-29</t>
+  </si>
+  <si>
+    <t>3.406</t>
+  </si>
+  <si>
+    <t>0.78%</t>
+  </si>
+  <si>
+    <t>-10.62%</t>
+  </si>
+  <si>
+    <t>110083</t>
+  </si>
+  <si>
+    <t>苏租转债</t>
+  </si>
+  <si>
+    <t>2027-11-11</t>
+  </si>
+  <si>
+    <t>3.441</t>
+  </si>
+  <si>
+    <t>-1.13%</t>
+  </si>
+  <si>
+    <t>-12.47%</t>
+  </si>
+  <si>
+    <t>113021</t>
+  </si>
+  <si>
+    <t>中信转债</t>
+  </si>
+  <si>
+    <t>2025-03-04</t>
+  </si>
+  <si>
+    <t>0.751</t>
+  </si>
+  <si>
+    <t>-2.03%</t>
+  </si>
+  <si>
+    <t>-12.52%</t>
+  </si>
+  <si>
+    <t>128123</t>
+  </si>
+  <si>
+    <t>国光转债</t>
+  </si>
+  <si>
+    <t>2026-07-27</t>
+  </si>
+  <si>
+    <t>2.148</t>
+  </si>
+  <si>
+    <t>-15.28%</t>
+  </si>
+  <si>
+    <t>127037</t>
+  </si>
+  <si>
+    <t>银轮转债</t>
+  </si>
+  <si>
+    <t>2027-06-07</t>
+  </si>
+  <si>
+    <t>3.011</t>
+  </si>
+  <si>
+    <t>-1.7%</t>
+  </si>
+  <si>
+    <t>-17.52%</t>
+  </si>
+  <si>
+    <t>123010</t>
+  </si>
+  <si>
+    <t>博世转债</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>2024-07-05</t>
+  </si>
+  <si>
+    <t>0.088</t>
+  </si>
+  <si>
+    <t>-0.56%</t>
+  </si>
+  <si>
+    <t>-21.64%</t>
+  </si>
+  <si>
+    <t>110077</t>
+  </si>
+  <si>
+    <t>洪城转债</t>
+  </si>
+  <si>
+    <t>2026-11-20</t>
+  </si>
+  <si>
+    <t>2.466</t>
+  </si>
+  <si>
+    <t>2.22%</t>
+  </si>
+  <si>
+    <t>-22.22%</t>
+  </si>
+  <si>
+    <t>127014</t>
+  </si>
+  <si>
+    <t>北方转债</t>
+  </si>
+  <si>
+    <t>2025-10-24</t>
+  </si>
+  <si>
+    <t>1.392</t>
+  </si>
+  <si>
+    <t>0.97%</t>
+  </si>
+  <si>
+    <t>-23.54%</t>
+  </si>
+  <si>
+    <t>113534</t>
+  </si>
+  <si>
+    <t>鼎胜转债</t>
+  </si>
+  <si>
+    <t>2025-04-09</t>
+  </si>
+  <si>
+    <t>0.849</t>
+  </si>
+  <si>
+    <t>-1.59%</t>
+  </si>
+  <si>
+    <t>-29.69%</t>
+  </si>
+  <si>
+    <t>128042</t>
+  </si>
+  <si>
+    <t>凯中转债</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>0.156</t>
+  </si>
+  <si>
+    <t>-1.94%</t>
+  </si>
+  <si>
+    <t>-36.12%</t>
+  </si>
+  <si>
+    <t>123118</t>
+  </si>
+  <si>
+    <t>惠城转债</t>
+  </si>
+  <si>
+    <t>2027-07-07</t>
+  </si>
+  <si>
+    <t>3.093</t>
+  </si>
+  <si>
+    <t>-1.37%</t>
+  </si>
+  <si>
+    <t>-42.09%</t>
+  </si>
+  <si>
+    <t>113615</t>
+  </si>
+  <si>
+    <t>金诚转债</t>
+  </si>
+  <si>
+    <t>2026-12-23</t>
+  </si>
+  <si>
+    <t>2.556</t>
+  </si>
+  <si>
+    <t>-3.26%</t>
+  </si>
+  <si>
+    <t>-85.39%</t>
+  </si>
+  <si>
+    <t>110048</t>
+  </si>
+  <si>
+    <t>福能转债</t>
+  </si>
+  <si>
+    <t>2024-12-07</t>
+  </si>
+  <si>
+    <t>0.512</t>
+  </si>
+  <si>
+    <t>-1.49%</t>
+  </si>
+  <si>
+    <t>-999%</t>
   </si>
   <si>
     <t>404002</t>
@@ -74,367 +575,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>2026-03-12</t>
-  </si>
-  <si>
-    <t>1.866</t>
-  </si>
-  <si>
-    <t>-1.08%</t>
-  </si>
-  <si>
-    <t>123044</t>
-  </si>
-  <si>
-    <t>红相转债</t>
-  </si>
-  <si>
-    <t>A-</t>
-  </si>
-  <si>
-    <t>-0.86%</t>
-  </si>
-  <si>
-    <t>-2.51%</t>
-  </si>
-  <si>
-    <t>123205</t>
-  </si>
-  <si>
-    <t>大叶转债</t>
-  </si>
-  <si>
-    <t>A+</t>
-  </si>
-  <si>
-    <t>2029-07-17</t>
-  </si>
-  <si>
-    <t>5.216</t>
-  </si>
-  <si>
-    <t>0.46%</t>
-  </si>
-  <si>
-    <t>-2.78%</t>
-  </si>
-  <si>
-    <t>111015</t>
-  </si>
-  <si>
-    <t>东亚转债</t>
-  </si>
-  <si>
-    <t>AA-</t>
-  </si>
-  <si>
-    <t>2029-07-06</t>
-  </si>
-  <si>
-    <t>5.186</t>
-  </si>
-  <si>
-    <t>2.08%</t>
-  </si>
-  <si>
-    <t>-4.23%</t>
-  </si>
-  <si>
-    <t>127084</t>
-  </si>
-  <si>
-    <t>柳工转2</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>2029-03-27</t>
-  </si>
-  <si>
-    <t>4.91</t>
-  </si>
-  <si>
-    <t>0.89%</t>
-  </si>
-  <si>
-    <t>-4.37%</t>
-  </si>
-  <si>
-    <t>111017</t>
-  </si>
-  <si>
-    <t>蓝天转债</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>2029-08-15</t>
-  </si>
-  <si>
-    <t>5.296</t>
-  </si>
-  <si>
-    <t>2.49%</t>
-  </si>
-  <si>
-    <t>-5.08%</t>
-  </si>
-  <si>
-    <t>111011</t>
-  </si>
-  <si>
-    <t>冠盛转债</t>
-  </si>
-  <si>
-    <t>2029-01-03</t>
-  </si>
-  <si>
-    <t>4.682</t>
-  </si>
-  <si>
-    <t>-0.58%</t>
-  </si>
-  <si>
-    <t>-5.64%</t>
-  </si>
-  <si>
-    <t>118019</t>
-  </si>
-  <si>
-    <t>金盘转债</t>
-  </si>
-  <si>
-    <t>2028-09-16</t>
-  </si>
-  <si>
-    <t>4.384</t>
-  </si>
-  <si>
-    <t>-1.94%</t>
-  </si>
-  <si>
-    <t>-6.16%</t>
-  </si>
-  <si>
-    <t>113648</t>
-  </si>
-  <si>
-    <t>巨星转债</t>
-  </si>
-  <si>
-    <t>2028-04-25</t>
-  </si>
-  <si>
-    <t>3.989</t>
-  </si>
-  <si>
-    <t>-0.67%</t>
-  </si>
-  <si>
-    <t>-6.72%</t>
-  </si>
-  <si>
-    <t>113066</t>
-  </si>
-  <si>
-    <t>平煤转债</t>
-  </si>
-  <si>
-    <t>2029-03-16</t>
-  </si>
-  <si>
-    <t>4.88</t>
-  </si>
-  <si>
-    <t>1.49%</t>
-  </si>
-  <si>
-    <t>-7.24%</t>
-  </si>
-  <si>
-    <t>123223</t>
-  </si>
-  <si>
-    <t>九典转02</t>
-  </si>
-  <si>
-    <t>2029-09-15</t>
-  </si>
-  <si>
-    <t>5.381</t>
-  </si>
-  <si>
-    <t>-0.83%</t>
-  </si>
-  <si>
-    <t>-7.80%</t>
-  </si>
-  <si>
-    <t>128123</t>
-  </si>
-  <si>
-    <t>国光转债</t>
-  </si>
-  <si>
-    <t>2026-07-27</t>
-  </si>
-  <si>
-    <t>2.241</t>
-  </si>
-  <si>
-    <t>0.03%</t>
-  </si>
-  <si>
-    <t>-8.56%</t>
-  </si>
-  <si>
-    <t>110074</t>
-  </si>
-  <si>
-    <t>精达转债</t>
-  </si>
-  <si>
-    <t>2026-08-19</t>
-  </si>
-  <si>
-    <t>2.304</t>
-  </si>
-  <si>
-    <t>-1.77%</t>
-  </si>
-  <si>
-    <t>-9.78%</t>
-  </si>
-  <si>
-    <t>110091</t>
-  </si>
-  <si>
-    <t>合力转债</t>
-  </si>
-  <si>
-    <t>AA+</t>
-  </si>
-  <si>
-    <t>2028-12-13</t>
-  </si>
-  <si>
-    <t>4.625</t>
-  </si>
-  <si>
-    <t>1.76%</t>
-  </si>
-  <si>
-    <t>-9.84%</t>
-  </si>
-  <si>
-    <t>113021</t>
-  </si>
-  <si>
-    <t>中信转债</t>
-  </si>
-  <si>
-    <t>2025-03-04</t>
-  </si>
-  <si>
-    <t>0.844</t>
-  </si>
-  <si>
-    <t>1.02%</t>
-  </si>
-  <si>
-    <t>-9.92%</t>
-  </si>
-  <si>
-    <t>110083</t>
-  </si>
-  <si>
-    <t>苏租转债</t>
-  </si>
-  <si>
-    <t>2027-11-11</t>
-  </si>
-  <si>
-    <t>3.534</t>
-  </si>
-  <si>
-    <t>1.67%</t>
-  </si>
-  <si>
-    <t>-10.31%</t>
-  </si>
-  <si>
-    <t>123127</t>
-  </si>
-  <si>
-    <t>耐普转债</t>
-  </si>
-  <si>
-    <t>2027-10-29</t>
-  </si>
-  <si>
-    <t>3.499</t>
-  </si>
-  <si>
-    <t>0.25%</t>
-  </si>
-  <si>
-    <t>-16.49%</t>
-  </si>
-  <si>
-    <t>127037</t>
-  </si>
-  <si>
-    <t>银轮转债</t>
-  </si>
-  <si>
-    <t>2027-06-07</t>
-  </si>
-  <si>
-    <t>3.104</t>
-  </si>
-  <si>
-    <t>-0.49%</t>
-  </si>
-  <si>
-    <t>-17.58%</t>
-  </si>
-  <si>
-    <t>128091</t>
-  </si>
-  <si>
-    <t>新天转债</t>
-  </si>
-  <si>
-    <t>2025-12-30</t>
-  </si>
-  <si>
-    <t>1.669</t>
-  </si>
-  <si>
-    <t>1.32%</t>
-  </si>
-  <si>
-    <t>-17.91%</t>
-  </si>
-  <si>
-    <t>110077</t>
-  </si>
-  <si>
-    <t>洪城转债</t>
-  </si>
-  <si>
-    <t>2026-11-20</t>
-  </si>
-  <si>
-    <t>2.559</t>
-  </si>
-  <si>
-    <t>1.03%</t>
-  </si>
-  <si>
-    <t>-20.66%</t>
+    <t>-99.97%</t>
   </si>
   <si>
     <t>113027</t>
@@ -443,160 +584,13 @@
     <t>华钰转债</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>2025-06-14</t>
   </si>
   <si>
-    <t>1.123</t>
-  </si>
-  <si>
-    <t>0.73%</t>
-  </si>
-  <si>
-    <t>-22.39%</t>
-  </si>
-  <si>
-    <t>113534</t>
-  </si>
-  <si>
-    <t>鼎胜转债</t>
-  </si>
-  <si>
-    <t>2025-04-09</t>
-  </si>
-  <si>
-    <t>0.943</t>
-  </si>
-  <si>
-    <t>-4.57%</t>
-  </si>
-  <si>
-    <t>-24.37%</t>
-  </si>
-  <si>
-    <t>123106</t>
-  </si>
-  <si>
-    <t>正丹转债</t>
-  </si>
-  <si>
-    <t>2027-03-24</t>
-  </si>
-  <si>
-    <t>2.899</t>
-  </si>
-  <si>
-    <t>14.26%</t>
-  </si>
-  <si>
-    <t>-25.30%</t>
-  </si>
-  <si>
-    <t>123010</t>
-  </si>
-  <si>
-    <t>博世转债</t>
-  </si>
-  <si>
-    <t>2024-07-05</t>
-  </si>
-  <si>
-    <t>0.181</t>
-  </si>
-  <si>
-    <t>1.37%</t>
-  </si>
-  <si>
-    <t>-28.18%</t>
-  </si>
-  <si>
-    <t>123118</t>
-  </si>
-  <si>
-    <t>惠城转债</t>
-  </si>
-  <si>
-    <t>2027-07-07</t>
-  </si>
-  <si>
-    <t>3.186</t>
-  </si>
-  <si>
-    <t>1.7%</t>
-  </si>
-  <si>
-    <t>-34.95%</t>
-  </si>
-  <si>
-    <t>128106</t>
-  </si>
-  <si>
-    <t>华统转债</t>
-  </si>
-  <si>
-    <t>2026-04-10</t>
-  </si>
-  <si>
-    <t>1.945</t>
-  </si>
-  <si>
-    <t>0.08%</t>
-  </si>
-  <si>
-    <t>-40.73%</t>
-  </si>
-  <si>
-    <t>113615</t>
-  </si>
-  <si>
-    <t>金诚转债</t>
-  </si>
-  <si>
-    <t>2026-12-23</t>
-  </si>
-  <si>
-    <t>2.649</t>
-  </si>
-  <si>
-    <t>1.56%</t>
-  </si>
-  <si>
-    <t>-62.95%</t>
-  </si>
-  <si>
-    <t>128042</t>
-  </si>
-  <si>
-    <t>凯中转债</t>
-  </si>
-  <si>
-    <t>2024-07-30</t>
-  </si>
-  <si>
-    <t>0.249</t>
-  </si>
-  <si>
-    <t>5.78%</t>
-  </si>
-  <si>
-    <t>-69.58%</t>
-  </si>
-  <si>
-    <t>110048</t>
-  </si>
-  <si>
-    <t>福能转债</t>
-  </si>
-  <si>
-    <t>2024-12-07</t>
-  </si>
-  <si>
-    <t>0.606</t>
-  </si>
-  <si>
-    <t>0.91%</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>-15.71%</t>
   </si>
 </sst>
 </file>
@@ -977,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>6.527</v>
+        <v>30.702</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1003,7 +997,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>0.828</v>
+        <v>78.71299999999999</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -1015,449 +1009,449 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>119.162</v>
+        <v>105.99</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>131</v>
+        <v>119.42</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>133.918</v>
+        <v>124.566</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D7" t="n">
-        <v>140.233</v>
+        <v>138.049</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>141.485</v>
+        <v>127.791</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" t="n">
-        <v>147.298</v>
+        <v>150.498</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D10" t="n">
-        <v>143.702</v>
+        <v>160.622</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D11" t="n">
-        <v>143.533</v>
+        <v>130.19</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" t="n">
-        <v>152.189</v>
+        <v>129.596</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D13" t="n">
-        <v>171.382</v>
+        <v>144.051</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" t="n">
-        <v>132.99</v>
+        <v>176.4</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D15" t="n">
-        <v>137.514</v>
+        <v>161.451</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>175.748</v>
+        <v>178.283</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D17" t="n">
-        <v>118.613</v>
+        <v>161.555</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D18" t="n">
-        <v>155.556</v>
+        <v>158.198</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D19" t="n">
-        <v>163.062</v>
+        <v>119.994</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D20" t="n">
-        <v>193.349</v>
+        <v>147.496</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H20" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1471,10 +1465,10 @@
         <v>129</v>
       </c>
       <c r="D21" t="n">
-        <v>154.516</v>
+        <v>182.15</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F21" t="s">
         <v>130</v>
@@ -1497,36 +1491,36 @@
         <v>135</v>
       </c>
       <c r="D22" t="n">
-        <v>181.226</v>
+        <v>108.06</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="F22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D23" t="n">
-        <v>141.462</v>
+        <v>199.362</v>
       </c>
       <c r="E23" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
         <v>143</v>
@@ -1549,10 +1543,10 @@
         <v>148</v>
       </c>
       <c r="D24" t="n">
-        <v>136.778</v>
+        <v>154.7</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
         <v>149</v>
@@ -1575,10 +1569,10 @@
         <v>154</v>
       </c>
       <c r="D25" t="n">
-        <v>264.741</v>
+        <v>134.877</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F25" t="s">
         <v>155</v>
@@ -1601,10 +1595,10 @@
         <v>160</v>
       </c>
       <c r="D26" t="n">
-        <v>111.501</v>
+        <v>114.93</v>
       </c>
       <c r="E26" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="F26" t="s">
         <v>161</v>
@@ -1627,10 +1621,10 @@
         <v>166</v>
       </c>
       <c r="D27" t="n">
-        <v>328.5</v>
+        <v>455.866</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s">
         <v>167</v>
@@ -1653,10 +1647,10 @@
         <v>172</v>
       </c>
       <c r="D28" t="n">
-        <v>247.5</v>
+        <v>447.15</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
         <v>173</v>
@@ -1679,10 +1673,10 @@
         <v>178</v>
       </c>
       <c r="D29" t="n">
-        <v>442.595</v>
+        <v>189.793</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F29" t="s">
         <v>179</v>
@@ -1705,45 +1699,45 @@
         <v>184</v>
       </c>
       <c r="D30" t="n">
-        <v>130</v>
+        <v>0.01</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="F30" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" t="s">
         <v>186</v>
-      </c>
-      <c r="H30" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" t="s">
         <v>188</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="n">
+        <v>205.541</v>
+      </c>
+      <c r="E31" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" t="s">
         <v>189</v>
       </c>
-      <c r="C31" t="s">
+      <c r="G31" t="s">
         <v>190</v>
       </c>
-      <c r="D31" t="n">
-        <v>184.633</v>
-      </c>
-      <c r="E31" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>191</v>
-      </c>
-      <c r="G31" t="s">
-        <v>192</v>
-      </c>
-      <c r="H31" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -41,7 +41,7 @@
     <t>涨跌幅</t>
   </si>
   <si>
-    <t>1267.65%</t>
+    <t>688.63%</t>
   </si>
   <si>
     <t>404001</t>
@@ -56,94 +56,244 @@
     <t>2024-08-13</t>
   </si>
   <si>
-    <t>0.195</t>
+    <t>0.112</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>17.02%</t>
-  </si>
-  <si>
-    <t>110072</t>
-  </si>
-  <si>
-    <t>广汇转债</t>
+    <t>5.52%</t>
+  </si>
+  <si>
+    <t>127061</t>
+  </si>
+  <si>
+    <t>美锦转债</t>
+  </si>
+  <si>
+    <t>AA-</t>
+  </si>
+  <si>
+    <t>2028-04-20</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>0.14%</t>
+  </si>
+  <si>
+    <t>2.58%</t>
+  </si>
+  <si>
+    <t>113686</t>
+  </si>
+  <si>
+    <t>泰瑞转债</t>
+  </si>
+  <si>
+    <t>2030-07-01</t>
+  </si>
+  <si>
+    <t>5.997</t>
+  </si>
+  <si>
+    <t>1.27%</t>
+  </si>
+  <si>
+    <t>113033</t>
+  </si>
+  <si>
+    <t>利群转债</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>2026-04-01</t>
+  </si>
+  <si>
+    <t>1.745</t>
+  </si>
+  <si>
+    <t>2.92%</t>
+  </si>
+  <si>
+    <t>-1.62%</t>
+  </si>
+  <si>
+    <t>123213</t>
+  </si>
+  <si>
+    <t>天源转债</t>
+  </si>
+  <si>
+    <t>2029-07-28</t>
+  </si>
+  <si>
+    <t>5.071</t>
+  </si>
+  <si>
+    <t>-1.26%</t>
+  </si>
+  <si>
+    <t>-2.02%</t>
+  </si>
+  <si>
+    <t>123178</t>
+  </si>
+  <si>
+    <t>花园转债</t>
+  </si>
+  <si>
+    <t>2029-03-06</t>
+  </si>
+  <si>
+    <t>4.677</t>
+  </si>
+  <si>
+    <t>-0.83%</t>
+  </si>
+  <si>
+    <t>-2.34%</t>
+  </si>
+  <si>
+    <t>123205</t>
+  </si>
+  <si>
+    <t>大叶转债</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>2029-07-17</t>
+  </si>
+  <si>
+    <t>5.041</t>
+  </si>
+  <si>
+    <t>-2.78%</t>
+  </si>
+  <si>
+    <t>-2.74%</t>
+  </si>
+  <si>
+    <t>123044</t>
+  </si>
+  <si>
+    <t>红相转债</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>2026-03-12</t>
+  </si>
+  <si>
+    <t>1.69</t>
+  </si>
+  <si>
+    <t>0.45%</t>
+  </si>
+  <si>
+    <t>-3.46%</t>
+  </si>
+  <si>
+    <t>113669</t>
+  </si>
+  <si>
+    <t>景23转债</t>
+  </si>
+  <si>
+    <t>2029-04-04</t>
+  </si>
+  <si>
+    <t>4.756</t>
+  </si>
+  <si>
+    <t>0.43%</t>
+  </si>
+  <si>
+    <t>-3.79%</t>
+  </si>
+  <si>
+    <t>113044</t>
+  </si>
+  <si>
+    <t>大秦转债</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>2026-12-14</t>
+  </si>
+  <si>
+    <t>2.449</t>
+  </si>
+  <si>
+    <t>-0.21%</t>
+  </si>
+  <si>
+    <t>-3.96%</t>
+  </si>
+  <si>
+    <t>113055</t>
+  </si>
+  <si>
+    <t>成银转债</t>
+  </si>
+  <si>
+    <t>2028-03-03</t>
+  </si>
+  <si>
+    <t>3.669</t>
+  </si>
+  <si>
+    <t>-1.01%</t>
+  </si>
+  <si>
+    <t>-4.37%</t>
+  </si>
+  <si>
+    <t>113631</t>
+  </si>
+  <si>
+    <t>皖天转债</t>
   </si>
   <si>
     <t>AA+</t>
   </si>
   <si>
-    <t>2026-08-18</t>
-  </si>
-  <si>
-    <t>2.208</t>
-  </si>
-  <si>
-    <t>-17.92%</t>
-  </si>
-  <si>
-    <t>1.78%</t>
-  </si>
-  <si>
-    <t>113033</t>
-  </si>
-  <si>
-    <t>利群转债</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>2026-04-01</t>
-  </si>
-  <si>
-    <t>1.827</t>
-  </si>
-  <si>
-    <t>-2.09%</t>
-  </si>
-  <si>
-    <t>-3.28%</t>
-  </si>
-  <si>
-    <t>113044</t>
-  </si>
-  <si>
-    <t>大秦转债</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>2026-12-14</t>
-  </si>
-  <si>
-    <t>2.532</t>
-  </si>
-  <si>
-    <t>-0.48%</t>
-  </si>
-  <si>
-    <t>-3.66%</t>
-  </si>
-  <si>
-    <t>113055</t>
-  </si>
-  <si>
-    <t>成银转债</t>
-  </si>
-  <si>
-    <t>2028-03-03</t>
-  </si>
-  <si>
-    <t>3.751</t>
-  </si>
-  <si>
-    <t>-1.26%</t>
-  </si>
-  <si>
-    <t>-3.99%</t>
+    <t>2027-11-08</t>
+  </si>
+  <si>
+    <t>3.351</t>
+  </si>
+  <si>
+    <t>-0.69%</t>
+  </si>
+  <si>
+    <t>-4.47%</t>
+  </si>
+  <si>
+    <t>127032</t>
+  </si>
+  <si>
+    <t>苏行转债</t>
+  </si>
+  <si>
+    <t>2027-04-12</t>
+  </si>
+  <si>
+    <t>2.775</t>
+  </si>
+  <si>
+    <t>-0.49%</t>
+  </si>
+  <si>
+    <t>-4.54%</t>
   </si>
   <si>
     <t>127084</t>
@@ -155,52 +305,31 @@
     <t>2029-03-27</t>
   </si>
   <si>
-    <t>4.816</t>
-  </si>
-  <si>
-    <t>2.24%</t>
-  </si>
-  <si>
-    <t>-5.01%</t>
-  </si>
-  <si>
-    <t>123044</t>
-  </si>
-  <si>
-    <t>红相转债</t>
-  </si>
-  <si>
-    <t>A-</t>
-  </si>
-  <si>
-    <t>2026-03-12</t>
-  </si>
-  <si>
-    <t>1.773</t>
-  </si>
-  <si>
-    <t>-3.04%</t>
-  </si>
-  <si>
-    <t>-5.59%</t>
-  </si>
-  <si>
-    <t>111017</t>
-  </si>
-  <si>
-    <t>蓝天转债</t>
-  </si>
-  <si>
-    <t>2029-08-15</t>
-  </si>
-  <si>
-    <t>5.203</t>
-  </si>
-  <si>
-    <t>-1.38%</t>
-  </si>
-  <si>
-    <t>-5.89%</t>
+    <t>4.734</t>
+  </si>
+  <si>
+    <t>-2.81%</t>
+  </si>
+  <si>
+    <t>-4.84%</t>
+  </si>
+  <si>
+    <t>113050</t>
+  </si>
+  <si>
+    <t>南银转债</t>
+  </si>
+  <si>
+    <t>2027-06-15</t>
+  </si>
+  <si>
+    <t>2.951</t>
+  </si>
+  <si>
+    <t>-0.34%</t>
+  </si>
+  <si>
+    <t>-5.53%</t>
   </si>
   <si>
     <t>127092</t>
@@ -209,70 +338,34 @@
     <t>运机转债</t>
   </si>
   <si>
-    <t>AA-</t>
-  </si>
-  <si>
     <t>2029-09-21</t>
   </si>
   <si>
-    <t>5.304</t>
-  </si>
-  <si>
-    <t>4.98%</t>
-  </si>
-  <si>
-    <t>-6.17%</t>
-  </si>
-  <si>
-    <t>123107</t>
-  </si>
-  <si>
-    <t>温氏转债</t>
-  </si>
-  <si>
-    <t>2027-03-29</t>
-  </si>
-  <si>
-    <t>2.819</t>
-  </si>
-  <si>
-    <t>0.77%</t>
-  </si>
-  <si>
-    <t>127027</t>
-  </si>
-  <si>
-    <t>能化转债</t>
-  </si>
-  <si>
-    <t>2026-12-10</t>
-  </si>
-  <si>
-    <t>2.521</t>
-  </si>
-  <si>
-    <t>-0.31%</t>
-  </si>
-  <si>
-    <t>-6.39%</t>
-  </si>
-  <si>
-    <t>113648</t>
-  </si>
-  <si>
-    <t>巨星转债</t>
-  </si>
-  <si>
-    <t>2028-04-25</t>
-  </si>
-  <si>
-    <t>3.896</t>
-  </si>
-  <si>
-    <t>2.29%</t>
-  </si>
-  <si>
-    <t>-7.88%</t>
+    <t>5.222</t>
+  </si>
+  <si>
+    <t>-4.51%</t>
+  </si>
+  <si>
+    <t>-6.84%</t>
+  </si>
+  <si>
+    <t>118046</t>
+  </si>
+  <si>
+    <t>诺泰转债</t>
+  </si>
+  <si>
+    <t>2029-12-15</t>
+  </si>
+  <si>
+    <t>5.455</t>
+  </si>
+  <si>
+    <t>-4.43%</t>
+  </si>
+  <si>
+    <t>-7.68%</t>
   </si>
   <si>
     <t>123223</t>
@@ -281,55 +374,34 @@
     <t>九典转02</t>
   </si>
   <si>
-    <t>A+</t>
-  </si>
-  <si>
     <t>2029-09-15</t>
   </si>
   <si>
-    <t>5.288</t>
-  </si>
-  <si>
-    <t>0.92%</t>
-  </si>
-  <si>
-    <t>-8.01%</t>
-  </si>
-  <si>
-    <t>113066</t>
-  </si>
-  <si>
-    <t>平煤转债</t>
-  </si>
-  <si>
-    <t>2029-03-16</t>
-  </si>
-  <si>
-    <t>4.786</t>
-  </si>
-  <si>
-    <t>0.17%</t>
-  </si>
-  <si>
-    <t>-10.26%</t>
-  </si>
-  <si>
-    <t>110091</t>
-  </si>
-  <si>
-    <t>合力转债</t>
-  </si>
-  <si>
-    <t>2028-12-13</t>
-  </si>
-  <si>
-    <t>4.532</t>
-  </si>
-  <si>
-    <t>0.79%</t>
-  </si>
-  <si>
-    <t>-10.34%</t>
+    <t>5.206</t>
+  </si>
+  <si>
+    <t>-1.95%</t>
+  </si>
+  <si>
+    <t>-8.33%</t>
+  </si>
+  <si>
+    <t>132026</t>
+  </si>
+  <si>
+    <t>G三峡EB2</t>
+  </si>
+  <si>
+    <t>2027-06-01</t>
+  </si>
+  <si>
+    <t>2.912</t>
+  </si>
+  <si>
+    <t>-0.61%</t>
+  </si>
+  <si>
+    <t>-8.36%</t>
   </si>
   <si>
     <t>123127</t>
@@ -341,13 +413,31 @@
     <t>2027-10-29</t>
   </si>
   <si>
-    <t>3.406</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>-10.62%</t>
+    <t>3.323</t>
+  </si>
+  <si>
+    <t>-5.29%</t>
+  </si>
+  <si>
+    <t>-9.32%</t>
+  </si>
+  <si>
+    <t>113602</t>
+  </si>
+  <si>
+    <t>景20转债</t>
+  </si>
+  <si>
+    <t>2026-08-24</t>
+  </si>
+  <si>
+    <t>2.143</t>
+  </si>
+  <si>
+    <t>0.91%</t>
+  </si>
+  <si>
+    <t>-13.08%</t>
   </si>
   <si>
     <t>110083</t>
@@ -359,13 +449,13 @@
     <t>2027-11-11</t>
   </si>
   <si>
-    <t>3.441</t>
-  </si>
-  <si>
-    <t>-1.13%</t>
-  </si>
-  <si>
-    <t>-12.47%</t>
+    <t>3.359</t>
+  </si>
+  <si>
+    <t>-1.55%</t>
+  </si>
+  <si>
+    <t>-13.33%</t>
   </si>
   <si>
     <t>113021</t>
@@ -377,121 +467,85 @@
     <t>2025-03-04</t>
   </si>
   <si>
-    <t>0.751</t>
-  </si>
-  <si>
-    <t>-2.03%</t>
-  </si>
-  <si>
-    <t>-12.52%</t>
-  </si>
-  <si>
-    <t>128123</t>
-  </si>
-  <si>
-    <t>国光转债</t>
-  </si>
-  <si>
-    <t>2026-07-27</t>
-  </si>
-  <si>
-    <t>2.148</t>
-  </si>
-  <si>
-    <t>-15.28%</t>
-  </si>
-  <si>
-    <t>127037</t>
-  </si>
-  <si>
-    <t>银轮转债</t>
-  </si>
-  <si>
-    <t>2027-06-07</t>
+    <t>0.669</t>
+  </si>
+  <si>
+    <t>-0.35%</t>
+  </si>
+  <si>
+    <t>-18.84%</t>
+  </si>
+  <si>
+    <t>127014</t>
+  </si>
+  <si>
+    <t>北方转债</t>
+  </si>
+  <si>
+    <t>2025-10-24</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>-1.97%</t>
+  </si>
+  <si>
+    <t>-24.49%</t>
+  </si>
+  <si>
+    <t>110077</t>
+  </si>
+  <si>
+    <t>洪城转债</t>
+  </si>
+  <si>
+    <t>2026-11-20</t>
+  </si>
+  <si>
+    <t>2.384</t>
+  </si>
+  <si>
+    <t>-0.12%</t>
+  </si>
+  <si>
+    <t>-35.72%</t>
+  </si>
+  <si>
+    <t>123118</t>
+  </si>
+  <si>
+    <t>惠城转债</t>
+  </si>
+  <si>
+    <t>2027-07-07</t>
   </si>
   <si>
     <t>3.011</t>
   </si>
   <si>
-    <t>-1.7%</t>
-  </si>
-  <si>
-    <t>-17.52%</t>
-  </si>
-  <si>
-    <t>123010</t>
-  </si>
-  <si>
-    <t>博世转债</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>2024-07-05</t>
-  </si>
-  <si>
-    <t>0.088</t>
-  </si>
-  <si>
-    <t>-0.56%</t>
-  </si>
-  <si>
-    <t>-21.64%</t>
-  </si>
-  <si>
-    <t>110077</t>
-  </si>
-  <si>
-    <t>洪城转债</t>
-  </si>
-  <si>
-    <t>2026-11-20</t>
-  </si>
-  <si>
-    <t>2.466</t>
-  </si>
-  <si>
-    <t>2.22%</t>
-  </si>
-  <si>
-    <t>-22.22%</t>
-  </si>
-  <si>
-    <t>127014</t>
-  </si>
-  <si>
-    <t>北方转债</t>
-  </si>
-  <si>
-    <t>2025-10-24</t>
-  </si>
-  <si>
-    <t>1.392</t>
-  </si>
-  <si>
-    <t>0.97%</t>
-  </si>
-  <si>
-    <t>-23.54%</t>
-  </si>
-  <si>
-    <t>113534</t>
-  </si>
-  <si>
-    <t>鼎胜转债</t>
-  </si>
-  <si>
-    <t>2025-04-09</t>
-  </si>
-  <si>
-    <t>0.849</t>
-  </si>
-  <si>
-    <t>-1.59%</t>
-  </si>
-  <si>
-    <t>-29.69%</t>
+    <t>-0.44%</t>
+  </si>
+  <si>
+    <t>-117.81%</t>
+  </si>
+  <si>
+    <t>110048</t>
+  </si>
+  <si>
+    <t>福能转债</t>
+  </si>
+  <si>
+    <t>2024-12-07</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>-2.41%</t>
+  </si>
+  <si>
+    <t>-283.93%</t>
   </si>
   <si>
     <t>128042</t>
@@ -503,64 +557,10 @@
     <t>2024-07-30</t>
   </si>
   <si>
-    <t>0.156</t>
-  </si>
-  <si>
-    <t>-1.94%</t>
-  </si>
-  <si>
-    <t>-36.12%</t>
-  </si>
-  <si>
-    <t>123118</t>
-  </si>
-  <si>
-    <t>惠城转债</t>
-  </si>
-  <si>
-    <t>2027-07-07</t>
-  </si>
-  <si>
-    <t>3.093</t>
-  </si>
-  <si>
-    <t>-1.37%</t>
-  </si>
-  <si>
-    <t>-42.09%</t>
-  </si>
-  <si>
-    <t>113615</t>
-  </si>
-  <si>
-    <t>金诚转债</t>
-  </si>
-  <si>
-    <t>2026-12-23</t>
-  </si>
-  <si>
-    <t>2.556</t>
-  </si>
-  <si>
-    <t>-3.26%</t>
-  </si>
-  <si>
-    <t>-85.39%</t>
-  </si>
-  <si>
-    <t>110048</t>
-  </si>
-  <si>
-    <t>福能转债</t>
-  </si>
-  <si>
-    <t>2024-12-07</t>
-  </si>
-  <si>
-    <t>0.512</t>
-  </si>
-  <si>
-    <t>-1.49%</t>
+    <t>0.074</t>
+  </si>
+  <si>
+    <t>6.62%</t>
   </si>
   <si>
     <t>-999%</t>
@@ -575,22 +575,22 @@
     <t>C</t>
   </si>
   <si>
-    <t>-99.97%</t>
-  </si>
-  <si>
-    <t>113027</t>
-  </si>
-  <si>
-    <t>华钰转债</t>
-  </si>
-  <si>
-    <t>2025-06-14</t>
+    <t>-99.08%</t>
+  </si>
+  <si>
+    <t>123153</t>
+  </si>
+  <si>
+    <t>英力转债</t>
+  </si>
+  <si>
+    <t>2028-07-21</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t>-15.71%</t>
+    <t>-5.07%</t>
   </si>
 </sst>
 </file>
@@ -971,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>30.702</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -997,7 +997,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>78.71299999999999</v>
+        <v>96.79300000000001</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -1023,206 +1023,206 @@
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>105.99</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="n">
+        <v>107.082</v>
+      </c>
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="n">
-        <v>119.42</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="n">
+        <v>123.48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="n">
-        <v>124.566</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="n">
+        <v>127.44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" t="n">
-        <v>138.049</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="n">
+        <v>129.3</v>
+      </c>
+      <c r="E8" t="s">
         <v>49</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" t="n">
-        <v>127.791</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>51</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
         <v>55</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="n">
+        <v>122.338</v>
+      </c>
+      <c r="E9" t="s">
         <v>56</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>57</v>
       </c>
-      <c r="D9" t="n">
-        <v>150.498</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>58</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>59</v>
-      </c>
-      <c r="H9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
         <v>61</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>62</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="n">
+        <v>130.004</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
         <v>63</v>
       </c>
-      <c r="D10" t="n">
-        <v>160.622</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>64</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>65</v>
-      </c>
-      <c r="G10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
         <v>68</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="n">
+        <v>120.64</v>
+      </c>
+      <c r="E11" t="s">
         <v>69</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>70</v>
       </c>
-      <c r="D11" t="n">
-        <v>130.19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>71</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>72</v>
-      </c>
-      <c r="H11" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
@@ -1231,10 +1231,10 @@
         <v>75</v>
       </c>
       <c r="D12" t="n">
-        <v>129.596</v>
+        <v>125.564</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
         <v>76</v>
@@ -1257,36 +1257,36 @@
         <v>81</v>
       </c>
       <c r="D13" t="n">
-        <v>144.051</v>
+        <v>128.811</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D14" t="n">
-        <v>176.4</v>
+        <v>125.581</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
         <v>89</v>
@@ -1309,10 +1309,10 @@
         <v>94</v>
       </c>
       <c r="D15" t="n">
-        <v>161.451</v>
+        <v>141.3</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -1335,10 +1335,10 @@
         <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>178.283</v>
+        <v>124.755</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
         <v>101</v>
@@ -1361,10 +1361,10 @@
         <v>106</v>
       </c>
       <c r="D17" t="n">
-        <v>161.555</v>
+        <v>156.7</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
         <v>107</v>
@@ -1387,10 +1387,10 @@
         <v>112</v>
       </c>
       <c r="D18" t="n">
-        <v>158.198</v>
+        <v>169.774</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
         <v>113</v>
@@ -1413,10 +1413,10 @@
         <v>118</v>
       </c>
       <c r="D19" t="n">
-        <v>119.994</v>
+        <v>173.35</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -1439,10 +1439,10 @@
         <v>124</v>
       </c>
       <c r="D20" t="n">
-        <v>147.496</v>
+        <v>129.1</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
         <v>125</v>
@@ -1451,50 +1451,50 @@
         <v>126</v>
       </c>
       <c r="H20" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D21" t="n">
-        <v>182.15</v>
+        <v>149.077</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D22" t="n">
-        <v>108.06</v>
+        <v>134.042</v>
       </c>
       <c r="E22" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
         <v>137</v>
@@ -1517,10 +1517,10 @@
         <v>142</v>
       </c>
       <c r="D23" t="n">
-        <v>199.362</v>
+        <v>171.977</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
         <v>143</v>
@@ -1543,10 +1543,10 @@
         <v>148</v>
       </c>
       <c r="D24" t="n">
-        <v>154.7</v>
+        <v>119.398</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
         <v>149</v>
@@ -1569,10 +1569,10 @@
         <v>154</v>
       </c>
       <c r="D25" t="n">
-        <v>134.877</v>
+        <v>143.409</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
         <v>155</v>
@@ -1595,10 +1595,10 @@
         <v>160</v>
       </c>
       <c r="D26" t="n">
-        <v>114.93</v>
+        <v>213.288</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s">
         <v>161</v>
@@ -1621,10 +1621,10 @@
         <v>166</v>
       </c>
       <c r="D27" t="n">
-        <v>455.866</v>
+        <v>431.19</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
         <v>167</v>
@@ -1647,10 +1647,10 @@
         <v>172</v>
       </c>
       <c r="D28" t="n">
-        <v>447.15</v>
+        <v>215.924</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
         <v>173</v>
@@ -1673,7 +1673,7 @@
         <v>178</v>
       </c>
       <c r="D29" t="n">
-        <v>189.793</v>
+        <v>138.753</v>
       </c>
       <c r="E29" t="s">
         <v>18</v>
@@ -1705,10 +1705,10 @@
         <v>185</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H30" t="s">
         <v>186</v>
@@ -1725,10 +1725,10 @@
         <v>188</v>
       </c>
       <c r="D31" t="n">
-        <v>205.541</v>
+        <v>123.12</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s">
         <v>189</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="195">
   <si>
     <t>到期税后收益率</t>
   </si>
@@ -41,394 +41,466 @@
     <t>涨跌幅</t>
   </si>
   <si>
-    <t>1497.81%</t>
-  </si>
-  <si>
-    <t>404002</t>
-  </si>
-  <si>
-    <t>搜特退债</t>
+    <t>1206.88%</t>
+  </si>
+  <si>
+    <t>404003</t>
+  </si>
+  <si>
+    <t>鸿达退债</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
+    <t>2025-12-16</t>
+  </si>
+  <si>
+    <t>1.285</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5.31%</t>
+  </si>
+  <si>
+    <t>118026</t>
+  </si>
+  <si>
+    <t>利元转债</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>2028-10-24</t>
+  </si>
+  <si>
+    <t>4.143</t>
+  </si>
+  <si>
+    <t>9.08%</t>
+  </si>
+  <si>
+    <t>3.78%</t>
+  </si>
+  <si>
+    <t>113033</t>
+  </si>
+  <si>
+    <t>利群转债</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>2026-04-01</t>
+  </si>
+  <si>
+    <t>1.575</t>
+  </si>
+  <si>
+    <t>-0.11%</t>
+  </si>
+  <si>
+    <t>3.34%</t>
+  </si>
+  <si>
+    <t>123096</t>
+  </si>
+  <si>
+    <t>思创转债</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>2027-01-26</t>
+  </si>
+  <si>
+    <t>2.397</t>
+  </si>
+  <si>
+    <t>0.89%</t>
+  </si>
+  <si>
+    <t>3.31%</t>
+  </si>
+  <si>
+    <t>128062</t>
+  </si>
+  <si>
+    <t>亚药转债</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>0.578</t>
+  </si>
+  <si>
+    <t>0.46%</t>
+  </si>
+  <si>
+    <t>0.99%</t>
+  </si>
+  <si>
+    <t>113058</t>
+  </si>
+  <si>
+    <t>友发转债</t>
+  </si>
+  <si>
+    <t>2028-03-30</t>
+  </si>
+  <si>
+    <t>3.573</t>
+  </si>
+  <si>
+    <t>-0.49%</t>
+  </si>
+  <si>
+    <t>0.79%</t>
+  </si>
+  <si>
+    <t>123202</t>
+  </si>
+  <si>
+    <t>祥源转债</t>
+  </si>
+  <si>
+    <t>2029-07-03</t>
+  </si>
+  <si>
+    <t>4.833</t>
+  </si>
+  <si>
+    <t>0.21%</t>
+  </si>
+  <si>
+    <t>0.23%</t>
+  </si>
+  <si>
+    <t>113668</t>
+  </si>
+  <si>
+    <t>鹿山转债</t>
+  </si>
+  <si>
+    <t>2029-03-27</t>
+  </si>
+  <si>
+    <t>4.564</t>
+  </si>
+  <si>
+    <t>2.02%</t>
+  </si>
+  <si>
+    <t>-0.69%</t>
+  </si>
+  <si>
+    <t>123044</t>
+  </si>
+  <si>
+    <t>红相转债</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
     <t>2026-03-12</t>
   </si>
   <si>
-    <t>1.608</t>
-  </si>
-  <si>
-    <t>9999.99%</t>
-  </si>
-  <si>
-    <t>1369.77%</t>
-  </si>
-  <si>
-    <t>404003</t>
-  </si>
-  <si>
-    <t>鸿达退债</t>
-  </si>
-  <si>
-    <t>2025-12-16</t>
-  </si>
-  <si>
-    <t>1.373</t>
-  </si>
-  <si>
-    <t>-69.49%</t>
-  </si>
-  <si>
-    <t>55.81%</t>
-  </si>
-  <si>
-    <t>110072</t>
-  </si>
-  <si>
-    <t>广汇转债</t>
+    <t>1.521</t>
+  </si>
+  <si>
+    <t>0.9%</t>
+  </si>
+  <si>
+    <t>-1.75%</t>
+  </si>
+  <si>
+    <t>127032</t>
+  </si>
+  <si>
+    <t>苏行转债</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>2027-04-12</t>
+  </si>
+  <si>
+    <t>2.606</t>
+  </si>
+  <si>
+    <t>-1.09%</t>
+  </si>
+  <si>
+    <t>-1.93%</t>
+  </si>
+  <si>
+    <t>110079</t>
+  </si>
+  <si>
+    <t>杭银转债</t>
+  </si>
+  <si>
+    <t>2027-03-29</t>
+  </si>
+  <si>
+    <t>2.567</t>
+  </si>
+  <si>
+    <t>-0.35%</t>
+  </si>
+  <si>
+    <t>-2.26%</t>
+  </si>
+  <si>
+    <t>113055</t>
+  </si>
+  <si>
+    <t>成银转债</t>
+  </si>
+  <si>
+    <t>2028-03-03</t>
+  </si>
+  <si>
+    <t>3.499</t>
+  </si>
+  <si>
+    <t>-1.68%</t>
+  </si>
+  <si>
+    <t>-2.85%</t>
+  </si>
+  <si>
+    <t>128063</t>
+  </si>
+  <si>
+    <t>未来转债</t>
   </si>
   <si>
     <t>AA-</t>
   </si>
   <si>
-    <t>2026-08-18</t>
-  </si>
-  <si>
-    <t>2.044</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2.67%</t>
-  </si>
-  <si>
-    <t>113033</t>
-  </si>
-  <si>
-    <t>利群转债</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>2026-04-01</t>
-  </si>
-  <si>
-    <t>1.663</t>
-  </si>
-  <si>
-    <t>-0.03%</t>
-  </si>
-  <si>
-    <t>2.56%</t>
-  </si>
-  <si>
-    <t>113629</t>
-  </si>
-  <si>
-    <t>泉峰转债</t>
-  </si>
-  <si>
-    <t>A+</t>
-  </si>
-  <si>
-    <t>2027-09-14</t>
-  </si>
-  <si>
-    <t>3.118</t>
-  </si>
-  <si>
-    <t>0.86%</t>
-  </si>
-  <si>
-    <t>2.54%</t>
-  </si>
-  <si>
-    <t>111021</t>
-  </si>
-  <si>
-    <t>奥锐转债</t>
-  </si>
-  <si>
-    <t>2030-07-25</t>
-  </si>
-  <si>
-    <t>5.981</t>
-  </si>
-  <si>
-    <t>0.21%</t>
-  </si>
-  <si>
-    <t>123096</t>
-  </si>
-  <si>
-    <t>思创转债</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>2027-01-26</t>
-  </si>
-  <si>
-    <t>2.485</t>
-  </si>
-  <si>
-    <t>14.01%</t>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>-0.25%</t>
+  </si>
+  <si>
+    <t>-3.04%</t>
+  </si>
+  <si>
+    <t>113631</t>
+  </si>
+  <si>
+    <t>皖天转债</t>
+  </si>
+  <si>
+    <t>AA+</t>
+  </si>
+  <si>
+    <t>2027-11-08</t>
+  </si>
+  <si>
+    <t>3.181</t>
+  </si>
+  <si>
+    <t>-0.72%</t>
+  </si>
+  <si>
+    <t>-3.44%</t>
+  </si>
+  <si>
+    <t>123205</t>
+  </si>
+  <si>
+    <t>大叶转债</t>
+  </si>
+  <si>
+    <t>2029-07-17</t>
+  </si>
+  <si>
+    <t>4.871</t>
+  </si>
+  <si>
+    <t>7.09%</t>
+  </si>
+  <si>
+    <t>-3.46%</t>
+  </si>
+  <si>
+    <t>113050</t>
+  </si>
+  <si>
+    <t>南银转债</t>
+  </si>
+  <si>
+    <t>2027-06-15</t>
+  </si>
+  <si>
+    <t>2.781</t>
+  </si>
+  <si>
+    <t>-0.5%</t>
+  </si>
+  <si>
+    <t>-3.72%</t>
+  </si>
+  <si>
+    <t>128118</t>
+  </si>
+  <si>
+    <t>瀛通转债</t>
+  </si>
+  <si>
+    <t>2026-07-02</t>
+  </si>
+  <si>
+    <t>1.827</t>
+  </si>
+  <si>
+    <t>-1.17%</t>
+  </si>
+  <si>
+    <t>-4.16%</t>
+  </si>
+  <si>
+    <t>118046</t>
+  </si>
+  <si>
+    <t>诺泰转债</t>
+  </si>
+  <si>
+    <t>2029-12-15</t>
+  </si>
+  <si>
+    <t>5.285</t>
+  </si>
+  <si>
+    <t>1.23%</t>
+  </si>
+  <si>
+    <t>-4.22%</t>
+  </si>
+  <si>
+    <t>127092</t>
+  </si>
+  <si>
+    <t>运机转债</t>
+  </si>
+  <si>
+    <t>2029-09-21</t>
+  </si>
+  <si>
+    <t>5.052</t>
+  </si>
+  <si>
+    <t>-0.56%</t>
+  </si>
+  <si>
+    <t>-4.46%</t>
+  </si>
+  <si>
+    <t>123223</t>
+  </si>
+  <si>
+    <t>九典转02</t>
+  </si>
+  <si>
+    <t>2029-09-15</t>
+  </si>
+  <si>
+    <t>5.036</t>
+  </si>
+  <si>
+    <t>0.18%</t>
+  </si>
+  <si>
+    <t>-4.66%</t>
+  </si>
+  <si>
+    <t>128087</t>
+  </si>
+  <si>
+    <t>孚日转债</t>
+  </si>
+  <si>
+    <t>2025-12-17</t>
+  </si>
+  <si>
+    <t>1.288</t>
+  </si>
+  <si>
+    <t>-0.53%</t>
+  </si>
+  <si>
+    <t>-5.12%</t>
+  </si>
+  <si>
+    <t>111017</t>
+  </si>
+  <si>
+    <t>蓝天转债</t>
+  </si>
+  <si>
+    <t>2029-08-15</t>
+  </si>
+  <si>
+    <t>4.951</t>
   </si>
   <si>
     <t>-1.95%</t>
   </si>
   <si>
-    <t>123205</t>
-  </si>
-  <si>
-    <t>大叶转债</t>
-  </si>
-  <si>
-    <t>2029-07-17</t>
-  </si>
-  <si>
-    <t>4.959</t>
-  </si>
-  <si>
-    <t>-0.75%</t>
-  </si>
-  <si>
-    <t>-3.41%</t>
-  </si>
-  <si>
-    <t>127084</t>
-  </si>
-  <si>
-    <t>柳工转2</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>2029-03-27</t>
-  </si>
-  <si>
-    <t>4.652</t>
-  </si>
-  <si>
-    <t>-0.95%</t>
-  </si>
-  <si>
-    <t>-3.71%</t>
-  </si>
-  <si>
-    <t>113044</t>
-  </si>
-  <si>
-    <t>大秦转债</t>
-  </si>
-  <si>
-    <t>2026-12-14</t>
-  </si>
-  <si>
-    <t>2.367</t>
-  </si>
-  <si>
-    <t>-0.51%</t>
-  </si>
-  <si>
-    <t>-3.76%</t>
-  </si>
-  <si>
-    <t>127092</t>
-  </si>
-  <si>
-    <t>运机转债</t>
-  </si>
-  <si>
-    <t>2029-09-21</t>
-  </si>
-  <si>
-    <t>5.14</t>
-  </si>
-  <si>
-    <t>-0.82%</t>
-  </si>
-  <si>
-    <t>-3.83%</t>
-  </si>
-  <si>
-    <t>110079</t>
-  </si>
-  <si>
-    <t>杭银转债</t>
-  </si>
-  <si>
-    <t>2027-03-29</t>
-  </si>
-  <si>
-    <t>2.655</t>
+    <t>-8.28%</t>
+  </si>
+  <si>
+    <t>132026</t>
+  </si>
+  <si>
+    <t>G三峡EB2</t>
+  </si>
+  <si>
+    <t>2027-06-01</t>
+  </si>
+  <si>
+    <t>2.743</t>
+  </si>
+  <si>
+    <t>-0.92%</t>
+  </si>
+  <si>
+    <t>-9.63%</t>
+  </si>
+  <si>
+    <t>110083</t>
+  </si>
+  <si>
+    <t>苏租转债</t>
+  </si>
+  <si>
+    <t>2027-11-11</t>
+  </si>
+  <si>
+    <t>3.189</t>
   </si>
   <si>
     <t>-0.23%</t>
   </si>
   <si>
-    <t>-3.96%</t>
-  </si>
-  <si>
-    <t>113055</t>
-  </si>
-  <si>
-    <t>成银转债</t>
-  </si>
-  <si>
-    <t>2028-03-03</t>
-  </si>
-  <si>
-    <t>3.586</t>
-  </si>
-  <si>
-    <t>-0.34%</t>
-  </si>
-  <si>
-    <t>-4.46%</t>
-  </si>
-  <si>
-    <t>113631</t>
-  </si>
-  <si>
-    <t>皖天转债</t>
-  </si>
-  <si>
-    <t>AA+</t>
-  </si>
-  <si>
-    <t>2027-11-08</t>
-  </si>
-  <si>
-    <t>3.269</t>
-  </si>
-  <si>
-    <t>-0.61%</t>
-  </si>
-  <si>
-    <t>-4.67%</t>
-  </si>
-  <si>
-    <t>113050</t>
-  </si>
-  <si>
-    <t>南银转债</t>
-  </si>
-  <si>
-    <t>2027-06-15</t>
-  </si>
-  <si>
-    <t>2.869</t>
-  </si>
-  <si>
-    <t>0.67%</t>
-  </si>
-  <si>
-    <t>-5.38%</t>
-  </si>
-  <si>
-    <t>123107</t>
-  </si>
-  <si>
-    <t>温氏转债</t>
-  </si>
-  <si>
-    <t>1.09%</t>
-  </si>
-  <si>
-    <t>-5.71%</t>
-  </si>
-  <si>
-    <t>111017</t>
-  </si>
-  <si>
-    <t>蓝天转债</t>
-  </si>
-  <si>
-    <t>2029-08-15</t>
-  </si>
-  <si>
-    <t>5.038</t>
-  </si>
-  <si>
-    <t>3.16%</t>
-  </si>
-  <si>
-    <t>-6.50%</t>
-  </si>
-  <si>
-    <t>123223</t>
-  </si>
-  <si>
-    <t>九典转02</t>
-  </si>
-  <si>
-    <t>2029-09-15</t>
-  </si>
-  <si>
-    <t>5.123</t>
-  </si>
-  <si>
-    <t>0.53%</t>
-  </si>
-  <si>
-    <t>-6.78%</t>
-  </si>
-  <si>
-    <t>118046</t>
-  </si>
-  <si>
-    <t>诺泰转债</t>
-  </si>
-  <si>
-    <t>2029-12-15</t>
-  </si>
-  <si>
-    <t>5.373</t>
-  </si>
-  <si>
-    <t>-1.51%</t>
-  </si>
-  <si>
-    <t>-7.22%</t>
-  </si>
-  <si>
-    <t>128087</t>
-  </si>
-  <si>
-    <t>孚日转债</t>
-  </si>
-  <si>
-    <t>2025-12-17</t>
-  </si>
-  <si>
-    <t>1.375</t>
-  </si>
-  <si>
-    <t>0.01%</t>
-  </si>
-  <si>
-    <t>-8.47%</t>
-  </si>
-  <si>
-    <t>113021</t>
-  </si>
-  <si>
-    <t>中信转债</t>
-  </si>
-  <si>
-    <t>2025-03-04</t>
-  </si>
-  <si>
-    <t>0.586</t>
-  </si>
-  <si>
-    <t>-8.58%</t>
+    <t>-9.85%</t>
   </si>
   <si>
     <t>110074</t>
@@ -440,67 +512,28 @@
     <t>2026-08-19</t>
   </si>
   <si>
-    <t>2.047</t>
-  </si>
-  <si>
-    <t>-1.85%</t>
-  </si>
-  <si>
-    <t>-9.16%</t>
-  </si>
-  <si>
-    <t>132026</t>
-  </si>
-  <si>
-    <t>G三峡EB2</t>
-  </si>
-  <si>
-    <t>2027-06-01</t>
-  </si>
-  <si>
-    <t>2.83</t>
-  </si>
-  <si>
-    <t>0.08%</t>
-  </si>
-  <si>
-    <t>-12.17%</t>
-  </si>
-  <si>
-    <t>110083</t>
-  </si>
-  <si>
-    <t>苏租转债</t>
-  </si>
-  <si>
-    <t>2027-11-11</t>
-  </si>
-  <si>
-    <t>3.277</t>
-  </si>
-  <si>
-    <t>-1.13%</t>
-  </si>
-  <si>
-    <t>-15.12%</t>
-  </si>
-  <si>
-    <t>127014</t>
-  </si>
-  <si>
-    <t>北方转债</t>
-  </si>
-  <si>
-    <t>2025-10-24</t>
-  </si>
-  <si>
-    <t>1.227</t>
-  </si>
-  <si>
-    <t>-1.26%</t>
-  </si>
-  <si>
-    <t>-26.98%</t>
+    <t>1.959</t>
+  </si>
+  <si>
+    <t>-15.11%</t>
+  </si>
+  <si>
+    <t>110060</t>
+  </si>
+  <si>
+    <t>天路转债</t>
+  </si>
+  <si>
+    <t>2025-10-28</t>
+  </si>
+  <si>
+    <t>1.151</t>
+  </si>
+  <si>
+    <t>0.43%</t>
+  </si>
+  <si>
+    <t>-19.98%</t>
   </si>
   <si>
     <t>110077</t>
@@ -512,28 +545,31 @@
     <t>2026-11-20</t>
   </si>
   <si>
-    <t>2.301</t>
-  </si>
-  <si>
-    <t>-34.52%</t>
-  </si>
-  <si>
-    <t>123118</t>
-  </si>
-  <si>
-    <t>惠城转债</t>
-  </si>
-  <si>
-    <t>2027-07-07</t>
-  </si>
-  <si>
-    <t>2.929</t>
-  </si>
-  <si>
-    <t>2.42%</t>
-  </si>
-  <si>
-    <t>-37.19%</t>
+    <t>2.214</t>
+  </si>
+  <si>
+    <t>-3.24%</t>
+  </si>
+  <si>
+    <t>-22.15%</t>
+  </si>
+  <si>
+    <t>113534</t>
+  </si>
+  <si>
+    <t>鼎胜转债</t>
+  </si>
+  <si>
+    <t>2025-04-09</t>
+  </si>
+  <si>
+    <t>0.597</t>
+  </si>
+  <si>
+    <t>1.35%</t>
+  </si>
+  <si>
+    <t>-37.05%</t>
   </si>
   <si>
     <t>113615</t>
@@ -545,13 +581,10 @@
     <t>2026-12-23</t>
   </si>
   <si>
-    <t>2.392</t>
-  </si>
-  <si>
-    <t>-0.81%</t>
-  </si>
-  <si>
-    <t>-136.19%</t>
+    <t>2.304</t>
+  </si>
+  <si>
+    <t>-166.96%</t>
   </si>
   <si>
     <t>110048</t>
@@ -563,28 +596,10 @@
     <t>2024-12-07</t>
   </si>
   <si>
-    <t>0.348</t>
-  </si>
-  <si>
-    <t>-0.94%</t>
-  </si>
-  <si>
-    <t>-999%</t>
-  </si>
-  <si>
-    <t>113602</t>
-  </si>
-  <si>
-    <t>景20转债</t>
-  </si>
-  <si>
-    <t>2026-08-24</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>-5.32%</t>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>-1.74%</t>
   </si>
 </sst>
 </file>
@@ -965,7 +980,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>1.548</v>
+        <v>5.363</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -991,747 +1006,747 @@
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>3.741</v>
+        <v>90.158</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>45.767</v>
+        <v>103.287</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>104.799</v>
+        <v>108.846</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>107.391</v>
+        <v>109.9</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>109.182</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8" t="n">
-        <v>117</v>
+        <v>111.65</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" t="n">
-        <v>126.39</v>
+        <v>115.703</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D10" t="n">
-        <v>133.342</v>
+        <v>118.021</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11" t="n">
-        <v>120.016</v>
+        <v>115.95</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D12" t="n">
-        <v>141.97</v>
+        <v>114.3</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D13" t="n">
-        <v>120.53</v>
+        <v>117.399</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D14" t="n">
-        <v>125.153</v>
+        <v>117.955</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D15" t="n">
-        <v>128.711</v>
+        <v>122.391</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D16" t="n">
-        <v>123.581</v>
+        <v>135.823</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D17" t="n">
-        <v>126.036</v>
+        <v>118.902</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="H17" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D18" t="n">
-        <v>150.011</v>
+        <v>122.504</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G18" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H18" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D19" t="n">
-        <v>161.451</v>
+        <v>144.704</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H19" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D20" t="n">
-        <v>168.247</v>
+        <v>144.846</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H20" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D21" t="n">
-        <v>119.426</v>
+        <v>144.222</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G21" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H21" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D22" t="n">
-        <v>114.46</v>
+        <v>114.6</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D23" t="n">
-        <v>134.449</v>
+        <v>144.58</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G23" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H23" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D24" t="n">
-        <v>131.499</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G24" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H24" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C25" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D25" t="n">
-        <v>164.367</v>
+        <v>148.5</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F25" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G25" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H25" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D26" t="n">
-        <v>133.501</v>
+        <v>135.831</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G26" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H26" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C27" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D27" t="n">
-        <v>224.984</v>
+        <v>131.819</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G27" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C28" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D28" t="n">
-        <v>393.352</v>
+        <v>179.028</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G28" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H28" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C29" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D29" t="n">
-        <v>337.141</v>
+        <v>124.38</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G29" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H29" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C30" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D30" t="n">
-        <v>202.32</v>
+        <v>322.013</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G30" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H30" t="s">
-        <v>183</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B31" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C31" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D31" t="n">
-        <v>109.022</v>
+        <v>188.048</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="F31" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G31" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H31" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
   <si>
     <t>到期税后收益率</t>
   </si>
@@ -41,184 +41,439 @@
     <t>涨跌幅</t>
   </si>
   <si>
-    <t>2.28%</t>
-  </si>
-  <si>
-    <t>113690</t>
-  </si>
-  <si>
-    <t>豪24转债</t>
+    <t>-1.36%</t>
+  </si>
+  <si>
+    <t>123198</t>
+  </si>
+  <si>
+    <t>金埔转债</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>2029-06-08</t>
+  </si>
+  <si>
+    <t>4.515</t>
+  </si>
+  <si>
+    <t>1.66%</t>
+  </si>
+  <si>
+    <t>-3.08%</t>
+  </si>
+  <si>
+    <t>123229</t>
+  </si>
+  <si>
+    <t>艾录转债</t>
+  </si>
+  <si>
+    <t>2029-10-23</t>
+  </si>
+  <si>
+    <t>4.89</t>
+  </si>
+  <si>
+    <t>1.65%</t>
+  </si>
+  <si>
+    <t>-3.18%</t>
+  </si>
+  <si>
+    <t>123228</t>
+  </si>
+  <si>
+    <t>震裕转债</t>
   </si>
   <si>
     <t>AA-</t>
   </si>
   <si>
-    <t>2030-10-22</t>
-  </si>
-  <si>
-    <t>5.975</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>2029-10-20</t>
+  </si>
+  <si>
+    <t>4.882</t>
+  </si>
+  <si>
+    <t>1.84%</t>
+  </si>
+  <si>
+    <t>-3.36%</t>
+  </si>
+  <si>
+    <t>123191</t>
+  </si>
+  <si>
+    <t>智尚转债</t>
+  </si>
+  <si>
+    <t>2029-04-10</t>
+  </si>
+  <si>
+    <t>4.353</t>
+  </si>
+  <si>
+    <t>-3.46%</t>
+  </si>
+  <si>
+    <t>113629</t>
+  </si>
+  <si>
+    <t>泉峰转债</t>
+  </si>
+  <si>
+    <t>2027-09-14</t>
+  </si>
+  <si>
+    <t>2.781</t>
+  </si>
+  <si>
+    <t>1.47%</t>
+  </si>
+  <si>
+    <t>-3.88%</t>
+  </si>
+  <si>
+    <t>118026</t>
+  </si>
+  <si>
+    <t>利元转债</t>
+  </si>
+  <si>
+    <t>2028-10-24</t>
+  </si>
+  <si>
+    <t>3.893</t>
+  </si>
+  <si>
+    <t>-3.6%</t>
+  </si>
+  <si>
+    <t>-4.01%</t>
+  </si>
+  <si>
+    <t>123249</t>
+  </si>
+  <si>
+    <t>英搏转债</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>2030-10-24</t>
+  </si>
+  <si>
+    <t>5.893</t>
+  </si>
+  <si>
+    <t>0.66%</t>
+  </si>
+  <si>
+    <t>-4.44%</t>
+  </si>
+  <si>
+    <t>113044</t>
+  </si>
+  <si>
+    <t>大秦转债</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>2026-12-14</t>
+  </si>
+  <si>
+    <t>2.03</t>
+  </si>
+  <si>
+    <t>0.37%</t>
+  </si>
+  <si>
+    <t>-4.61%</t>
+  </si>
+  <si>
+    <t>123209</t>
+  </si>
+  <si>
+    <t>聚隆转债</t>
+  </si>
+  <si>
+    <t>2029-07-26</t>
+  </si>
+  <si>
+    <t>4.647</t>
   </si>
   <si>
     <t>2.13%</t>
   </si>
   <si>
-    <t>113688</t>
-  </si>
-  <si>
-    <t>国检转债</t>
+    <t>-4.86%</t>
+  </si>
+  <si>
+    <t>123177</t>
+  </si>
+  <si>
+    <t>测绘转债</t>
+  </si>
+  <si>
+    <t>2029-03-02</t>
+  </si>
+  <si>
+    <t>4.247</t>
+  </si>
+  <si>
+    <t>3.92%</t>
+  </si>
+  <si>
+    <t>-4.97%</t>
+  </si>
+  <si>
+    <t>113631</t>
+  </si>
+  <si>
+    <t>皖天转债</t>
   </si>
   <si>
     <t>AA+</t>
   </si>
   <si>
-    <t>2030-10-16</t>
-  </si>
-  <si>
-    <t>5.959</t>
-  </si>
-  <si>
-    <t>1.95%</t>
-  </si>
-  <si>
-    <t>123249</t>
-  </si>
-  <si>
-    <t>英搏转债</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>2030-10-24</t>
-  </si>
-  <si>
-    <t>5.981</t>
-  </si>
-  <si>
-    <t>110097</t>
-  </si>
-  <si>
-    <t>天润转债</t>
-  </si>
-  <si>
-    <t>2030-10-23</t>
-  </si>
-  <si>
-    <t>5.978</t>
-  </si>
-  <si>
-    <t>113691</t>
-  </si>
-  <si>
-    <t>和邦转债</t>
-  </si>
-  <si>
-    <t>2030-10-28</t>
-  </si>
-  <si>
-    <t>5.992</t>
-  </si>
-  <si>
-    <t>0.33%</t>
-  </si>
-  <si>
-    <t>110095</t>
-  </si>
-  <si>
-    <t>双良转债</t>
-  </si>
-  <si>
-    <t>2029-08-08</t>
-  </si>
-  <si>
-    <t>4.77</t>
-  </si>
-  <si>
-    <t>-6.5%</t>
-  </si>
-  <si>
-    <t>-2.86%</t>
-  </si>
-  <si>
-    <t>123169</t>
-  </si>
-  <si>
-    <t>正海转债</t>
-  </si>
-  <si>
-    <t>2028-11-23</t>
-  </si>
-  <si>
-    <t>4.063</t>
-  </si>
-  <si>
-    <t>10.14%</t>
-  </si>
-  <si>
-    <t>-3.03%</t>
-  </si>
-  <si>
-    <t>123245</t>
-  </si>
-  <si>
-    <t>集智转债</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>2030-08-13</t>
-  </si>
-  <si>
-    <t>5.784</t>
-  </si>
-  <si>
-    <t>-6.85%</t>
-  </si>
-  <si>
-    <t>-4.01%</t>
-  </si>
-  <si>
-    <t>113672</t>
-  </si>
-  <si>
-    <t>福蓉转债</t>
-  </si>
-  <si>
-    <t>2029-07-18</t>
-  </si>
-  <si>
-    <t>4.712</t>
-  </si>
-  <si>
-    <t>-6.93%</t>
-  </si>
-  <si>
-    <t>-4.85%</t>
-  </si>
-  <si>
-    <t>113055</t>
-  </si>
-  <si>
-    <t>成银转债</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>2028-03-03</t>
-  </si>
-  <si>
-    <t>3.337</t>
-  </si>
-  <si>
-    <t>0.97%</t>
-  </si>
-  <si>
-    <t>-5.09%</t>
+    <t>2027-11-08</t>
+  </si>
+  <si>
+    <t>2.932</t>
+  </si>
+  <si>
+    <t>0.06%</t>
+  </si>
+  <si>
+    <t>-7.77%</t>
+  </si>
+  <si>
+    <t>123223</t>
+  </si>
+  <si>
+    <t>九典转02</t>
+  </si>
+  <si>
+    <t>2029-09-15</t>
+  </si>
+  <si>
+    <t>4.786</t>
+  </si>
+  <si>
+    <t>-3.33%</t>
+  </si>
+  <si>
+    <t>-8.36%</t>
+  </si>
+  <si>
+    <t>123241</t>
+  </si>
+  <si>
+    <t>欧通转债</t>
+  </si>
+  <si>
+    <t>2030-07-04</t>
+  </si>
+  <si>
+    <t>5.586</t>
+  </si>
+  <si>
+    <t>-4.5%</t>
+  </si>
+  <si>
+    <t>-12.73%</t>
+  </si>
+  <si>
+    <t>123213</t>
+  </si>
+  <si>
+    <t>天源转债</t>
+  </si>
+  <si>
+    <t>2029-07-28</t>
+  </si>
+  <si>
+    <t>4.652</t>
+  </si>
+  <si>
+    <t>-1.4%</t>
+  </si>
+  <si>
+    <t>-15.02%</t>
+  </si>
+  <si>
+    <t>128109</t>
+  </si>
+  <si>
+    <t>楚江转债</t>
+  </si>
+  <si>
+    <t>2026-06-04</t>
+  </si>
+  <si>
+    <t>1.501</t>
+  </si>
+  <si>
+    <t>-1.14%</t>
+  </si>
+  <si>
+    <t>-15.06%</t>
+  </si>
+  <si>
+    <t>113549</t>
+  </si>
+  <si>
+    <t>白电转债</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>0.951</t>
+  </si>
+  <si>
+    <t>-0.36%</t>
+  </si>
+  <si>
+    <t>-15.89%</t>
+  </si>
+  <si>
+    <t>113030</t>
+  </si>
+  <si>
+    <t>东风转债</t>
+  </si>
+  <si>
+    <t>2025-12-24</t>
+  </si>
+  <si>
+    <t>1.058</t>
+  </si>
+  <si>
+    <t>-0.95%</t>
+  </si>
+  <si>
+    <t>-19.89%</t>
+  </si>
+  <si>
+    <t>128083</t>
+  </si>
+  <si>
+    <t>新北转债</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>1.025</t>
+  </si>
+  <si>
+    <t>-1.61%</t>
+  </si>
+  <si>
+    <t>-21.16%</t>
+  </si>
+  <si>
+    <t>123035</t>
+  </si>
+  <si>
+    <t>利德转债</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>0.948</t>
+  </si>
+  <si>
+    <t>2.82%</t>
+  </si>
+  <si>
+    <t>-26.00%</t>
+  </si>
+  <si>
+    <t>128062</t>
+  </si>
+  <si>
+    <t>亚药转债</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>0.329</t>
+  </si>
+  <si>
+    <t>-0.14%</t>
+  </si>
+  <si>
+    <t>-39.39%</t>
+  </si>
+  <si>
+    <t>113021</t>
+  </si>
+  <si>
+    <t>中信转债</t>
+  </si>
+  <si>
+    <t>2025-03-04</t>
+  </si>
+  <si>
+    <t>0.249</t>
+  </si>
+  <si>
+    <t>1.35%</t>
+  </si>
+  <si>
+    <t>-999%</t>
+  </si>
+  <si>
+    <t>110058</t>
+  </si>
+  <si>
+    <t>永鼎转债</t>
+  </si>
+  <si>
+    <t>2025-04-16</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>0.43%</t>
+  </si>
+  <si>
+    <t>128090</t>
+  </si>
+  <si>
+    <t>汽模转2</t>
+  </si>
+  <si>
+    <t>2025-12-27</t>
+  </si>
+  <si>
+    <t>5.97%</t>
+  </si>
+  <si>
+    <t>123103</t>
+  </si>
+  <si>
+    <t>震安转债</t>
+  </si>
+  <si>
+    <t>2027-03-12</t>
+  </si>
+  <si>
+    <t>-0.97%</t>
   </si>
   <si>
     <t>113662</t>
@@ -230,85 +485,46 @@
     <t>2028-11-25</t>
   </si>
   <si>
-    <t>4.069</t>
-  </si>
-  <si>
-    <t>6.26%</t>
-  </si>
-  <si>
-    <t>-5.77%</t>
-  </si>
-  <si>
-    <t>123213</t>
-  </si>
-  <si>
-    <t>天源转债</t>
-  </si>
-  <si>
-    <t>2029-07-28</t>
-  </si>
-  <si>
-    <t>4.74</t>
-  </si>
-  <si>
-    <t>-3.58%</t>
-  </si>
-  <si>
-    <t>-6.13%</t>
-  </si>
-  <si>
-    <t>127050</t>
-  </si>
-  <si>
-    <t>麒麟转债</t>
-  </si>
-  <si>
-    <t>2027-11-11</t>
-  </si>
-  <si>
-    <t>3.027</t>
-  </si>
-  <si>
-    <t>-1.61%</t>
-  </si>
-  <si>
-    <t>-7.67%</t>
-  </si>
-  <si>
-    <t>127084</t>
-  </si>
-  <si>
-    <t>柳工转2</t>
-  </si>
-  <si>
-    <t>2029-03-27</t>
-  </si>
-  <si>
-    <t>4.403</t>
-  </si>
-  <si>
-    <t>1.84%</t>
-  </si>
-  <si>
-    <t>-10.28%</t>
-  </si>
-  <si>
-    <t>123061</t>
-  </si>
-  <si>
-    <t>航新转债</t>
-  </si>
-  <si>
-    <t>2026-07-22</t>
-  </si>
-  <si>
-    <t>1.721</t>
-  </si>
-  <si>
-    <t>-2.96%</t>
-  </si>
-  <si>
-    <t>-12.91%</t>
+    <t>-1.19%</t>
+  </si>
+  <si>
+    <t>123135</t>
+  </si>
+  <si>
+    <t>泰林转债</t>
+  </si>
+  <si>
+    <t>2027-12-28</t>
+  </si>
+  <si>
+    <t>-1.39%</t>
+  </si>
+  <si>
+    <t>128063</t>
+  </si>
+  <si>
+    <t>未来转债</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>0.61%</t>
+  </si>
+  <si>
+    <t>113596</t>
+  </si>
+  <si>
+    <t>城地转债</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>2026-07-28</t>
+  </si>
+  <si>
+    <t>1.14%</t>
   </si>
   <si>
     <t>110068</t>
@@ -320,253 +536,25 @@
     <t>2026-03-24</t>
   </si>
   <si>
-    <t>1.392</t>
-  </si>
-  <si>
-    <t>-1.77%</t>
-  </si>
-  <si>
-    <t>-14.95%</t>
-  </si>
-  <si>
-    <t>113619</t>
-  </si>
-  <si>
-    <t>世运转债</t>
-  </si>
-  <si>
-    <t>2027-01-20</t>
-  </si>
-  <si>
-    <t>2.219</t>
-  </si>
-  <si>
-    <t>-5.42%</t>
-  </si>
-  <si>
-    <t>-15.45%</t>
-  </si>
-  <si>
-    <t>128087</t>
-  </si>
-  <si>
-    <t>孚日转债</t>
-  </si>
-  <si>
-    <t>2025-12-17</t>
-  </si>
-  <si>
-    <t>1.126</t>
-  </si>
-  <si>
-    <t>-2.6%</t>
-  </si>
-  <si>
-    <t>-16.24%</t>
-  </si>
-  <si>
-    <t>123050</t>
-  </si>
-  <si>
-    <t>聚飞转债</t>
-  </si>
-  <si>
-    <t>2026-04-14</t>
-  </si>
-  <si>
-    <t>1.449</t>
-  </si>
-  <si>
-    <t>-7.01%</t>
-  </si>
-  <si>
-    <t>-18.72%</t>
-  </si>
-  <si>
-    <t>127014</t>
-  </si>
-  <si>
-    <t>北方转债</t>
-  </si>
-  <si>
-    <t>2025-10-24</t>
-  </si>
-  <si>
-    <t>0.978</t>
-  </si>
-  <si>
-    <t>-1.3%</t>
-  </si>
-  <si>
-    <t>-22.38%</t>
-  </si>
-  <si>
-    <t>113600</t>
-  </si>
-  <si>
-    <t>新星转债</t>
-  </si>
-  <si>
-    <t>A-</t>
-  </si>
-  <si>
-    <t>2026-08-13</t>
-  </si>
-  <si>
-    <t>1.781</t>
-  </si>
-  <si>
-    <t>-3.36%</t>
-  </si>
-  <si>
-    <t>-28.81%</t>
-  </si>
-  <si>
-    <t>113596</t>
-  </si>
-  <si>
-    <t>城地转债</t>
-  </si>
-  <si>
-    <t>BBB</t>
-  </si>
-  <si>
-    <t>2026-07-28</t>
-  </si>
-  <si>
-    <t>1.737</t>
-  </si>
-  <si>
-    <t>-18.83%</t>
-  </si>
-  <si>
-    <t>-33.27%</t>
-  </si>
-  <si>
-    <t>110060</t>
-  </si>
-  <si>
-    <t>天路转债</t>
-  </si>
-  <si>
-    <t>2025-10-28</t>
-  </si>
-  <si>
-    <t>0.989</t>
-  </si>
-  <si>
-    <t>1.26%</t>
-  </si>
-  <si>
-    <t>-51.14%</t>
-  </si>
-  <si>
-    <t>110052</t>
-  </si>
-  <si>
-    <t>贵广转债</t>
-  </si>
-  <si>
-    <t>2025-03-05</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>-2.25%</t>
-  </si>
-  <si>
-    <t>-292.10%</t>
-  </si>
-  <si>
-    <t>128049</t>
-  </si>
-  <si>
-    <t>华源转债</t>
-  </si>
-  <si>
-    <t>2024-11-27</t>
-  </si>
-  <si>
-    <t>0.071</t>
-  </si>
-  <si>
-    <t>-5.3%</t>
-  </si>
-  <si>
-    <t>-413.37%</t>
+    <t>-1.7%</t>
+  </si>
+  <si>
+    <t>-5026.32%</t>
   </si>
   <si>
     <t>110048</t>
   </si>
   <si>
-    <t>福能转债</t>
+    <t>Z福能转</t>
   </si>
   <si>
     <t>2024-12-07</t>
   </si>
   <si>
-    <t>0.099</t>
-  </si>
-  <si>
-    <t>-0.43%</t>
-  </si>
-  <si>
-    <t>-999%</t>
-  </si>
-  <si>
-    <t>123044</t>
-  </si>
-  <si>
-    <t>红相转债</t>
-  </si>
-  <si>
-    <t>2026-03-12</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>-12.93%</t>
-  </si>
-  <si>
-    <t>123208</t>
-  </si>
-  <si>
-    <t>孩王转债</t>
-  </si>
-  <si>
-    <t>2029-07-24</t>
-  </si>
-  <si>
-    <t>-2.58%</t>
-  </si>
-  <si>
-    <t>123096</t>
-  </si>
-  <si>
-    <t>思创转债</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>2027-01-26</t>
-  </si>
-  <si>
-    <t>-9.81%</t>
-  </si>
-  <si>
-    <t>123170</t>
-  </si>
-  <si>
-    <t>南电转债</t>
-  </si>
-  <si>
-    <t>2028-11-24</t>
-  </si>
-  <si>
-    <t>-5.78%</t>
+    <t>0.011</t>
+  </si>
+  <si>
+    <t>2.05%</t>
   </si>
 </sst>
 </file>
@@ -947,7 +935,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>123.888</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -973,19 +961,19 @@
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>135.602</v>
       </c>
       <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -999,7 +987,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>135.3</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -1011,30 +999,30 @@
         <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>130.9</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -1042,519 +1030,519 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>126.87</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D7" t="n">
-        <v>110.142</v>
+        <v>129.277</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D8" t="n">
-        <v>126.99</v>
+        <v>142.2</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D9" t="n">
-        <v>139.3</v>
+        <v>120.296</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D10" t="n">
-        <v>133.281</v>
+        <v>142.45</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D11" t="n">
-        <v>127.76</v>
+        <v>142.741</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D12" t="n">
-        <v>140.739</v>
+        <v>128.265</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D13" t="n">
-        <v>149.98</v>
+        <v>168.103</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D14" t="n">
-        <v>134.5</v>
+        <v>182.3</v>
       </c>
       <c r="E14" t="s">
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D15" t="n">
-        <v>160.8</v>
+        <v>212.259</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D16" t="n">
-        <v>140</v>
+        <v>139.396</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G16" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D17" t="n">
-        <v>132.371</v>
+        <v>125.98</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H17" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D18" t="n">
-        <v>157.618</v>
+        <v>132.996</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H18" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D19" t="n">
-        <v>130.001</v>
+        <v>136.998</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G19" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H19" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D20" t="n">
-        <v>149.995</v>
+        <v>135</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H20" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D21" t="n">
-        <v>132.12</v>
+        <v>122.47</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G21" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="H21" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D22" t="n">
-        <v>184.43</v>
+        <v>120.504</v>
       </c>
       <c r="E22" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G22" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H22" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D23" t="n">
-        <v>193.878</v>
+        <v>159.812</v>
       </c>
       <c r="E23" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G23" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H23" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D24" t="n">
-        <v>160.741</v>
+        <v>156.169</v>
       </c>
       <c r="E24" t="s">
         <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D25" t="n">
-        <v>133.61</v>
+        <v>131.651</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G25" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H25" t="s">
         <v>152</v>
@@ -1562,158 +1550,158 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" t="s">
         <v>153</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>154</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="n">
+        <v>145.939</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" t="s">
         <v>155</v>
       </c>
-      <c r="D26" t="n">
-        <v>136.359</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" t="s">
         <v>156</v>
-      </c>
-      <c r="G26" t="s">
-        <v>157</v>
-      </c>
-      <c r="H26" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" t="n">
+        <v>125.2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
         <v>159</v>
       </c>
-      <c r="B27" t="s">
+      <c r="G27" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" t="s">
         <v>160</v>
-      </c>
-      <c r="C27" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27" t="n">
-        <v>177.606</v>
-      </c>
-      <c r="E27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" t="s">
-        <v>162</v>
-      </c>
-      <c r="G27" t="s">
-        <v>163</v>
-      </c>
-      <c r="H27" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B28" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D28" t="n">
-        <v>188.5</v>
+        <v>145.102</v>
       </c>
       <c r="E28" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G28" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="H28" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" t="s">
         <v>165</v>
       </c>
-      <c r="B29" t="s">
-        <v>171</v>
-      </c>
       <c r="C29" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D29" t="n">
-        <v>153.046</v>
+        <v>172.246</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="F29" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" t="s">
         <v>169</v>
-      </c>
-      <c r="H29" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C30" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D30" t="n">
-        <v>130.1</v>
+        <v>124.209</v>
       </c>
       <c r="E30" t="s">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G30" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="H30" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C31" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D31" t="n">
-        <v>145.101</v>
+        <v>182.362</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="F31" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G31" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="H31" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
   <si>
     <t>到期税后收益率</t>
   </si>
@@ -41,196 +41,184 @@
     <t>涨跌幅</t>
   </si>
   <si>
-    <t>-1.36%</t>
-  </si>
-  <si>
-    <t>123198</t>
-  </si>
-  <si>
-    <t>金埔转债</t>
+    <t>71.33%</t>
+  </si>
+  <si>
+    <t>404004</t>
+  </si>
+  <si>
+    <t>汇车退债</t>
+  </si>
+  <si>
+    <t>AA-</t>
+  </si>
+  <si>
+    <t>2026-08-18</t>
+  </si>
+  <si>
+    <t>1.622</t>
+  </si>
+  <si>
+    <t>-13.2%</t>
+  </si>
+  <si>
+    <t>21.03%</t>
+  </si>
+  <si>
+    <t>127033</t>
+  </si>
+  <si>
+    <t>中装转2</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>2027-04-16</t>
+  </si>
+  <si>
+    <t>2.282</t>
+  </si>
+  <si>
+    <t>-3.92%</t>
+  </si>
+  <si>
+    <t>-2.06%</t>
+  </si>
+  <si>
+    <t>123204</t>
+  </si>
+  <si>
+    <t>金丹转债</t>
+  </si>
+  <si>
+    <t>2029-07-13</t>
+  </si>
+  <si>
+    <t>4.526</t>
+  </si>
+  <si>
+    <t>-2.49%</t>
+  </si>
+  <si>
+    <t>-2.89%</t>
+  </si>
+  <si>
+    <t>113667</t>
+  </si>
+  <si>
+    <t>春23转债</t>
+  </si>
+  <si>
+    <t>2029-03-17</t>
+  </si>
+  <si>
+    <t>4.203</t>
+  </si>
+  <si>
+    <t>1.8%</t>
+  </si>
+  <si>
+    <t>-3.71%</t>
+  </si>
+  <si>
+    <t>113044</t>
+  </si>
+  <si>
+    <t>大秦转债</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>2026-12-14</t>
+  </si>
+  <si>
+    <t>1.945</t>
+  </si>
+  <si>
+    <t>0.64%</t>
+  </si>
+  <si>
+    <t>-4.33%</t>
+  </si>
+  <si>
+    <t>123237</t>
+  </si>
+  <si>
+    <t>佳禾转债</t>
   </si>
   <si>
     <t>A+</t>
   </si>
   <si>
-    <t>2029-06-08</t>
-  </si>
-  <si>
-    <t>4.515</t>
-  </si>
-  <si>
-    <t>1.66%</t>
-  </si>
-  <si>
-    <t>-3.08%</t>
-  </si>
-  <si>
-    <t>123229</t>
-  </si>
-  <si>
-    <t>艾录转债</t>
-  </si>
-  <si>
-    <t>2029-10-23</t>
-  </si>
-  <si>
-    <t>4.89</t>
-  </si>
-  <si>
-    <t>1.65%</t>
-  </si>
-  <si>
-    <t>-3.18%</t>
-  </si>
-  <si>
-    <t>123228</t>
-  </si>
-  <si>
-    <t>震裕转债</t>
-  </si>
-  <si>
-    <t>AA-</t>
-  </si>
-  <si>
-    <t>2029-10-20</t>
-  </si>
-  <si>
-    <t>4.882</t>
-  </si>
-  <si>
-    <t>1.84%</t>
-  </si>
-  <si>
-    <t>-3.36%</t>
-  </si>
-  <si>
-    <t>123191</t>
-  </si>
-  <si>
-    <t>智尚转债</t>
-  </si>
-  <si>
-    <t>2029-04-10</t>
-  </si>
-  <si>
-    <t>4.353</t>
-  </si>
-  <si>
-    <t>-3.46%</t>
-  </si>
-  <si>
-    <t>113629</t>
-  </si>
-  <si>
-    <t>泉峰转债</t>
-  </si>
-  <si>
-    <t>2027-09-14</t>
-  </si>
-  <si>
-    <t>2.781</t>
-  </si>
-  <si>
-    <t>1.47%</t>
-  </si>
-  <si>
-    <t>-3.88%</t>
-  </si>
-  <si>
-    <t>118026</t>
-  </si>
-  <si>
-    <t>利元转债</t>
-  </si>
-  <si>
-    <t>2028-10-24</t>
-  </si>
-  <si>
-    <t>3.893</t>
-  </si>
-  <si>
-    <t>-3.6%</t>
-  </si>
-  <si>
-    <t>-4.01%</t>
-  </si>
-  <si>
-    <t>123249</t>
-  </si>
-  <si>
-    <t>英搏转债</t>
+    <t>2030-01-04</t>
+  </si>
+  <si>
+    <t>5.006</t>
+  </si>
+  <si>
+    <t>-3.15%</t>
+  </si>
+  <si>
+    <t>-4.43%</t>
+  </si>
+  <si>
+    <t>127076</t>
+  </si>
+  <si>
+    <t>中宠转2</t>
+  </si>
+  <si>
+    <t>2028-10-25</t>
+  </si>
+  <si>
+    <t>3.811</t>
+  </si>
+  <si>
+    <t>1.12%</t>
+  </si>
+  <si>
+    <t>-4.63%</t>
+  </si>
+  <si>
+    <t>127043</t>
+  </si>
+  <si>
+    <t>川恒转债</t>
+  </si>
+  <si>
+    <t>2027-08-12</t>
+  </si>
+  <si>
+    <t>2.606</t>
+  </si>
+  <si>
+    <t>-0.61%</t>
+  </si>
+  <si>
+    <t>-4.80%</t>
+  </si>
+  <si>
+    <t>113069</t>
+  </si>
+  <si>
+    <t>博23转债</t>
   </si>
   <si>
     <t>AA</t>
   </si>
   <si>
-    <t>2030-10-24</t>
-  </si>
-  <si>
-    <t>5.893</t>
-  </si>
-  <si>
-    <t>0.66%</t>
-  </si>
-  <si>
-    <t>-4.44%</t>
-  </si>
-  <si>
-    <t>113044</t>
-  </si>
-  <si>
-    <t>大秦转债</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>2026-12-14</t>
-  </si>
-  <si>
-    <t>2.03</t>
-  </si>
-  <si>
-    <t>0.37%</t>
-  </si>
-  <si>
-    <t>-4.61%</t>
-  </si>
-  <si>
-    <t>123209</t>
-  </si>
-  <si>
-    <t>聚隆转债</t>
-  </si>
-  <si>
-    <t>2029-07-26</t>
-  </si>
-  <si>
-    <t>4.647</t>
-  </si>
-  <si>
-    <t>2.13%</t>
-  </si>
-  <si>
-    <t>-4.86%</t>
-  </si>
-  <si>
-    <t>123177</t>
-  </si>
-  <si>
-    <t>测绘转债</t>
-  </si>
-  <si>
-    <t>2029-03-02</t>
-  </si>
-  <si>
-    <t>4.247</t>
-  </si>
-  <si>
-    <t>3.92%</t>
-  </si>
-  <si>
-    <t>-4.97%</t>
+    <t>2028-12-22</t>
+  </si>
+  <si>
+    <t>3.97</t>
+  </si>
+  <si>
+    <t>-0.55%</t>
+  </si>
+  <si>
+    <t>-4.99%</t>
   </si>
   <si>
     <t>113631</t>
@@ -245,31 +233,139 @@
     <t>2027-11-08</t>
   </si>
   <si>
-    <t>2.932</t>
-  </si>
-  <si>
-    <t>0.06%</t>
-  </si>
-  <si>
-    <t>-7.77%</t>
-  </si>
-  <si>
-    <t>123223</t>
-  </si>
-  <si>
-    <t>九典转02</t>
-  </si>
-  <si>
-    <t>2029-09-15</t>
-  </si>
-  <si>
-    <t>4.786</t>
-  </si>
-  <si>
-    <t>-3.33%</t>
-  </si>
-  <si>
-    <t>-8.36%</t>
+    <t>2.847</t>
+  </si>
+  <si>
+    <t>-0.02%</t>
+  </si>
+  <si>
+    <t>-6.24%</t>
+  </si>
+  <si>
+    <t>127032</t>
+  </si>
+  <si>
+    <t>苏行转债</t>
+  </si>
+  <si>
+    <t>2027-04-12</t>
+  </si>
+  <si>
+    <t>2.271</t>
+  </si>
+  <si>
+    <t>-0.13%</t>
+  </si>
+  <si>
+    <t>-6.66%</t>
+  </si>
+  <si>
+    <t>113050</t>
+  </si>
+  <si>
+    <t>南银转债</t>
+  </si>
+  <si>
+    <t>2027-06-15</t>
+  </si>
+  <si>
+    <t>2.447</t>
+  </si>
+  <si>
+    <t>-0.35%</t>
+  </si>
+  <si>
+    <t>-6.95%</t>
+  </si>
+  <si>
+    <t>110079</t>
+  </si>
+  <si>
+    <t>杭银转债</t>
+  </si>
+  <si>
+    <t>2027-03-29</t>
+  </si>
+  <si>
+    <t>2.233</t>
+  </si>
+  <si>
+    <t>-0.07%</t>
+  </si>
+  <si>
+    <t>-8.28%</t>
+  </si>
+  <si>
+    <t>127092</t>
+  </si>
+  <si>
+    <t>运机转债</t>
+  </si>
+  <si>
+    <t>2029-09-21</t>
+  </si>
+  <si>
+    <t>4.718</t>
+  </si>
+  <si>
+    <t>-1.96%</t>
+  </si>
+  <si>
+    <t>-8.39%</t>
+  </si>
+  <si>
+    <t>127084</t>
+  </si>
+  <si>
+    <t>柳工转2</t>
+  </si>
+  <si>
+    <t>2029-03-27</t>
+  </si>
+  <si>
+    <t>4.23</t>
+  </si>
+  <si>
+    <t>-1.04%</t>
+  </si>
+  <si>
+    <t>-10.50%</t>
+  </si>
+  <si>
+    <t>128081</t>
+  </si>
+  <si>
+    <t>海亮转债</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>0.882</t>
+  </si>
+  <si>
+    <t>-0.11%</t>
+  </si>
+  <si>
+    <t>-11.58%</t>
+  </si>
+  <si>
+    <t>123127</t>
+  </si>
+  <si>
+    <t>耐普转债</t>
+  </si>
+  <si>
+    <t>2027-10-29</t>
+  </si>
+  <si>
+    <t>2.819</t>
+  </si>
+  <si>
+    <t>-2.96%</t>
+  </si>
+  <si>
+    <t>-11.69%</t>
   </si>
   <si>
     <t>123241</t>
@@ -281,13 +377,13 @@
     <t>2030-07-04</t>
   </si>
   <si>
-    <t>5.586</t>
-  </si>
-  <si>
-    <t>-4.5%</t>
-  </si>
-  <si>
-    <t>-12.73%</t>
+    <t>5.501</t>
+  </si>
+  <si>
+    <t>-11%</t>
+  </si>
+  <si>
+    <t>-12.21%</t>
   </si>
   <si>
     <t>123213</t>
@@ -299,13 +395,31 @@
     <t>2029-07-28</t>
   </si>
   <si>
-    <t>4.652</t>
-  </si>
-  <si>
-    <t>-1.4%</t>
-  </si>
-  <si>
-    <t>-15.02%</t>
+    <t>4.567</t>
+  </si>
+  <si>
+    <t>-2.09%</t>
+  </si>
+  <si>
+    <t>-15.75%</t>
+  </si>
+  <si>
+    <t>113030</t>
+  </si>
+  <si>
+    <t>东风转债</t>
+  </si>
+  <si>
+    <t>2025-12-24</t>
+  </si>
+  <si>
+    <t>0.973</t>
+  </si>
+  <si>
+    <t>-2.17%</t>
+  </si>
+  <si>
+    <t>-16.66%</t>
   </si>
   <si>
     <t>128109</t>
@@ -317,67 +431,85 @@
     <t>2026-06-04</t>
   </si>
   <si>
-    <t>1.501</t>
-  </si>
-  <si>
-    <t>-1.14%</t>
-  </si>
-  <si>
-    <t>-15.06%</t>
-  </si>
-  <si>
-    <t>113549</t>
-  </si>
-  <si>
-    <t>白电转债</t>
-  </si>
-  <si>
-    <t>2025-11-15</t>
-  </si>
-  <si>
-    <t>0.951</t>
-  </si>
-  <si>
-    <t>-0.36%</t>
-  </si>
-  <si>
-    <t>-15.89%</t>
-  </si>
-  <si>
-    <t>113030</t>
-  </si>
-  <si>
-    <t>东风转债</t>
-  </si>
-  <si>
-    <t>2025-12-24</t>
-  </si>
-  <si>
-    <t>1.058</t>
-  </si>
-  <si>
-    <t>-0.95%</t>
-  </si>
-  <si>
-    <t>-19.89%</t>
-  </si>
-  <si>
-    <t>128083</t>
-  </si>
-  <si>
-    <t>新北转债</t>
-  </si>
-  <si>
-    <t>2025-12-12</t>
-  </si>
-  <si>
-    <t>1.025</t>
-  </si>
-  <si>
-    <t>-1.61%</t>
-  </si>
-  <si>
-    <t>-21.16%</t>
+    <t>1.416</t>
+  </si>
+  <si>
+    <t>-0.01%</t>
+  </si>
+  <si>
+    <t>-18.98%</t>
+  </si>
+  <si>
+    <t>127037</t>
+  </si>
+  <si>
+    <t>银轮转债</t>
+  </si>
+  <si>
+    <t>2027-06-07</t>
+  </si>
+  <si>
+    <t>2.425</t>
+  </si>
+  <si>
+    <t>-0.94%</t>
+  </si>
+  <si>
+    <t>-21.10%</t>
+  </si>
+  <si>
+    <t>113546</t>
+  </si>
+  <si>
+    <t>迪贝转债</t>
+  </si>
+  <si>
+    <t>2025-10-23</t>
+  </si>
+  <si>
+    <t>0.803</t>
+  </si>
+  <si>
+    <t>5.47%</t>
+  </si>
+  <si>
+    <t>-25.87%</t>
+  </si>
+  <si>
+    <t>110077</t>
+  </si>
+  <si>
+    <t>洪城转债</t>
+  </si>
+  <si>
+    <t>2026-11-20</t>
+  </si>
+  <si>
+    <t>1.88</t>
+  </si>
+  <si>
+    <t>-0.78%</t>
+  </si>
+  <si>
+    <t>-63.87%</t>
+  </si>
+  <si>
+    <t>113021</t>
+  </si>
+  <si>
+    <t>中信转债</t>
+  </si>
+  <si>
+    <t>2025-03-04</t>
+  </si>
+  <si>
+    <t>0.164</t>
+  </si>
+  <si>
+    <t>-0.39%</t>
+  </si>
+  <si>
+    <t>-999%</t>
   </si>
   <si>
     <t>123035</t>
@@ -389,172 +521,64 @@
     <t>2025-11-14</t>
   </si>
   <si>
-    <t>0.948</t>
-  </si>
-  <si>
-    <t>2.82%</t>
-  </si>
-  <si>
-    <t>-26.00%</t>
-  </si>
-  <si>
-    <t>128062</t>
-  </si>
-  <si>
-    <t>亚药转债</t>
-  </si>
-  <si>
-    <t>CCC</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>0.329</t>
-  </si>
-  <si>
-    <t>-0.14%</t>
-  </si>
-  <si>
-    <t>-39.39%</t>
-  </si>
-  <si>
-    <t>113021</t>
-  </si>
-  <si>
-    <t>中信转债</t>
-  </si>
-  <si>
-    <t>2025-03-04</t>
-  </si>
-  <si>
-    <t>0.249</t>
-  </si>
-  <si>
-    <t>1.35%</t>
-  </si>
-  <si>
-    <t>-999%</t>
-  </si>
-  <si>
-    <t>110058</t>
-  </si>
-  <si>
-    <t>永鼎转债</t>
-  </si>
-  <si>
-    <t>2025-04-16</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>0.43%</t>
-  </si>
-  <si>
-    <t>128090</t>
-  </si>
-  <si>
-    <t>汽模转2</t>
-  </si>
-  <si>
-    <t>2025-12-27</t>
-  </si>
-  <si>
-    <t>5.97%</t>
-  </si>
-  <si>
-    <t>123103</t>
-  </si>
-  <si>
-    <t>震安转债</t>
-  </si>
-  <si>
-    <t>2027-03-12</t>
-  </si>
-  <si>
-    <t>-0.97%</t>
-  </si>
-  <si>
-    <t>113662</t>
-  </si>
-  <si>
-    <t>豪能转债</t>
-  </si>
-  <si>
-    <t>2028-11-25</t>
-  </si>
-  <si>
-    <t>-1.19%</t>
-  </si>
-  <si>
-    <t>123135</t>
-  </si>
-  <si>
-    <t>泰林转债</t>
-  </si>
-  <si>
-    <t>2027-12-28</t>
-  </si>
-  <si>
-    <t>-1.39%</t>
-  </si>
-  <si>
-    <t>128063</t>
-  </si>
-  <si>
-    <t>未来转债</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>0.61%</t>
-  </si>
-  <si>
-    <t>113596</t>
-  </si>
-  <si>
-    <t>城地转债</t>
-  </si>
-  <si>
-    <t>BBB</t>
-  </si>
-  <si>
-    <t>2026-07-28</t>
-  </si>
-  <si>
-    <t>1.14%</t>
-  </si>
-  <si>
-    <t>110068</t>
-  </si>
-  <si>
-    <t>龙净转债</t>
-  </si>
-  <si>
-    <t>2026-03-24</t>
-  </si>
-  <si>
-    <t>-1.7%</t>
-  </si>
-  <si>
-    <t>-5026.32%</t>
-  </si>
-  <si>
-    <t>110048</t>
-  </si>
-  <si>
-    <t>Z福能转</t>
-  </si>
-  <si>
-    <t>2024-12-07</t>
-  </si>
-  <si>
-    <t>0.011</t>
-  </si>
-  <si>
-    <t>2.05%</t>
+    <t>-6.04%</t>
+  </si>
+  <si>
+    <t>113055</t>
+  </si>
+  <si>
+    <t>成银转债</t>
+  </si>
+  <si>
+    <t>2028-03-03</t>
+  </si>
+  <si>
+    <t>-1.5%</t>
+  </si>
+  <si>
+    <t>123238</t>
+  </si>
+  <si>
+    <t>卡倍转02</t>
+  </si>
+  <si>
+    <t>2030-01-11</t>
+  </si>
+  <si>
+    <t>-1.31%</t>
+  </si>
+  <si>
+    <t>113576</t>
+  </si>
+  <si>
+    <t>起步转债</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>2026-04-10</t>
+  </si>
+  <si>
+    <t>-6.13%</t>
+  </si>
+  <si>
+    <t>123163</t>
+  </si>
+  <si>
+    <t>金沃转债</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>2028-10-14</t>
+  </si>
+  <si>
+    <t>-10.68%</t>
   </si>
 </sst>
 </file>
@@ -935,7 +959,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>123.888</v>
+        <v>46.195</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -961,36 +985,36 @@
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>135.602</v>
+        <v>73.2</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>135.3</v>
+        <v>127.06</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -1013,10 +1037,10 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>130.9</v>
+        <v>130.925</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>31</v>
@@ -1025,683 +1049,683 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>126.87</v>
+        <v>116.685</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" t="n">
-        <v>129.277</v>
+        <v>142.233</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>142.2</v>
+        <v>133.7</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9" t="n">
-        <v>120.296</v>
+        <v>130.087</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" t="n">
-        <v>142.45</v>
+        <v>132.837</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11" t="n">
-        <v>142.741</v>
+        <v>127.777</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D12" t="n">
-        <v>128.265</v>
+        <v>127.98</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D13" t="n">
-        <v>168.103</v>
+        <v>127.465</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D14" t="n">
-        <v>182.3</v>
+        <v>127.512</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D15" t="n">
-        <v>212.259</v>
+        <v>174.5</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>139.396</v>
+        <v>163.88</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D17" t="n">
-        <v>125.98</v>
+        <v>119.023</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D18" t="n">
-        <v>132.996</v>
+        <v>156.627</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D19" t="n">
-        <v>136.998</v>
+        <v>221.598</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D20" t="n">
-        <v>135</v>
+        <v>204.227</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D21" t="n">
-        <v>122.47</v>
+        <v>129.365</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D22" t="n">
-        <v>120.504</v>
+        <v>141.291</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D23" t="n">
-        <v>159.812</v>
+        <v>183.142</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D24" t="n">
-        <v>156.169</v>
+        <v>134.749</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G24" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="H24" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D25" t="n">
-        <v>131.651</v>
+        <v>190.954</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F25" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G25" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="H25" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C26" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D26" t="n">
-        <v>145.939</v>
+        <v>121.323</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G26" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="H26" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C27" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D27" t="n">
-        <v>125.2</v>
+        <v>137.786</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F27" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="G27" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="H27" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D28" t="n">
-        <v>145.102</v>
+        <v>134.556</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="G28" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="H28" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B29" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C29" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D29" t="n">
-        <v>172.246</v>
+        <v>149.888</v>
       </c>
       <c r="E29" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" t="s">
         <v>168</v>
       </c>
-      <c r="G29" t="s">
-        <v>143</v>
-      </c>
       <c r="H29" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B30" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C30" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D30" t="n">
-        <v>124.209</v>
+        <v>137.169</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="F30" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G30" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="H30" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B31" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C31" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D31" t="n">
-        <v>182.362</v>
+        <v>153</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="F31" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="G31" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="H31" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="189">
   <si>
     <t>到期税后收益率</t>
   </si>
@@ -41,7 +41,7 @@
     <t>涨跌幅</t>
   </si>
   <si>
-    <t>71.33%</t>
+    <t>147.77%</t>
   </si>
   <si>
     <t>404004</t>
@@ -56,13 +56,13 @@
     <t>2026-08-18</t>
   </si>
   <si>
-    <t>1.622</t>
-  </si>
-  <si>
-    <t>-13.2%</t>
-  </si>
-  <si>
-    <t>21.03%</t>
+    <t>1.556</t>
+  </si>
+  <si>
+    <t>-40.39%</t>
+  </si>
+  <si>
+    <t>21.66%</t>
   </si>
   <si>
     <t>127033</t>
@@ -77,49 +77,487 @@
     <t>2027-04-16</t>
   </si>
   <si>
-    <t>2.282</t>
-  </si>
-  <si>
-    <t>-3.92%</t>
-  </si>
-  <si>
-    <t>-2.06%</t>
-  </si>
-  <si>
-    <t>123204</t>
-  </si>
-  <si>
-    <t>金丹转债</t>
-  </si>
-  <si>
-    <t>2029-07-13</t>
-  </si>
-  <si>
-    <t>4.526</t>
-  </si>
-  <si>
-    <t>-2.49%</t>
-  </si>
-  <si>
-    <t>-2.89%</t>
-  </si>
-  <si>
-    <t>113667</t>
-  </si>
-  <si>
-    <t>春23转债</t>
-  </si>
-  <si>
-    <t>2029-03-17</t>
-  </si>
-  <si>
-    <t>4.203</t>
-  </si>
-  <si>
-    <t>1.8%</t>
-  </si>
-  <si>
-    <t>-3.71%</t>
+    <t>2.216</t>
+  </si>
+  <si>
+    <t>0.68%</t>
+  </si>
+  <si>
+    <t>-2.16%</t>
+  </si>
+  <si>
+    <t>123243</t>
+  </si>
+  <si>
+    <t>严牌转债</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>2030-07-10</t>
+  </si>
+  <si>
+    <t>5.452</t>
+  </si>
+  <si>
+    <t>-0.73%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>113685</t>
+  </si>
+  <si>
+    <t>升24转债</t>
+  </si>
+  <si>
+    <t>2030-06-14</t>
+  </si>
+  <si>
+    <t>5.381</t>
+  </si>
+  <si>
+    <t>-2.57%</t>
+  </si>
+  <si>
+    <t>-3.28%</t>
+  </si>
+  <si>
+    <t>123239</t>
+  </si>
+  <si>
+    <t>锋工转债</t>
+  </si>
+  <si>
+    <t>2030-01-18</t>
+  </si>
+  <si>
+    <t>4.978</t>
+  </si>
+  <si>
+    <t>-0.68%</t>
+  </si>
+  <si>
+    <t>-3.87%</t>
+  </si>
+  <si>
+    <t>123187</t>
+  </si>
+  <si>
+    <t>超达转债</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>2029-04-04</t>
+  </si>
+  <si>
+    <t>4.186</t>
+  </si>
+  <si>
+    <t>0.2%</t>
+  </si>
+  <si>
+    <t>-5.62%</t>
+  </si>
+  <si>
+    <t>113684</t>
+  </si>
+  <si>
+    <t>湘泵转债</t>
+  </si>
+  <si>
+    <t>2030-04-01</t>
+  </si>
+  <si>
+    <t>5.178</t>
+  </si>
+  <si>
+    <t>-4.19%</t>
+  </si>
+  <si>
+    <t>-5.88%</t>
+  </si>
+  <si>
+    <t>127076</t>
+  </si>
+  <si>
+    <t>中宠转2</t>
+  </si>
+  <si>
+    <t>2028-10-25</t>
+  </si>
+  <si>
+    <t>3.745</t>
+  </si>
+  <si>
+    <t>0.6%</t>
+  </si>
+  <si>
+    <t>-6.07%</t>
+  </si>
+  <si>
+    <t>123249</t>
+  </si>
+  <si>
+    <t>英搏转债</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>2030-10-24</t>
+  </si>
+  <si>
+    <t>5.743</t>
+  </si>
+  <si>
+    <t>-1.8%</t>
+  </si>
+  <si>
+    <t>-6.58%</t>
+  </si>
+  <si>
+    <t>113061</t>
+  </si>
+  <si>
+    <t>拓普转债</t>
+  </si>
+  <si>
+    <t>AA+</t>
+  </si>
+  <si>
+    <t>2028-07-14</t>
+  </si>
+  <si>
+    <t>3.463</t>
+  </si>
+  <si>
+    <t>-1.23%</t>
+  </si>
+  <si>
+    <t>-6.59%</t>
+  </si>
+  <si>
+    <t>123222</t>
+  </si>
+  <si>
+    <t>博俊转债</t>
+  </si>
+  <si>
+    <t>2029-09-08</t>
+  </si>
+  <si>
+    <t>4.616</t>
+  </si>
+  <si>
+    <t>-2.34%</t>
+  </si>
+  <si>
+    <t>-6.66%</t>
+  </si>
+  <si>
+    <t>113669</t>
+  </si>
+  <si>
+    <t>景23转债</t>
+  </si>
+  <si>
+    <t>-3.66%</t>
+  </si>
+  <si>
+    <t>-7.52%</t>
+  </si>
+  <si>
+    <t>113050</t>
+  </si>
+  <si>
+    <t>南银转债</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>2027-06-15</t>
+  </si>
+  <si>
+    <t>2.381</t>
+  </si>
+  <si>
+    <t>0.31%</t>
+  </si>
+  <si>
+    <t>-7.80%</t>
+  </si>
+  <si>
+    <t>113690</t>
+  </si>
+  <si>
+    <t>豪24转债</t>
+  </si>
+  <si>
+    <t>2030-10-22</t>
+  </si>
+  <si>
+    <t>5.737</t>
+  </si>
+  <si>
+    <t>0.03%</t>
+  </si>
+  <si>
+    <t>-7.96%</t>
+  </si>
+  <si>
+    <t>110079</t>
+  </si>
+  <si>
+    <t>杭银转债</t>
+  </si>
+  <si>
+    <t>2027-03-29</t>
+  </si>
+  <si>
+    <t>2.167</t>
+  </si>
+  <si>
+    <t>0.56%</t>
+  </si>
+  <si>
+    <t>-9.08%</t>
+  </si>
+  <si>
+    <t>128143</t>
+  </si>
+  <si>
+    <t>锋龙转债</t>
+  </si>
+  <si>
+    <t>2027-01-08</t>
+  </si>
+  <si>
+    <t>1.948</t>
+  </si>
+  <si>
+    <t>-1.92%</t>
+  </si>
+  <si>
+    <t>-9.09%</t>
+  </si>
+  <si>
+    <t>111011</t>
+  </si>
+  <si>
+    <t>冠盛转债</t>
+  </si>
+  <si>
+    <t>2029-01-03</t>
+  </si>
+  <si>
+    <t>3.937</t>
+  </si>
+  <si>
+    <t>-1.55%</t>
+  </si>
+  <si>
+    <t>-10.60%</t>
+  </si>
+  <si>
+    <t>123127</t>
+  </si>
+  <si>
+    <t>耐普转债</t>
+  </si>
+  <si>
+    <t>2027-10-29</t>
+  </si>
+  <si>
+    <t>2.753</t>
+  </si>
+  <si>
+    <t>-3.48%</t>
+  </si>
+  <si>
+    <t>-11.64%</t>
+  </si>
+  <si>
+    <t>128081</t>
+  </si>
+  <si>
+    <t>海亮转债</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>0.816</t>
+  </si>
+  <si>
+    <t>-0.8%</t>
+  </si>
+  <si>
+    <t>-12.59%</t>
+  </si>
+  <si>
+    <t>123213</t>
+  </si>
+  <si>
+    <t>天源转债</t>
+  </si>
+  <si>
+    <t>2029-07-28</t>
+  </si>
+  <si>
+    <t>4.501</t>
+  </si>
+  <si>
+    <t>-1.99%</t>
+  </si>
+  <si>
+    <t>-12.66%</t>
+  </si>
+  <si>
+    <t>123228</t>
+  </si>
+  <si>
+    <t>震裕转债</t>
+  </si>
+  <si>
+    <t>2029-10-20</t>
+  </si>
+  <si>
+    <t>4.732</t>
+  </si>
+  <si>
+    <t>-2.2%</t>
+  </si>
+  <si>
+    <t>-15.41%</t>
+  </si>
+  <si>
+    <t>123241</t>
+  </si>
+  <si>
+    <t>欧通转债</t>
+  </si>
+  <si>
+    <t>2030-07-05</t>
+  </si>
+  <si>
+    <t>5.438</t>
+  </si>
+  <si>
+    <t>-4.29%</t>
+  </si>
+  <si>
+    <t>-18.59%</t>
+  </si>
+  <si>
+    <t>111012</t>
+  </si>
+  <si>
+    <t>福新转债</t>
+  </si>
+  <si>
+    <t>2029-01-04</t>
+  </si>
+  <si>
+    <t>3.94</t>
+  </si>
+  <si>
+    <t>-1.88%</t>
+  </si>
+  <si>
+    <t>-27.28%</t>
+  </si>
+  <si>
+    <t>110077</t>
+  </si>
+  <si>
+    <t>洪城转债</t>
+  </si>
+  <si>
+    <t>2026-11-20</t>
+  </si>
+  <si>
+    <t>1.814</t>
+  </si>
+  <si>
+    <t>0.74%</t>
+  </si>
+  <si>
+    <t>-49.18%</t>
+  </si>
+  <si>
+    <t>110052</t>
+  </si>
+  <si>
+    <t>贵广转债</t>
+  </si>
+  <si>
+    <t>2025-03-05</t>
+  </si>
+  <si>
+    <t>0.101</t>
+  </si>
+  <si>
+    <t>-1.13%</t>
+  </si>
+  <si>
+    <t>-52.90%</t>
+  </si>
+  <si>
+    <t>128066</t>
+  </si>
+  <si>
+    <t>亚泰转债</t>
+  </si>
+  <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
+    <t>0.219</t>
+  </si>
+  <si>
+    <t>-2.96%</t>
+  </si>
+  <si>
+    <t>-87.97%</t>
+  </si>
+  <si>
+    <t>113021</t>
+  </si>
+  <si>
+    <t>中信转债</t>
+  </si>
+  <si>
+    <t>2025-03-04</t>
+  </si>
+  <si>
+    <t>0.099</t>
+  </si>
+  <si>
+    <t>1.62%</t>
+  </si>
+  <si>
+    <t>-999%</t>
+  </si>
+  <si>
+    <t>127032</t>
+  </si>
+  <si>
+    <t>苏行转债</t>
+  </si>
+  <si>
+    <t>2027-04-12</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>1.48%</t>
   </si>
   <si>
     <t>113044</t>
@@ -128,334 +566,10 @@
     <t>大秦转债</t>
   </si>
   <si>
-    <t>AAA</t>
-  </si>
-  <si>
     <t>2026-12-14</t>
   </si>
   <si>
-    <t>1.945</t>
-  </si>
-  <si>
-    <t>0.64%</t>
-  </si>
-  <si>
-    <t>-4.33%</t>
-  </si>
-  <si>
-    <t>123237</t>
-  </si>
-  <si>
-    <t>佳禾转债</t>
-  </si>
-  <si>
-    <t>A+</t>
-  </si>
-  <si>
-    <t>2030-01-04</t>
-  </si>
-  <si>
-    <t>5.006</t>
-  </si>
-  <si>
-    <t>-3.15%</t>
-  </si>
-  <si>
-    <t>-4.43%</t>
-  </si>
-  <si>
-    <t>127076</t>
-  </si>
-  <si>
-    <t>中宠转2</t>
-  </si>
-  <si>
-    <t>2028-10-25</t>
-  </si>
-  <si>
-    <t>3.811</t>
-  </si>
-  <si>
-    <t>1.12%</t>
-  </si>
-  <si>
-    <t>-4.63%</t>
-  </si>
-  <si>
-    <t>127043</t>
-  </si>
-  <si>
-    <t>川恒转债</t>
-  </si>
-  <si>
-    <t>2027-08-12</t>
-  </si>
-  <si>
-    <t>2.606</t>
-  </si>
-  <si>
-    <t>-0.61%</t>
-  </si>
-  <si>
-    <t>-4.80%</t>
-  </si>
-  <si>
-    <t>113069</t>
-  </si>
-  <si>
-    <t>博23转债</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>2028-12-22</t>
-  </si>
-  <si>
-    <t>3.97</t>
-  </si>
-  <si>
-    <t>-0.55%</t>
-  </si>
-  <si>
-    <t>-4.99%</t>
-  </si>
-  <si>
-    <t>113631</t>
-  </si>
-  <si>
-    <t>皖天转债</t>
-  </si>
-  <si>
-    <t>AA+</t>
-  </si>
-  <si>
-    <t>2027-11-08</t>
-  </si>
-  <si>
-    <t>2.847</t>
-  </si>
-  <si>
-    <t>-0.02%</t>
-  </si>
-  <si>
-    <t>-6.24%</t>
-  </si>
-  <si>
-    <t>127032</t>
-  </si>
-  <si>
-    <t>苏行转债</t>
-  </si>
-  <si>
-    <t>2027-04-12</t>
-  </si>
-  <si>
-    <t>2.271</t>
-  </si>
-  <si>
-    <t>-0.13%</t>
-  </si>
-  <si>
-    <t>-6.66%</t>
-  </si>
-  <si>
-    <t>113050</t>
-  </si>
-  <si>
-    <t>南银转债</t>
-  </si>
-  <si>
-    <t>2027-06-15</t>
-  </si>
-  <si>
-    <t>2.447</t>
-  </si>
-  <si>
-    <t>-0.35%</t>
-  </si>
-  <si>
-    <t>-6.95%</t>
-  </si>
-  <si>
-    <t>110079</t>
-  </si>
-  <si>
-    <t>杭银转债</t>
-  </si>
-  <si>
-    <t>2027-03-29</t>
-  </si>
-  <si>
-    <t>2.233</t>
-  </si>
-  <si>
-    <t>-0.07%</t>
-  </si>
-  <si>
-    <t>-8.28%</t>
-  </si>
-  <si>
-    <t>127092</t>
-  </si>
-  <si>
-    <t>运机转债</t>
-  </si>
-  <si>
-    <t>2029-09-21</t>
-  </si>
-  <si>
-    <t>4.718</t>
-  </si>
-  <si>
-    <t>-1.96%</t>
-  </si>
-  <si>
-    <t>-8.39%</t>
-  </si>
-  <si>
-    <t>127084</t>
-  </si>
-  <si>
-    <t>柳工转2</t>
-  </si>
-  <si>
-    <t>2029-03-27</t>
-  </si>
-  <si>
-    <t>4.23</t>
-  </si>
-  <si>
-    <t>-1.04%</t>
-  </si>
-  <si>
-    <t>-10.50%</t>
-  </si>
-  <si>
-    <t>128081</t>
-  </si>
-  <si>
-    <t>海亮转债</t>
-  </si>
-  <si>
-    <t>2025-11-21</t>
-  </si>
-  <si>
-    <t>0.882</t>
-  </si>
-  <si>
-    <t>-0.11%</t>
-  </si>
-  <si>
-    <t>-11.58%</t>
-  </si>
-  <si>
-    <t>123127</t>
-  </si>
-  <si>
-    <t>耐普转债</t>
-  </si>
-  <si>
-    <t>2027-10-29</t>
-  </si>
-  <si>
-    <t>2.819</t>
-  </si>
-  <si>
-    <t>-2.96%</t>
-  </si>
-  <si>
-    <t>-11.69%</t>
-  </si>
-  <si>
-    <t>123241</t>
-  </si>
-  <si>
-    <t>欧通转债</t>
-  </si>
-  <si>
-    <t>2030-07-04</t>
-  </si>
-  <si>
-    <t>5.501</t>
-  </si>
-  <si>
-    <t>-11%</t>
-  </si>
-  <si>
-    <t>-12.21%</t>
-  </si>
-  <si>
-    <t>123213</t>
-  </si>
-  <si>
-    <t>天源转债</t>
-  </si>
-  <si>
-    <t>2029-07-28</t>
-  </si>
-  <si>
-    <t>4.567</t>
-  </si>
-  <si>
-    <t>-2.09%</t>
-  </si>
-  <si>
-    <t>-15.75%</t>
-  </si>
-  <si>
-    <t>113030</t>
-  </si>
-  <si>
-    <t>东风转债</t>
-  </si>
-  <si>
-    <t>2025-12-24</t>
-  </si>
-  <si>
-    <t>0.973</t>
-  </si>
-  <si>
-    <t>-2.17%</t>
-  </si>
-  <si>
-    <t>-16.66%</t>
-  </si>
-  <si>
-    <t>128109</t>
-  </si>
-  <si>
-    <t>楚江转债</t>
-  </si>
-  <si>
-    <t>2026-06-04</t>
-  </si>
-  <si>
-    <t>1.416</t>
-  </si>
-  <si>
-    <t>-0.01%</t>
-  </si>
-  <si>
-    <t>-18.98%</t>
-  </si>
-  <si>
-    <t>127037</t>
-  </si>
-  <si>
-    <t>银轮转债</t>
-  </si>
-  <si>
-    <t>2027-06-07</t>
-  </si>
-  <si>
-    <t>2.425</t>
-  </si>
-  <si>
-    <t>-0.94%</t>
-  </si>
-  <si>
-    <t>-21.10%</t>
+    <t>3.71%</t>
   </si>
   <si>
     <t>113546</t>
@@ -467,118 +581,7 @@
     <t>2025-10-23</t>
   </si>
   <si>
-    <t>0.803</t>
-  </si>
-  <si>
-    <t>5.47%</t>
-  </si>
-  <si>
-    <t>-25.87%</t>
-  </si>
-  <si>
-    <t>110077</t>
-  </si>
-  <si>
-    <t>洪城转债</t>
-  </si>
-  <si>
-    <t>2026-11-20</t>
-  </si>
-  <si>
-    <t>1.88</t>
-  </si>
-  <si>
-    <t>-0.78%</t>
-  </si>
-  <si>
-    <t>-63.87%</t>
-  </si>
-  <si>
-    <t>113021</t>
-  </si>
-  <si>
-    <t>中信转债</t>
-  </si>
-  <si>
-    <t>2025-03-04</t>
-  </si>
-  <si>
-    <t>0.164</t>
-  </si>
-  <si>
-    <t>-0.39%</t>
-  </si>
-  <si>
-    <t>-999%</t>
-  </si>
-  <si>
-    <t>123035</t>
-  </si>
-  <si>
-    <t>利德转债</t>
-  </si>
-  <si>
-    <t>2025-11-14</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>-6.04%</t>
-  </si>
-  <si>
-    <t>113055</t>
-  </si>
-  <si>
-    <t>成银转债</t>
-  </si>
-  <si>
-    <t>2028-03-03</t>
-  </si>
-  <si>
-    <t>-1.5%</t>
-  </si>
-  <si>
-    <t>123238</t>
-  </si>
-  <si>
-    <t>卡倍转02</t>
-  </si>
-  <si>
-    <t>2030-01-11</t>
-  </si>
-  <si>
-    <t>-1.31%</t>
-  </si>
-  <si>
-    <t>113576</t>
-  </si>
-  <si>
-    <t>起步转债</t>
-  </si>
-  <si>
-    <t>B-</t>
-  </si>
-  <si>
-    <t>2026-04-10</t>
-  </si>
-  <si>
-    <t>-6.13%</t>
-  </si>
-  <si>
-    <t>123163</t>
-  </si>
-  <si>
-    <t>金沃转债</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>2028-10-14</t>
-  </si>
-  <si>
-    <t>-10.68%</t>
+    <t>-4.61%</t>
   </si>
 </sst>
 </file>
@@ -959,7 +962,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>46.195</v>
+        <v>27.251</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -985,7 +988,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>73.2</v>
+        <v>73.29600000000001</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -1011,62 +1014,62 @@
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>127.06</v>
+        <v>129.497</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>130.925</v>
+        <v>131.09</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>116.685</v>
+        <v>136.422</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
         <v>38</v>
@@ -1089,7 +1092,7 @@
         <v>43</v>
       </c>
       <c r="D7" t="n">
-        <v>142.233</v>
+        <v>137.085</v>
       </c>
       <c r="E7" t="s">
         <v>44</v>
@@ -1115,7 +1118,7 @@
         <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>133.7</v>
+        <v>153.653</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -1141,7 +1144,7 @@
         <v>56</v>
       </c>
       <c r="D9" t="n">
-        <v>130.087</v>
+        <v>141.05</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -1167,7 +1170,7 @@
         <v>62</v>
       </c>
       <c r="D10" t="n">
-        <v>132.837</v>
+        <v>159.829</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
@@ -1193,7 +1196,7 @@
         <v>69</v>
       </c>
       <c r="D11" t="n">
-        <v>127.777</v>
+        <v>140.231</v>
       </c>
       <c r="E11" t="s">
         <v>70</v>
@@ -1219,10 +1222,10 @@
         <v>76</v>
       </c>
       <c r="D12" t="n">
-        <v>127.98</v>
+        <v>157.88</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -1245,388 +1248,388 @@
         <v>82</v>
       </c>
       <c r="D13" t="n">
-        <v>127.465</v>
+        <v>146.45</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>83</v>
-      </c>
-      <c r="G13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
         <v>86</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="n">
+        <v>129.678</v>
+      </c>
+      <c r="E14" t="s">
         <v>87</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F14" t="s">
         <v>88</v>
       </c>
-      <c r="D14" t="n">
-        <v>127.512</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>89</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>90</v>
-      </c>
-      <c r="H14" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
         <v>92</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>93</v>
       </c>
-      <c r="C15" t="s">
-        <v>94</v>
-      </c>
       <c r="D15" t="n">
-        <v>174.5</v>
+        <v>181.083</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" t="s">
         <v>95</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>96</v>
-      </c>
-      <c r="H15" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
         <v>98</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>99</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="n">
+        <v>129.906</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" t="s">
         <v>100</v>
       </c>
-      <c r="D16" t="n">
-        <v>163.88</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>101</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>102</v>
-      </c>
-      <c r="H16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>105</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="n">
+        <v>136.975</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
         <v>106</v>
       </c>
-      <c r="D17" t="n">
-        <v>119.023</v>
-      </c>
-      <c r="E17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>107</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>108</v>
-      </c>
-      <c r="H17" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
         <v>110</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>111</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="n">
+        <v>167.19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
         <v>112</v>
       </c>
-      <c r="D18" t="n">
-        <v>156.627</v>
-      </c>
-      <c r="E18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>113</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>114</v>
-      </c>
-      <c r="H18" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" t="s">
         <v>116</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>117</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
         <v>118</v>
       </c>
-      <c r="D19" t="n">
-        <v>221.598</v>
-      </c>
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>119</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>120</v>
-      </c>
-      <c r="H19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" t="s">
         <v>122</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>123</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="n">
+        <v>119.336</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
         <v>124</v>
       </c>
-      <c r="D20" t="n">
-        <v>204.227</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>125</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>126</v>
-      </c>
-      <c r="H20" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" t="s">
         <v>128</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>129</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="n">
+        <v>206.4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
         <v>130</v>
       </c>
-      <c r="D21" t="n">
-        <v>129.365</v>
-      </c>
-      <c r="E21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>131</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>132</v>
-      </c>
-      <c r="H21" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s">
         <v>134</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>135</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="n">
+        <v>218</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
         <v>136</v>
       </c>
-      <c r="D22" t="n">
-        <v>141.291</v>
-      </c>
-      <c r="E22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>137</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>138</v>
-      </c>
-      <c r="H22" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" t="s">
         <v>140</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>141</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="n">
+        <v>277.28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
         <v>142</v>
       </c>
-      <c r="D23" t="n">
-        <v>183.142</v>
-      </c>
-      <c r="E23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>143</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>144</v>
-      </c>
-      <c r="H23" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" t="s">
         <v>146</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>147</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="n">
+        <v>258.681</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
         <v>148</v>
       </c>
-      <c r="D24" t="n">
-        <v>134.749</v>
-      </c>
-      <c r="E24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>149</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>150</v>
-      </c>
-      <c r="H24" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" t="s">
         <v>152</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>153</v>
       </c>
-      <c r="C25" t="s">
-        <v>154</v>
-      </c>
       <c r="D25" t="n">
-        <v>190.954</v>
+        <v>193.854</v>
       </c>
       <c r="E25" t="s">
         <v>70</v>
       </c>
       <c r="F25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" t="s">
         <v>155</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>156</v>
-      </c>
-      <c r="H25" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" t="s">
         <v>158</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>159</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="n">
+        <v>116.195</v>
+      </c>
+      <c r="E26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" t="s">
         <v>160</v>
       </c>
-      <c r="D26" t="n">
-        <v>121.323</v>
-      </c>
-      <c r="E26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>161</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>162</v>
-      </c>
-      <c r="H26" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" t="s">
         <v>164</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>165</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="n">
+        <v>123.976</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
         <v>166</v>
       </c>
-      <c r="D27" t="n">
-        <v>137.786</v>
-      </c>
-      <c r="E27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>167</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>168</v>
-      </c>
-      <c r="H27" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s">
         <v>170</v>
@@ -1635,97 +1638,97 @@
         <v>171</v>
       </c>
       <c r="D28" t="n">
-        <v>134.556</v>
+        <v>118.824</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
         <v>172</v>
       </c>
       <c r="G28" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C29" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D29" t="n">
-        <v>149.888</v>
+        <v>127.95</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G29" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H29" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" t="n">
+        <v>116.593</v>
+      </c>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" t="s">
         <v>179</v>
       </c>
-      <c r="D30" t="n">
-        <v>137.169</v>
-      </c>
-      <c r="E30" t="s">
-        <v>180</v>
-      </c>
-      <c r="F30" t="s">
-        <v>181</v>
-      </c>
-      <c r="G30" t="s">
-        <v>168</v>
-      </c>
       <c r="H30" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C31" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D31" t="n">
-        <v>153</v>
+        <v>133.105</v>
       </c>
       <c r="E31" t="s">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G31" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
   <si>
     <t>到期税后收益率</t>
   </si>
@@ -41,7 +41,7 @@
     <t>涨跌幅</t>
   </si>
   <si>
-    <t>147.77%</t>
+    <t>84.81%</t>
   </si>
   <si>
     <t>404004</t>
@@ -56,73 +56,259 @@
     <t>2026-08-18</t>
   </si>
   <si>
-    <t>1.556</t>
-  </si>
-  <si>
-    <t>-40.39%</t>
-  </si>
-  <si>
-    <t>21.66%</t>
-  </si>
-  <si>
-    <t>127033</t>
-  </si>
-  <si>
-    <t>中装转2</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>2027-04-16</t>
-  </si>
-  <si>
-    <t>2.216</t>
-  </si>
-  <si>
-    <t>0.68%</t>
-  </si>
-  <si>
-    <t>-2.16%</t>
-  </si>
-  <si>
-    <t>123243</t>
-  </si>
-  <si>
-    <t>严牌转债</t>
+    <t>1.46</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>-1.73%</t>
+  </si>
+  <si>
+    <t>123200</t>
+  </si>
+  <si>
+    <t>海泰转债</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>2029-06-27</t>
+  </si>
+  <si>
+    <t>4.321</t>
+  </si>
+  <si>
+    <t>0.9%</t>
+  </si>
+  <si>
+    <t>-3.17%</t>
+  </si>
+  <si>
+    <t>127087</t>
+  </si>
+  <si>
+    <t>星帅转2</t>
   </si>
   <si>
     <t>A+</t>
   </si>
   <si>
-    <t>2030-07-10</t>
-  </si>
-  <si>
-    <t>5.452</t>
-  </si>
-  <si>
-    <t>-0.73%</t>
-  </si>
-  <si>
-    <t>-2.72%</t>
-  </si>
-  <si>
-    <t>113685</t>
-  </si>
-  <si>
-    <t>升24转债</t>
-  </si>
-  <si>
-    <t>2030-06-14</t>
-  </si>
-  <si>
-    <t>5.381</t>
-  </si>
-  <si>
-    <t>-2.57%</t>
-  </si>
-  <si>
-    <t>-3.28%</t>
+    <t>2029-06-14</t>
+  </si>
+  <si>
+    <t>4.285</t>
+  </si>
+  <si>
+    <t>0.06%</t>
+  </si>
+  <si>
+    <t>-3.53%</t>
+  </si>
+  <si>
+    <t>123227</t>
+  </si>
+  <si>
+    <t>雅创转债</t>
+  </si>
+  <si>
+    <t>2029-10-20</t>
+  </si>
+  <si>
+    <t>4.636</t>
+  </si>
+  <si>
+    <t>-2.75%</t>
+  </si>
+  <si>
+    <t>-3.62%</t>
+  </si>
+  <si>
+    <t>123174</t>
+  </si>
+  <si>
+    <t>精锻转债</t>
+  </si>
+  <si>
+    <t>2029-02-15</t>
+  </si>
+  <si>
+    <t>3.959</t>
+  </si>
+  <si>
+    <t>-1.69%</t>
+  </si>
+  <si>
+    <t>-4.30%</t>
+  </si>
+  <si>
+    <t>123190</t>
+  </si>
+  <si>
+    <t>道氏转02</t>
+  </si>
+  <si>
+    <t>2029-04-07</t>
+  </si>
+  <si>
+    <t>4.099</t>
+  </si>
+  <si>
+    <t>0.14%</t>
+  </si>
+  <si>
+    <t>-4.66%</t>
+  </si>
+  <si>
+    <t>123235</t>
+  </si>
+  <si>
+    <t>亿田转债</t>
+  </si>
+  <si>
+    <t>2029-12-21</t>
+  </si>
+  <si>
+    <t>4.806</t>
+  </si>
+  <si>
+    <t>-3.93%</t>
+  </si>
+  <si>
+    <t>-5.41%</t>
+  </si>
+  <si>
+    <t>118043</t>
+  </si>
+  <si>
+    <t>福立转债</t>
+  </si>
+  <si>
+    <t>2029-08-14</t>
+  </si>
+  <si>
+    <t>4.452</t>
+  </si>
+  <si>
+    <t>-1.02%</t>
+  </si>
+  <si>
+    <t>-5.43%</t>
+  </si>
+  <si>
+    <t>118028</t>
+  </si>
+  <si>
+    <t>会通转债</t>
+  </si>
+  <si>
+    <t>2028-12-06</t>
+  </si>
+  <si>
+    <t>3.764</t>
+  </si>
+  <si>
+    <t>-1.17%</t>
+  </si>
+  <si>
+    <t>-6.15%</t>
+  </si>
+  <si>
+    <t>123248</t>
+  </si>
+  <si>
+    <t>恒辉转债</t>
+  </si>
+  <si>
+    <t>2030-08-21</t>
+  </si>
+  <si>
+    <t>5.471</t>
+  </si>
+  <si>
+    <t>2.53%</t>
+  </si>
+  <si>
+    <t>-6.78%</t>
+  </si>
+  <si>
+    <t>113050</t>
+  </si>
+  <si>
+    <t>南银转债</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>2027-06-15</t>
+  </si>
+  <si>
+    <t>2.285</t>
+  </si>
+  <si>
+    <t>-0.37%</t>
+  </si>
+  <si>
+    <t>-6.99%</t>
+  </si>
+  <si>
+    <t>113651</t>
+  </si>
+  <si>
+    <t>松霖转债</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>2028-07-20</t>
+  </si>
+  <si>
+    <t>3.384</t>
+  </si>
+  <si>
+    <t>1.31%</t>
+  </si>
+  <si>
+    <t>-7.64%</t>
+  </si>
+  <si>
+    <t>127091</t>
+  </si>
+  <si>
+    <t>科数转债</t>
+  </si>
+  <si>
+    <t>2029-08-23</t>
+  </si>
+  <si>
+    <t>4.477</t>
+  </si>
+  <si>
+    <t>0.57%</t>
+  </si>
+  <si>
+    <t>-7.86%</t>
+  </si>
+  <si>
+    <t>110079</t>
+  </si>
+  <si>
+    <t>杭银转债</t>
+  </si>
+  <si>
+    <t>2027-03-29</t>
+  </si>
+  <si>
+    <t>2.071</t>
+  </si>
+  <si>
+    <t>0.23%</t>
+  </si>
+  <si>
+    <t>-8.58%</t>
   </si>
   <si>
     <t>123239</t>
@@ -134,70 +320,31 @@
     <t>2030-01-18</t>
   </si>
   <si>
-    <t>4.978</t>
-  </si>
-  <si>
-    <t>-0.68%</t>
-  </si>
-  <si>
-    <t>-3.87%</t>
-  </si>
-  <si>
-    <t>123187</t>
-  </si>
-  <si>
-    <t>超达转债</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>2029-04-04</t>
-  </si>
-  <si>
-    <t>4.186</t>
-  </si>
-  <si>
-    <t>0.2%</t>
-  </si>
-  <si>
-    <t>-5.62%</t>
-  </si>
-  <si>
-    <t>113684</t>
-  </si>
-  <si>
-    <t>湘泵转债</t>
-  </si>
-  <si>
-    <t>2030-04-01</t>
-  </si>
-  <si>
-    <t>5.178</t>
-  </si>
-  <si>
-    <t>-4.19%</t>
-  </si>
-  <si>
-    <t>-5.88%</t>
-  </si>
-  <si>
-    <t>127076</t>
-  </si>
-  <si>
-    <t>中宠转2</t>
-  </si>
-  <si>
-    <t>2028-10-25</t>
-  </si>
-  <si>
-    <t>3.745</t>
-  </si>
-  <si>
-    <t>0.6%</t>
-  </si>
-  <si>
-    <t>-6.07%</t>
+    <t>4.882</t>
+  </si>
+  <si>
+    <t>-0.58%</t>
+  </si>
+  <si>
+    <t>-8.70%</t>
+  </si>
+  <si>
+    <t>127055</t>
+  </si>
+  <si>
+    <t>精装转债</t>
+  </si>
+  <si>
+    <t>2028-02-22</t>
+  </si>
+  <si>
+    <t>2.975</t>
+  </si>
+  <si>
+    <t>3.56%</t>
+  </si>
+  <si>
+    <t>-10.65%</t>
   </si>
   <si>
     <t>123249</t>
@@ -206,19 +353,217 @@
     <t>英搏转债</t>
   </si>
   <si>
-    <t>AA</t>
-  </si>
-  <si>
     <t>2030-10-24</t>
   </si>
   <si>
-    <t>5.743</t>
-  </si>
-  <si>
-    <t>-1.8%</t>
-  </si>
-  <si>
-    <t>-6.58%</t>
+    <t>5.647</t>
+  </si>
+  <si>
+    <t>2.93%</t>
+  </si>
+  <si>
+    <t>-12.51%</t>
+  </si>
+  <si>
+    <t>123191</t>
+  </si>
+  <si>
+    <t>智尚转债</t>
+  </si>
+  <si>
+    <t>2029-04-10</t>
+  </si>
+  <si>
+    <t>4.107</t>
+  </si>
+  <si>
+    <t>1.87%</t>
+  </si>
+  <si>
+    <t>-17.01%</t>
+  </si>
+  <si>
+    <t>113569</t>
+  </si>
+  <si>
+    <t>科达转债</t>
+  </si>
+  <si>
+    <t>2026-03-09</t>
+  </si>
+  <si>
+    <t>1.016</t>
+  </si>
+  <si>
+    <t>-8.2%</t>
+  </si>
+  <si>
+    <t>-39.58%</t>
+  </si>
+  <si>
+    <t>113532</t>
+  </si>
+  <si>
+    <t>海环转债</t>
+  </si>
+  <si>
+    <t>AA+</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>0.082</t>
+  </si>
+  <si>
+    <t>-1.15%</t>
+  </si>
+  <si>
+    <t>-40.73%</t>
+  </si>
+  <si>
+    <t>128072</t>
+  </si>
+  <si>
+    <t>翔鹭转债</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>2025-08-20</t>
+  </si>
+  <si>
+    <t>0.466</t>
+  </si>
+  <si>
+    <t>1.14%</t>
+  </si>
+  <si>
+    <t>-59.42%</t>
+  </si>
+  <si>
+    <t>110060</t>
+  </si>
+  <si>
+    <t>天路转债</t>
+  </si>
+  <si>
+    <t>2025-10-28</t>
+  </si>
+  <si>
+    <t>0.655</t>
+  </si>
+  <si>
+    <t>-0.27%</t>
+  </si>
+  <si>
+    <t>-81.36%</t>
+  </si>
+  <si>
+    <t>113530</t>
+  </si>
+  <si>
+    <t>大丰转债</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>0.066</t>
+  </si>
+  <si>
+    <t>-0.06%</t>
+  </si>
+  <si>
+    <t>-102.20%</t>
+  </si>
+  <si>
+    <t>128066</t>
+  </si>
+  <si>
+    <t>亚泰转债</t>
+  </si>
+  <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
+    <t>0.123</t>
+  </si>
+  <si>
+    <t>-3.31%</t>
+  </si>
+  <si>
+    <t>-131.09%</t>
+  </si>
+  <si>
+    <t>123022</t>
+  </si>
+  <si>
+    <t>长信转债</t>
+  </si>
+  <si>
+    <t>2025-03-18</t>
+  </si>
+  <si>
+    <t>0.041</t>
+  </si>
+  <si>
+    <t>-0.44%</t>
+  </si>
+  <si>
+    <t>-240.81%</t>
+  </si>
+  <si>
+    <t>123025</t>
+  </si>
+  <si>
+    <t>精测转债</t>
+  </si>
+  <si>
+    <t>2025-03-29</t>
+  </si>
+  <si>
+    <t>0.071</t>
+  </si>
+  <si>
+    <t>-999%</t>
+  </si>
+  <si>
+    <t>123226</t>
+  </si>
+  <si>
+    <t>中富转债</t>
+  </si>
+  <si>
+    <t>2029-10-17</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>-9.05%</t>
+  </si>
+  <si>
+    <t>123067</t>
+  </si>
+  <si>
+    <t>斯莱转债</t>
+  </si>
+  <si>
+    <t>2026-09-17</t>
+  </si>
+  <si>
+    <t>1.08%</t>
+  </si>
+  <si>
+    <t>127100</t>
+  </si>
+  <si>
+    <t>神码转债</t>
+  </si>
+  <si>
+    <t>-1.49%</t>
   </si>
   <si>
     <t>113061</t>
@@ -227,361 +572,10 @@
     <t>拓普转债</t>
   </si>
   <si>
-    <t>AA+</t>
-  </si>
-  <si>
     <t>2028-07-14</t>
   </si>
   <si>
-    <t>3.463</t>
-  </si>
-  <si>
-    <t>-1.23%</t>
-  </si>
-  <si>
-    <t>-6.59%</t>
-  </si>
-  <si>
-    <t>123222</t>
-  </si>
-  <si>
-    <t>博俊转债</t>
-  </si>
-  <si>
-    <t>2029-09-08</t>
-  </si>
-  <si>
-    <t>4.616</t>
-  </si>
-  <si>
-    <t>-2.34%</t>
-  </si>
-  <si>
-    <t>-6.66%</t>
-  </si>
-  <si>
-    <t>113669</t>
-  </si>
-  <si>
-    <t>景23转债</t>
-  </si>
-  <si>
-    <t>-3.66%</t>
-  </si>
-  <si>
-    <t>-7.52%</t>
-  </si>
-  <si>
-    <t>113050</t>
-  </si>
-  <si>
-    <t>南银转债</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>2027-06-15</t>
-  </si>
-  <si>
-    <t>2.381</t>
-  </si>
-  <si>
-    <t>0.31%</t>
-  </si>
-  <si>
-    <t>-7.80%</t>
-  </si>
-  <si>
-    <t>113690</t>
-  </si>
-  <si>
-    <t>豪24转债</t>
-  </si>
-  <si>
-    <t>2030-10-22</t>
-  </si>
-  <si>
-    <t>5.737</t>
-  </si>
-  <si>
-    <t>0.03%</t>
-  </si>
-  <si>
-    <t>-7.96%</t>
-  </si>
-  <si>
-    <t>110079</t>
-  </si>
-  <si>
-    <t>杭银转债</t>
-  </si>
-  <si>
-    <t>2027-03-29</t>
-  </si>
-  <si>
-    <t>2.167</t>
-  </si>
-  <si>
-    <t>0.56%</t>
-  </si>
-  <si>
-    <t>-9.08%</t>
-  </si>
-  <si>
-    <t>128143</t>
-  </si>
-  <si>
-    <t>锋龙转债</t>
-  </si>
-  <si>
-    <t>2027-01-08</t>
-  </si>
-  <si>
-    <t>1.948</t>
-  </si>
-  <si>
-    <t>-1.92%</t>
-  </si>
-  <si>
-    <t>-9.09%</t>
-  </si>
-  <si>
-    <t>111011</t>
-  </si>
-  <si>
-    <t>冠盛转债</t>
-  </si>
-  <si>
-    <t>2029-01-03</t>
-  </si>
-  <si>
-    <t>3.937</t>
-  </si>
-  <si>
-    <t>-1.55%</t>
-  </si>
-  <si>
-    <t>-10.60%</t>
-  </si>
-  <si>
-    <t>123127</t>
-  </si>
-  <si>
-    <t>耐普转债</t>
-  </si>
-  <si>
-    <t>2027-10-29</t>
-  </si>
-  <si>
-    <t>2.753</t>
-  </si>
-  <si>
-    <t>-3.48%</t>
-  </si>
-  <si>
-    <t>-11.64%</t>
-  </si>
-  <si>
-    <t>128081</t>
-  </si>
-  <si>
-    <t>海亮转债</t>
-  </si>
-  <si>
-    <t>2025-11-21</t>
-  </si>
-  <si>
-    <t>0.816</t>
-  </si>
-  <si>
-    <t>-0.8%</t>
-  </si>
-  <si>
-    <t>-12.59%</t>
-  </si>
-  <si>
-    <t>123213</t>
-  </si>
-  <si>
-    <t>天源转债</t>
-  </si>
-  <si>
-    <t>2029-07-28</t>
-  </si>
-  <si>
-    <t>4.501</t>
-  </si>
-  <si>
-    <t>-1.99%</t>
-  </si>
-  <si>
-    <t>-12.66%</t>
-  </si>
-  <si>
-    <t>123228</t>
-  </si>
-  <si>
-    <t>震裕转债</t>
-  </si>
-  <si>
-    <t>2029-10-20</t>
-  </si>
-  <si>
-    <t>4.732</t>
-  </si>
-  <si>
-    <t>-2.2%</t>
-  </si>
-  <si>
-    <t>-15.41%</t>
-  </si>
-  <si>
-    <t>123241</t>
-  </si>
-  <si>
-    <t>欧通转债</t>
-  </si>
-  <si>
-    <t>2030-07-05</t>
-  </si>
-  <si>
-    <t>5.438</t>
-  </si>
-  <si>
-    <t>-4.29%</t>
-  </si>
-  <si>
-    <t>-18.59%</t>
-  </si>
-  <si>
-    <t>111012</t>
-  </si>
-  <si>
-    <t>福新转债</t>
-  </si>
-  <si>
-    <t>2029-01-04</t>
-  </si>
-  <si>
-    <t>3.94</t>
-  </si>
-  <si>
-    <t>-1.88%</t>
-  </si>
-  <si>
-    <t>-27.28%</t>
-  </si>
-  <si>
-    <t>110077</t>
-  </si>
-  <si>
-    <t>洪城转债</t>
-  </si>
-  <si>
-    <t>2026-11-20</t>
-  </si>
-  <si>
-    <t>1.814</t>
-  </si>
-  <si>
-    <t>0.74%</t>
-  </si>
-  <si>
-    <t>-49.18%</t>
-  </si>
-  <si>
-    <t>110052</t>
-  </si>
-  <si>
-    <t>贵广转债</t>
-  </si>
-  <si>
-    <t>2025-03-05</t>
-  </si>
-  <si>
-    <t>0.101</t>
-  </si>
-  <si>
-    <t>-1.13%</t>
-  </si>
-  <si>
-    <t>-52.90%</t>
-  </si>
-  <si>
-    <t>128066</t>
-  </si>
-  <si>
-    <t>亚泰转债</t>
-  </si>
-  <si>
-    <t>2025-04-17</t>
-  </si>
-  <si>
-    <t>0.219</t>
-  </si>
-  <si>
-    <t>-2.96%</t>
-  </si>
-  <si>
-    <t>-87.97%</t>
-  </si>
-  <si>
-    <t>113021</t>
-  </si>
-  <si>
-    <t>中信转债</t>
-  </si>
-  <si>
-    <t>2025-03-04</t>
-  </si>
-  <si>
-    <t>0.099</t>
-  </si>
-  <si>
-    <t>1.62%</t>
-  </si>
-  <si>
-    <t>-999%</t>
-  </si>
-  <si>
-    <t>127032</t>
-  </si>
-  <si>
-    <t>苏行转债</t>
-  </si>
-  <si>
-    <t>2027-04-12</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>1.48%</t>
-  </si>
-  <si>
-    <t>113044</t>
-  </si>
-  <si>
-    <t>大秦转债</t>
-  </si>
-  <si>
-    <t>2026-12-14</t>
-  </si>
-  <si>
-    <t>3.71%</t>
-  </si>
-  <si>
-    <t>113546</t>
-  </si>
-  <si>
-    <t>迪贝转债</t>
-  </si>
-  <si>
-    <t>2025-10-23</t>
-  </si>
-  <si>
-    <t>-4.61%</t>
+    <t>-1.29%</t>
   </si>
 </sst>
 </file>
@@ -962,7 +956,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>27.251</v>
+        <v>45.21</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -988,7 +982,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>73.29600000000001</v>
+        <v>128.347</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -1014,7 +1008,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>129.497</v>
+        <v>133.3</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
@@ -1040,10 +1034,10 @@
         <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>131.09</v>
+        <v>137.128</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -1066,10 +1060,10 @@
         <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>136.422</v>
+        <v>133.501</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>38</v>
@@ -1092,192 +1086,192 @@
         <v>43</v>
       </c>
       <c r="D7" t="n">
-        <v>137.085</v>
+        <v>138.49</v>
       </c>
       <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>45</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>49</v>
       </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
       <c r="D8" t="n">
-        <v>153.653</v>
+        <v>145.4</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>52</v>
-      </c>
-      <c r="H8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
         <v>54</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>55</v>
       </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
       <c r="D9" t="n">
-        <v>141.05</v>
+        <v>147.849</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
         <v>57</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>58</v>
-      </c>
-      <c r="H9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>61</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="n">
+        <v>142.204</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>62</v>
       </c>
-      <c r="D10" t="n">
-        <v>159.829</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>63</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>64</v>
-      </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
         <v>67</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="n">
+        <v>159.6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>68</v>
       </c>
-      <c r="C11" t="s">
+      <c r="G11" t="s">
         <v>69</v>
       </c>
-      <c r="D11" t="n">
-        <v>140.231</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="n">
+        <v>126.42</v>
+      </c>
+      <c r="E12" t="s">
         <v>74</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F12" t="s">
         <v>75</v>
       </c>
-      <c r="C12" t="s">
+      <c r="G12" t="s">
         <v>76</v>
       </c>
-      <c r="D12" t="n">
-        <v>157.88</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>77</v>
-      </c>
-      <c r="G12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
         <v>80</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="n">
+        <v>143.866</v>
+      </c>
+      <c r="E13" t="s">
         <v>81</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
         <v>82</v>
       </c>
-      <c r="D13" t="n">
-        <v>146.45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" t="n">
-        <v>129.678</v>
+        <v>159.9</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
         <v>88</v>
@@ -1300,10 +1294,10 @@
         <v>93</v>
       </c>
       <c r="D15" t="n">
-        <v>181.083</v>
+        <v>128.597</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
         <v>94</v>
@@ -1326,10 +1320,10 @@
         <v>99</v>
       </c>
       <c r="D16" t="n">
-        <v>129.906</v>
+        <v>178.458</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -1352,10 +1346,10 @@
         <v>105</v>
       </c>
       <c r="D17" t="n">
-        <v>136.975</v>
+        <v>150</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
         <v>106</v>
@@ -1378,10 +1372,10 @@
         <v>111</v>
       </c>
       <c r="D18" t="n">
-        <v>167.19</v>
+        <v>209.967</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
         <v>112</v>
@@ -1404,10 +1398,10 @@
         <v>117</v>
       </c>
       <c r="D19" t="n">
-        <v>150.8</v>
+        <v>194.36</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
         <v>118</v>
@@ -1430,10 +1424,10 @@
         <v>123</v>
       </c>
       <c r="D20" t="n">
-        <v>119.336</v>
+        <v>136.971</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -1456,206 +1450,206 @@
         <v>129</v>
       </c>
       <c r="D21" t="n">
-        <v>206.4</v>
+        <v>109.857</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D22" t="n">
-        <v>218</v>
+        <v>133.1</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="F22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D23" t="n">
-        <v>277.28</v>
+        <v>176.313</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D24" t="n">
-        <v>258.681</v>
+        <v>118.894</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D25" t="n">
-        <v>193.854</v>
+        <v>125.403</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H25" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D26" t="n">
-        <v>116.195</v>
+        <v>114.15</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C27" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D27" t="n">
-        <v>123.976</v>
+        <v>131.25</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H27" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D28" t="n">
-        <v>118.824</v>
+        <v>126.791</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s">
         <v>176</v>
@@ -1664,71 +1658,71 @@
         <v>177</v>
       </c>
       <c r="D29" t="n">
-        <v>127.95</v>
+        <v>168.2</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
         <v>178</v>
       </c>
       <c r="G29" t="s">
+        <v>174</v>
+      </c>
+      <c r="H29" t="s">
         <v>179</v>
-      </c>
-      <c r="H29" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" t="s">
         <v>181</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H30" t="s">
         <v>182</v>
-      </c>
-      <c r="D30" t="n">
-        <v>116.593</v>
-      </c>
-      <c r="E30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" t="s">
-        <v>183</v>
-      </c>
-      <c r="G30" t="s">
-        <v>179</v>
-      </c>
-      <c r="H30" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" t="n">
+        <v>128.944</v>
+      </c>
+      <c r="E31" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" t="s">
         <v>185</v>
       </c>
-      <c r="C31" t="s">
+      <c r="G31" t="s">
+        <v>174</v>
+      </c>
+      <c r="H31" t="s">
         <v>186</v>
-      </c>
-      <c r="D31" t="n">
-        <v>133.105</v>
-      </c>
-      <c r="E31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" t="s">
-        <v>187</v>
-      </c>
-      <c r="G31" t="s">
-        <v>179</v>
-      </c>
-      <c r="H31" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
   <si>
     <t>到期税后收益率</t>
   </si>
@@ -41,7 +41,7 @@
     <t>涨跌幅</t>
   </si>
   <si>
-    <t>84.81%</t>
+    <t>86.77%</t>
   </si>
   <si>
     <t>404004</t>
@@ -56,91 +56,481 @@
     <t>2026-08-18</t>
   </si>
   <si>
-    <t>1.46</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>-1.73%</t>
-  </si>
-  <si>
-    <t>123200</t>
-  </si>
-  <si>
-    <t>海泰转债</t>
+    <t>1.375</t>
+  </si>
+  <si>
+    <t>-6.1%</t>
+  </si>
+  <si>
+    <t>-2.25%</t>
+  </si>
+  <si>
+    <t>123243</t>
+  </si>
+  <si>
+    <t>严牌转债</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>2030-07-10</t>
+  </si>
+  <si>
+    <t>5.271</t>
+  </si>
+  <si>
+    <t>-0.07%</t>
+  </si>
+  <si>
+    <t>-3.15%</t>
+  </si>
+  <si>
+    <t>118046</t>
+  </si>
+  <si>
+    <t>诺泰转债</t>
+  </si>
+  <si>
+    <t>2029-12-15</t>
+  </si>
+  <si>
+    <t>4.704</t>
+  </si>
+  <si>
+    <t>-12.55%</t>
+  </si>
+  <si>
+    <t>-5.68%</t>
+  </si>
+  <si>
+    <t>127053</t>
+  </si>
+  <si>
+    <t>豪美转债</t>
+  </si>
+  <si>
+    <t>2028-01-24</t>
+  </si>
+  <si>
+    <t>2.811</t>
+  </si>
+  <si>
+    <t>-0.36%</t>
+  </si>
+  <si>
+    <t>-7.47%</t>
+  </si>
+  <si>
+    <t>113050</t>
+  </si>
+  <si>
+    <t>南银转债</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>2027-06-15</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>0.11%</t>
+  </si>
+  <si>
+    <t>-8.30%</t>
+  </si>
+  <si>
+    <t>127092</t>
+  </si>
+  <si>
+    <t>运机转债</t>
+  </si>
+  <si>
+    <t>2029-09-21</t>
+  </si>
+  <si>
+    <t>4.471</t>
+  </si>
+  <si>
+    <t>-4.58%</t>
+  </si>
+  <si>
+    <t>-8.56%</t>
+  </si>
+  <si>
+    <t>123249</t>
+  </si>
+  <si>
+    <t>英搏转债</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>2030-10-24</t>
+  </si>
+  <si>
+    <t>5.562</t>
+  </si>
+  <si>
+    <t>-4.59%</t>
+  </si>
+  <si>
+    <t>-8.65%</t>
+  </si>
+  <si>
+    <t>110079</t>
+  </si>
+  <si>
+    <t>杭银转债</t>
+  </si>
+  <si>
+    <t>2027-03-29</t>
+  </si>
+  <si>
+    <t>1.986</t>
+  </si>
+  <si>
+    <t>-0.27%</t>
+  </si>
+  <si>
+    <t>-9.47%</t>
+  </si>
+  <si>
+    <t>128144</t>
+  </si>
+  <si>
+    <t>利民转债</t>
+  </si>
+  <si>
+    <t>2027-03-01</t>
+  </si>
+  <si>
+    <t>1.91</t>
+  </si>
+  <si>
+    <t>0.65%</t>
+  </si>
+  <si>
+    <t>-9.48%</t>
+  </si>
+  <si>
+    <t>113690</t>
+  </si>
+  <si>
+    <t>豪24转债</t>
+  </si>
+  <si>
+    <t>2030-10-22</t>
+  </si>
+  <si>
+    <t>5.556</t>
+  </si>
+  <si>
+    <t>-0.89%</t>
+  </si>
+  <si>
+    <t>-9.71%</t>
+  </si>
+  <si>
+    <t>128141</t>
+  </si>
+  <si>
+    <t>旺能转债</t>
+  </si>
+  <si>
+    <t>2026-12-17</t>
+  </si>
+  <si>
+    <t>1.707</t>
+  </si>
+  <si>
+    <t>-0.66%</t>
+  </si>
+  <si>
+    <t>-10.34%</t>
+  </si>
+  <si>
+    <t>127055</t>
+  </si>
+  <si>
+    <t>精装转债</t>
+  </si>
+  <si>
+    <t>2028-02-22</t>
+  </si>
+  <si>
+    <t>2.89</t>
+  </si>
+  <si>
+    <t>1.82%</t>
+  </si>
+  <si>
+    <t>-11.39%</t>
+  </si>
+  <si>
+    <t>128117</t>
+  </si>
+  <si>
+    <t>道恩转债</t>
+  </si>
+  <si>
+    <t>2026-07-02</t>
+  </si>
+  <si>
+    <t>1.247</t>
+  </si>
+  <si>
+    <t>-6.38%</t>
+  </si>
+  <si>
+    <t>-13.32%</t>
+  </si>
+  <si>
+    <t>118016</t>
+  </si>
+  <si>
+    <t>京源转债</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>2029-06-27</t>
+    <t>2028-08-05</t>
+  </si>
+  <si>
+    <t>3.343</t>
+  </si>
+  <si>
+    <t>-3.84%</t>
+  </si>
+  <si>
+    <t>-13.94%</t>
+  </si>
+  <si>
+    <t>111011</t>
+  </si>
+  <si>
+    <t>冠盛转债</t>
+  </si>
+  <si>
+    <t>2029-01-03</t>
+  </si>
+  <si>
+    <t>3.756</t>
+  </si>
+  <si>
+    <t>-10.79%</t>
+  </si>
+  <si>
+    <t>-14.79%</t>
+  </si>
+  <si>
+    <t>123241</t>
+  </si>
+  <si>
+    <t>欧通转债</t>
+  </si>
+  <si>
+    <t>2030-07-05</t>
+  </si>
+  <si>
+    <t>5.258</t>
+  </si>
+  <si>
+    <t>-5.71%</t>
+  </si>
+  <si>
+    <t>-15.39%</t>
+  </si>
+  <si>
+    <t>123213</t>
+  </si>
+  <si>
+    <t>天源转债</t>
+  </si>
+  <si>
+    <t>2029-07-28</t>
   </si>
   <si>
     <t>4.321</t>
   </si>
   <si>
-    <t>0.9%</t>
-  </si>
-  <si>
-    <t>-3.17%</t>
+    <t>-0.77%</t>
+  </si>
+  <si>
+    <t>-22.54%</t>
+  </si>
+  <si>
+    <t>123132</t>
+  </si>
+  <si>
+    <t>回盛转债</t>
+  </si>
+  <si>
+    <t>2027-12-17</t>
+  </si>
+  <si>
+    <t>2.707</t>
+  </si>
+  <si>
+    <t>18.38%</t>
+  </si>
+  <si>
+    <t>-24.13%</t>
+  </si>
+  <si>
+    <t>111012</t>
+  </si>
+  <si>
+    <t>福新转债</t>
+  </si>
+  <si>
+    <t>2029-01-04</t>
+  </si>
+  <si>
+    <t>3.759</t>
+  </si>
+  <si>
+    <t>-3.07%</t>
+  </si>
+  <si>
+    <t>-31.57%</t>
+  </si>
+  <si>
+    <t>113582</t>
+  </si>
+  <si>
+    <t>火炬转债</t>
+  </si>
+  <si>
+    <t>2026-05-27</t>
+  </si>
+  <si>
+    <t>1.148</t>
+  </si>
+  <si>
+    <t>0.59%</t>
+  </si>
+  <si>
+    <t>-38.65%</t>
+  </si>
+  <si>
+    <t>110074</t>
+  </si>
+  <si>
+    <t>精达转债</t>
+  </si>
+  <si>
+    <t>2026-08-19</t>
+  </si>
+  <si>
+    <t>1.378</t>
+  </si>
+  <si>
+    <t>-3%</t>
+  </si>
+  <si>
+    <t>-99.79%</t>
+  </si>
+  <si>
+    <t>128066</t>
+  </si>
+  <si>
+    <t>亚泰转债</t>
+  </si>
+  <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
+    <t>0.038</t>
+  </si>
+  <si>
+    <t>-0.38%</t>
+  </si>
+  <si>
+    <t>-999%</t>
+  </si>
+  <si>
+    <t>123226</t>
+  </si>
+  <si>
+    <t>中富转债</t>
+  </si>
+  <si>
+    <t>2029-10-17</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>-4.52%</t>
+  </si>
+  <si>
+    <t>123152</t>
+  </si>
+  <si>
+    <t>润禾转债</t>
+  </si>
+  <si>
+    <t>2028-07-21</t>
+  </si>
+  <si>
+    <t>-7.16%</t>
+  </si>
+  <si>
+    <t>128072</t>
+  </si>
+  <si>
+    <t>翔鹭转债</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>2025-08-20</t>
+  </si>
+  <si>
+    <t>-1.11%</t>
+  </si>
+  <si>
+    <t>127091</t>
+  </si>
+  <si>
+    <t>科数转债</t>
+  </si>
+  <si>
+    <t>2029-08-23</t>
+  </si>
+  <si>
+    <t>-2.55%</t>
+  </si>
+  <si>
+    <t>123228</t>
+  </si>
+  <si>
+    <t>震裕转债</t>
+  </si>
+  <si>
+    <t>2029-10-20</t>
+  </si>
+  <si>
+    <t>-1.72%</t>
   </si>
   <si>
     <t>127087</t>
   </si>
   <si>
-    <t>星帅转2</t>
-  </si>
-  <si>
-    <t>A+</t>
+    <t>Z帅转2</t>
   </si>
   <si>
     <t>2029-06-14</t>
   </si>
   <si>
-    <t>4.285</t>
-  </si>
-  <si>
-    <t>0.06%</t>
-  </si>
-  <si>
-    <t>-3.53%</t>
-  </si>
-  <si>
-    <t>123227</t>
-  </si>
-  <si>
-    <t>雅创转债</t>
-  </si>
-  <si>
-    <t>2029-10-20</t>
-  </si>
-  <si>
-    <t>4.636</t>
-  </si>
-  <si>
-    <t>-2.75%</t>
-  </si>
-  <si>
-    <t>-3.62%</t>
-  </si>
-  <si>
-    <t>123174</t>
-  </si>
-  <si>
-    <t>精锻转债</t>
-  </si>
-  <si>
-    <t>2029-02-15</t>
-  </si>
-  <si>
-    <t>3.959</t>
-  </si>
-  <si>
-    <t>-1.69%</t>
-  </si>
-  <si>
-    <t>-4.30%</t>
+    <t>-4.26%</t>
   </si>
   <si>
     <t>123190</t>
@@ -152,430 +542,19 @@
     <t>2029-04-07</t>
   </si>
   <si>
-    <t>4.099</t>
-  </si>
-  <si>
-    <t>0.14%</t>
-  </si>
-  <si>
-    <t>-4.66%</t>
-  </si>
-  <si>
-    <t>123235</t>
-  </si>
-  <si>
-    <t>亿田转债</t>
-  </si>
-  <si>
-    <t>2029-12-21</t>
-  </si>
-  <si>
-    <t>4.806</t>
-  </si>
-  <si>
-    <t>-3.93%</t>
-  </si>
-  <si>
-    <t>-5.41%</t>
-  </si>
-  <si>
-    <t>118043</t>
-  </si>
-  <si>
-    <t>福立转债</t>
-  </si>
-  <si>
-    <t>2029-08-14</t>
-  </si>
-  <si>
-    <t>4.452</t>
-  </si>
-  <si>
-    <t>-1.02%</t>
-  </si>
-  <si>
-    <t>-5.43%</t>
-  </si>
-  <si>
-    <t>118028</t>
-  </si>
-  <si>
-    <t>会通转债</t>
-  </si>
-  <si>
-    <t>2028-12-06</t>
-  </si>
-  <si>
-    <t>3.764</t>
-  </si>
-  <si>
-    <t>-1.17%</t>
-  </si>
-  <si>
-    <t>-6.15%</t>
-  </si>
-  <si>
-    <t>123248</t>
-  </si>
-  <si>
-    <t>恒辉转债</t>
-  </si>
-  <si>
-    <t>2030-08-21</t>
-  </si>
-  <si>
-    <t>5.471</t>
-  </si>
-  <si>
-    <t>2.53%</t>
-  </si>
-  <si>
-    <t>-6.78%</t>
-  </si>
-  <si>
-    <t>113050</t>
-  </si>
-  <si>
-    <t>南银转债</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>2027-06-15</t>
-  </si>
-  <si>
-    <t>2.285</t>
-  </si>
-  <si>
-    <t>-0.37%</t>
-  </si>
-  <si>
-    <t>-6.99%</t>
-  </si>
-  <si>
-    <t>113651</t>
-  </si>
-  <si>
-    <t>松霖转债</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>2028-07-20</t>
-  </si>
-  <si>
-    <t>3.384</t>
-  </si>
-  <si>
-    <t>1.31%</t>
-  </si>
-  <si>
-    <t>-7.64%</t>
-  </si>
-  <si>
-    <t>127091</t>
-  </si>
-  <si>
-    <t>科数转债</t>
-  </si>
-  <si>
-    <t>2029-08-23</t>
-  </si>
-  <si>
-    <t>4.477</t>
-  </si>
-  <si>
-    <t>0.57%</t>
-  </si>
-  <si>
-    <t>-7.86%</t>
-  </si>
-  <si>
-    <t>110079</t>
-  </si>
-  <si>
-    <t>杭银转债</t>
-  </si>
-  <si>
-    <t>2027-03-29</t>
-  </si>
-  <si>
-    <t>2.071</t>
-  </si>
-  <si>
-    <t>0.23%</t>
-  </si>
-  <si>
-    <t>-8.58%</t>
-  </si>
-  <si>
-    <t>123239</t>
-  </si>
-  <si>
-    <t>锋工转债</t>
-  </si>
-  <si>
-    <t>2030-01-18</t>
-  </si>
-  <si>
-    <t>4.882</t>
-  </si>
-  <si>
-    <t>-0.58%</t>
-  </si>
-  <si>
-    <t>-8.70%</t>
-  </si>
-  <si>
-    <t>127055</t>
-  </si>
-  <si>
-    <t>精装转债</t>
-  </si>
-  <si>
-    <t>2028-02-22</t>
-  </si>
-  <si>
-    <t>2.975</t>
-  </si>
-  <si>
-    <t>3.56%</t>
-  </si>
-  <si>
-    <t>-10.65%</t>
-  </si>
-  <si>
-    <t>123249</t>
-  </si>
-  <si>
-    <t>英搏转债</t>
-  </si>
-  <si>
-    <t>2030-10-24</t>
-  </si>
-  <si>
-    <t>5.647</t>
-  </si>
-  <si>
-    <t>2.93%</t>
-  </si>
-  <si>
-    <t>-12.51%</t>
-  </si>
-  <si>
-    <t>123191</t>
-  </si>
-  <si>
-    <t>智尚转债</t>
-  </si>
-  <si>
-    <t>2029-04-10</t>
-  </si>
-  <si>
-    <t>4.107</t>
-  </si>
-  <si>
-    <t>1.87%</t>
-  </si>
-  <si>
-    <t>-17.01%</t>
-  </si>
-  <si>
-    <t>113569</t>
-  </si>
-  <si>
-    <t>科达转债</t>
-  </si>
-  <si>
-    <t>2026-03-09</t>
-  </si>
-  <si>
-    <t>1.016</t>
-  </si>
-  <si>
-    <t>-8.2%</t>
-  </si>
-  <si>
-    <t>-39.58%</t>
-  </si>
-  <si>
-    <t>113532</t>
-  </si>
-  <si>
-    <t>海环转债</t>
-  </si>
-  <si>
-    <t>AA+</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>0.082</t>
-  </si>
-  <si>
-    <t>-1.15%</t>
-  </si>
-  <si>
-    <t>-40.73%</t>
-  </si>
-  <si>
-    <t>128072</t>
-  </si>
-  <si>
-    <t>翔鹭转债</t>
-  </si>
-  <si>
-    <t>A-</t>
-  </si>
-  <si>
-    <t>2025-08-20</t>
-  </si>
-  <si>
-    <t>0.466</t>
-  </si>
-  <si>
-    <t>1.14%</t>
-  </si>
-  <si>
-    <t>-59.42%</t>
-  </si>
-  <si>
-    <t>110060</t>
-  </si>
-  <si>
-    <t>天路转债</t>
-  </si>
-  <si>
-    <t>2025-10-28</t>
-  </si>
-  <si>
-    <t>0.655</t>
-  </si>
-  <si>
-    <t>-0.27%</t>
-  </si>
-  <si>
-    <t>-81.36%</t>
-  </si>
-  <si>
-    <t>113530</t>
-  </si>
-  <si>
-    <t>大丰转债</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>0.066</t>
-  </si>
-  <si>
-    <t>-0.06%</t>
-  </si>
-  <si>
-    <t>-102.20%</t>
-  </si>
-  <si>
-    <t>128066</t>
-  </si>
-  <si>
-    <t>亚泰转债</t>
-  </si>
-  <si>
-    <t>2025-04-17</t>
-  </si>
-  <si>
-    <t>0.123</t>
-  </si>
-  <si>
-    <t>-3.31%</t>
-  </si>
-  <si>
-    <t>-131.09%</t>
-  </si>
-  <si>
-    <t>123022</t>
-  </si>
-  <si>
-    <t>长信转债</t>
-  </si>
-  <si>
-    <t>2025-03-18</t>
-  </si>
-  <si>
-    <t>0.041</t>
-  </si>
-  <si>
-    <t>-0.44%</t>
-  </si>
-  <si>
-    <t>-240.81%</t>
-  </si>
-  <si>
-    <t>123025</t>
-  </si>
-  <si>
-    <t>精测转债</t>
-  </si>
-  <si>
-    <t>2025-03-29</t>
-  </si>
-  <si>
-    <t>0.071</t>
-  </si>
-  <si>
-    <t>-999%</t>
-  </si>
-  <si>
-    <t>123226</t>
-  </si>
-  <si>
-    <t>中富转债</t>
-  </si>
-  <si>
-    <t>2029-10-17</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>-9.05%</t>
-  </si>
-  <si>
-    <t>123067</t>
-  </si>
-  <si>
-    <t>斯莱转债</t>
-  </si>
-  <si>
-    <t>2026-09-17</t>
-  </si>
-  <si>
-    <t>1.08%</t>
-  </si>
-  <si>
-    <t>127100</t>
-  </si>
-  <si>
-    <t>神码转债</t>
-  </si>
-  <si>
-    <t>-1.49%</t>
-  </si>
-  <si>
-    <t>113061</t>
-  </si>
-  <si>
-    <t>拓普转债</t>
-  </si>
-  <si>
-    <t>2028-07-14</t>
-  </si>
-  <si>
-    <t>-1.29%</t>
+    <t>-3.27%</t>
+  </si>
+  <si>
+    <t>127051</t>
+  </si>
+  <si>
+    <t>博杰转债</t>
+  </si>
+  <si>
+    <t>2027-11-17</t>
+  </si>
+  <si>
+    <t>-5.12%</t>
   </si>
 </sst>
 </file>
@@ -956,7 +935,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>45.21</v>
+        <v>46.956</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -982,7 +961,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>128.347</v>
+        <v>129.595</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -1008,62 +987,62 @@
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>133.3</v>
+        <v>134.271</v>
       </c>
       <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="n">
+        <v>138.387</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="n">
-        <v>137.128</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="n">
+        <v>127.699</v>
+      </c>
+      <c r="E6" t="s">
         <v>37</v>
-      </c>
-      <c r="D6" t="n">
-        <v>133.501</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>38</v>
@@ -1086,7 +1065,7 @@
         <v>43</v>
       </c>
       <c r="D7" t="n">
-        <v>138.49</v>
+        <v>171.001</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1112,114 +1091,114 @@
         <v>49</v>
       </c>
       <c r="D8" t="n">
-        <v>145.4</v>
+        <v>183.1</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" t="n">
-        <v>147.849</v>
+        <v>128.917</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" t="n">
-        <v>142.204</v>
+        <v>131.9</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6</v>
+        <v>197.479</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" t="n">
-        <v>126.42</v>
+        <v>130.09</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1242,62 +1221,62 @@
         <v>80</v>
       </c>
       <c r="D13" t="n">
-        <v>143.866</v>
+        <v>156.8</v>
       </c>
       <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
         <v>81</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>82</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>83</v>
-      </c>
-      <c r="H13" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
         <v>85</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>86</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="n">
+        <v>134.626</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
         <v>87</v>
       </c>
-      <c r="D14" t="n">
-        <v>159.9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>88</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>89</v>
-      </c>
-      <c r="H14" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
         <v>91</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>92</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="n">
+        <v>186.078</v>
+      </c>
+      <c r="E15" t="s">
         <v>93</v>
-      </c>
-      <c r="D15" t="n">
-        <v>128.597</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
       </c>
       <c r="F15" t="s">
         <v>94</v>
@@ -1320,10 +1299,10 @@
         <v>99</v>
       </c>
       <c r="D16" t="n">
-        <v>178.458</v>
+        <v>201.492</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -1346,7 +1325,7 @@
         <v>105</v>
       </c>
       <c r="D17" t="n">
-        <v>150</v>
+        <v>259</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -1372,10 +1351,10 @@
         <v>111</v>
       </c>
       <c r="D18" t="n">
-        <v>209.967</v>
+        <v>231.504</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
         <v>112</v>
@@ -1398,7 +1377,7 @@
         <v>117</v>
       </c>
       <c r="D19" t="n">
-        <v>194.36</v>
+        <v>228</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -1424,7 +1403,7 @@
         <v>123</v>
       </c>
       <c r="D20" t="n">
-        <v>136.971</v>
+        <v>323.855</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
@@ -1450,279 +1429,279 @@
         <v>129</v>
       </c>
       <c r="D21" t="n">
-        <v>109.857</v>
+        <v>168.454</v>
       </c>
       <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
         <v>130</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>131</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>132</v>
-      </c>
-      <c r="H21" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s">
         <v>134</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>135</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="n">
+        <v>216.329</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
         <v>136</v>
       </c>
-      <c r="D22" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>137</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>138</v>
-      </c>
-      <c r="G22" t="s">
-        <v>139</v>
-      </c>
-      <c r="H22" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" t="s">
         <v>141</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="n">
+        <v>113.967</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
         <v>142</v>
       </c>
-      <c r="C23" t="s">
+      <c r="G23" t="s">
         <v>143</v>
       </c>
-      <c r="D23" t="n">
-        <v>176.313</v>
-      </c>
-      <c r="E23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>144</v>
-      </c>
-      <c r="G23" t="s">
-        <v>145</v>
-      </c>
-      <c r="H23" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" t="s">
         <v>147</v>
       </c>
-      <c r="B24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" t="s">
-        <v>149</v>
-      </c>
       <c r="D24" t="n">
-        <v>118.894</v>
+        <v>107.88</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" t="s">
         <v>150</v>
-      </c>
-      <c r="G24" t="s">
-        <v>151</v>
-      </c>
-      <c r="H24" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" t="n">
+        <v>129.99</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
         <v>153</v>
       </c>
-      <c r="B25" t="s">
+      <c r="G25" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" t="s">
         <v>154</v>
-      </c>
-      <c r="C25" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" t="n">
-        <v>125.403</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" t="s">
-        <v>156</v>
-      </c>
-      <c r="G25" t="s">
-        <v>157</v>
-      </c>
-      <c r="H25" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" t="s">
+        <v>158</v>
+      </c>
+      <c r="G26" t="s">
+        <v>149</v>
+      </c>
+      <c r="H26" t="s">
         <v>159</v>
-      </c>
-      <c r="B26" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" t="s">
-        <v>161</v>
-      </c>
-      <c r="D26" t="n">
-        <v>114.15</v>
-      </c>
-      <c r="E26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" t="s">
-        <v>162</v>
-      </c>
-      <c r="G26" t="s">
-        <v>163</v>
-      </c>
-      <c r="H26" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D27" t="n">
-        <v>131.25</v>
+        <v>153</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G27" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="H27" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C28" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D28" t="n">
-        <v>126.791</v>
+        <v>279.499</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G28" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="H28" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" t="n">
+        <v>127</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
         <v>170</v>
       </c>
-      <c r="B29" t="s">
-        <v>176</v>
-      </c>
-      <c r="C29" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" t="n">
-        <v>168.2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" t="s">
-        <v>178</v>
-      </c>
       <c r="G29" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="H29" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="B30" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C30" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D30" t="n">
-        <v>148.7</v>
+        <v>118.2</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>174</v>
       </c>
       <c r="G30" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="H30" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="B31" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C31" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D31" t="n">
-        <v>128.944</v>
+        <v>126</v>
       </c>
       <c r="E31" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G31" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="H31" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
   <si>
     <t>到期税后收益率</t>
   </si>
@@ -41,7 +41,7 @@
     <t>涨跌幅</t>
   </si>
   <si>
-    <t>86.77%</t>
+    <t>78.30%</t>
   </si>
   <si>
     <t>404004</t>
@@ -56,13 +56,13 @@
     <t>2026-08-18</t>
   </si>
   <si>
-    <t>1.375</t>
-  </si>
-  <si>
-    <t>-6.1%</t>
-  </si>
-  <si>
-    <t>-2.25%</t>
+    <t>1.301</t>
+  </si>
+  <si>
+    <t>-3.2%</t>
+  </si>
+  <si>
+    <t>-2.24%</t>
   </si>
   <si>
     <t>123243</t>
@@ -77,31 +77,286 @@
     <t>2030-07-10</t>
   </si>
   <si>
-    <t>5.271</t>
-  </si>
-  <si>
-    <t>-0.07%</t>
-  </si>
-  <si>
-    <t>-3.15%</t>
-  </si>
-  <si>
-    <t>118046</t>
-  </si>
-  <si>
-    <t>诺泰转债</t>
-  </si>
-  <si>
-    <t>2029-12-15</t>
-  </si>
-  <si>
-    <t>4.704</t>
-  </si>
-  <si>
-    <t>-12.55%</t>
-  </si>
-  <si>
-    <t>-5.68%</t>
+    <t>5.197</t>
+  </si>
+  <si>
+    <t>0.22%</t>
+  </si>
+  <si>
+    <t>-2.60%</t>
+  </si>
+  <si>
+    <t>113637</t>
+  </si>
+  <si>
+    <t>华翔转债</t>
+  </si>
+  <si>
+    <t>2027-12-22</t>
+  </si>
+  <si>
+    <t>2.647</t>
+  </si>
+  <si>
+    <t>-1.09%</t>
+  </si>
+  <si>
+    <t>-3.97%</t>
+  </si>
+  <si>
+    <t>123161</t>
+  </si>
+  <si>
+    <t>强联转债</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>2028-10-11</t>
+  </si>
+  <si>
+    <t>3.452</t>
+  </si>
+  <si>
+    <t>-2.36%</t>
+  </si>
+  <si>
+    <t>-4.76%</t>
+  </si>
+  <si>
+    <t>123218</t>
+  </si>
+  <si>
+    <t>宏昌转债</t>
+  </si>
+  <si>
+    <t>2029-08-10</t>
+  </si>
+  <si>
+    <t>4.282</t>
+  </si>
+  <si>
+    <t>9.74%</t>
+  </si>
+  <si>
+    <t>-5.66%</t>
+  </si>
+  <si>
+    <t>123209</t>
+  </si>
+  <si>
+    <t>聚隆转债</t>
+  </si>
+  <si>
+    <t>2029-07-26</t>
+  </si>
+  <si>
+    <t>4.241</t>
+  </si>
+  <si>
+    <t>-1.74%</t>
+  </si>
+  <si>
+    <t>-5.83%</t>
+  </si>
+  <si>
+    <t>118028</t>
+  </si>
+  <si>
+    <t>会通转债</t>
+  </si>
+  <si>
+    <t>2028-12-06</t>
+  </si>
+  <si>
+    <t>3.606</t>
+  </si>
+  <si>
+    <t>1.75%</t>
+  </si>
+  <si>
+    <t>-6.00%</t>
+  </si>
+  <si>
+    <t>123174</t>
+  </si>
+  <si>
+    <t>精锻转债</t>
+  </si>
+  <si>
+    <t>2029-02-15</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>5.13%</t>
+  </si>
+  <si>
+    <t>-6.71%</t>
+  </si>
+  <si>
+    <t>123063</t>
+  </si>
+  <si>
+    <t>大禹转债</t>
+  </si>
+  <si>
+    <t>2026-07-28</t>
+  </si>
+  <si>
+    <t>1.244</t>
+  </si>
+  <si>
+    <t>-0.55%</t>
+  </si>
+  <si>
+    <t>-7.38%</t>
+  </si>
+  <si>
+    <t>118004</t>
+  </si>
+  <si>
+    <t>博瑞转债</t>
+  </si>
+  <si>
+    <t>2028-01-04</t>
+  </si>
+  <si>
+    <t>2.682</t>
+  </si>
+  <si>
+    <t>0.02%</t>
+  </si>
+  <si>
+    <t>-7.55%</t>
+  </si>
+  <si>
+    <t>113050</t>
+  </si>
+  <si>
+    <t>南银转债</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>2027-06-15</t>
+  </si>
+  <si>
+    <t>2.126</t>
+  </si>
+  <si>
+    <t>-0.53%</t>
+  </si>
+  <si>
+    <t>-8.96%</t>
+  </si>
+  <si>
+    <t>123249</t>
+  </si>
+  <si>
+    <t>英搏转债</t>
+  </si>
+  <si>
+    <t>2030-10-24</t>
+  </si>
+  <si>
+    <t>5.488</t>
+  </si>
+  <si>
+    <t>0.43%</t>
+  </si>
+  <si>
+    <t>-9.06%</t>
+  </si>
+  <si>
+    <t>123186</t>
+  </si>
+  <si>
+    <t>志特转债</t>
+  </si>
+  <si>
+    <t>2029-03-31</t>
+  </si>
+  <si>
+    <t>3.921</t>
+  </si>
+  <si>
+    <t>2.26%</t>
+  </si>
+  <si>
+    <t>-9.17%</t>
+  </si>
+  <si>
+    <t>110079</t>
+  </si>
+  <si>
+    <t>杭银转债</t>
+  </si>
+  <si>
+    <t>2027-03-29</t>
+  </si>
+  <si>
+    <t>1.912</t>
+  </si>
+  <si>
+    <t>-0.37%</t>
+  </si>
+  <si>
+    <t>-9.45%</t>
+  </si>
+  <si>
+    <t>127055</t>
+  </si>
+  <si>
+    <t>精装转债</t>
+  </si>
+  <si>
+    <t>2028-02-22</t>
+  </si>
+  <si>
+    <t>2.816</t>
+  </si>
+  <si>
+    <t>-1.03%</t>
+  </si>
+  <si>
+    <t>123235</t>
+  </si>
+  <si>
+    <t>亿田转债</t>
+  </si>
+  <si>
+    <t>2029-12-21</t>
+  </si>
+  <si>
+    <t>4.647</t>
+  </si>
+  <si>
+    <t>10.33%</t>
+  </si>
+  <si>
+    <t>-10.05%</t>
+  </si>
+  <si>
+    <t>113687</t>
+  </si>
+  <si>
+    <t>振华转债</t>
+  </si>
+  <si>
+    <t>2030-07-12</t>
+  </si>
+  <si>
+    <t>5.203</t>
+  </si>
+  <si>
+    <t>-2.65%</t>
+  </si>
+  <si>
+    <t>-10.26%</t>
   </si>
   <si>
     <t>127053</t>
@@ -113,91 +368,139 @@
     <t>2028-01-24</t>
   </si>
   <si>
-    <t>2.811</t>
-  </si>
-  <si>
-    <t>-0.36%</t>
-  </si>
-  <si>
-    <t>-7.47%</t>
-  </si>
-  <si>
-    <t>113050</t>
-  </si>
-  <si>
-    <t>南银转债</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>2027-06-15</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>0.11%</t>
-  </si>
-  <si>
-    <t>-8.30%</t>
-  </si>
-  <si>
-    <t>127092</t>
-  </si>
-  <si>
-    <t>运机转债</t>
-  </si>
-  <si>
-    <t>2029-09-21</t>
-  </si>
-  <si>
-    <t>4.471</t>
-  </si>
-  <si>
-    <t>-4.58%</t>
-  </si>
-  <si>
-    <t>-8.56%</t>
-  </si>
-  <si>
-    <t>123249</t>
-  </si>
-  <si>
-    <t>英搏转债</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>2030-10-24</t>
-  </si>
-  <si>
-    <t>5.562</t>
-  </si>
-  <si>
-    <t>-4.59%</t>
-  </si>
-  <si>
-    <t>-8.65%</t>
-  </si>
-  <si>
-    <t>110079</t>
-  </si>
-  <si>
-    <t>杭银转债</t>
-  </si>
-  <si>
-    <t>2027-03-29</t>
-  </si>
-  <si>
-    <t>1.986</t>
-  </si>
-  <si>
-    <t>-0.27%</t>
-  </si>
-  <si>
-    <t>-9.47%</t>
+    <t>2.737</t>
+  </si>
+  <si>
+    <t>1.78%</t>
+  </si>
+  <si>
+    <t>-11.42%</t>
+  </si>
+  <si>
+    <t>123245</t>
+  </si>
+  <si>
+    <t>集智转债</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>2030-08-14</t>
+  </si>
+  <si>
+    <t>5.293</t>
+  </si>
+  <si>
+    <t>-1.35%</t>
+  </si>
+  <si>
+    <t>-11.87%</t>
+  </si>
+  <si>
+    <t>113690</t>
+  </si>
+  <si>
+    <t>豪24转债</t>
+  </si>
+  <si>
+    <t>2030-10-23</t>
+  </si>
+  <si>
+    <t>5.485</t>
+  </si>
+  <si>
+    <t>7.11%</t>
+  </si>
+  <si>
+    <t>-13.20%</t>
+  </si>
+  <si>
+    <t>118016</t>
+  </si>
+  <si>
+    <t>京源转债</t>
+  </si>
+  <si>
+    <t>2028-08-05</t>
+  </si>
+  <si>
+    <t>3.269</t>
+  </si>
+  <si>
+    <t>2.3%</t>
+  </si>
+  <si>
+    <t>-14.22%</t>
+  </si>
+  <si>
+    <t>123241</t>
+  </si>
+  <si>
+    <t>欧通转债</t>
+  </si>
+  <si>
+    <t>2030-07-05</t>
+  </si>
+  <si>
+    <t>5.184</t>
+  </si>
+  <si>
+    <t>-15.48%</t>
+  </si>
+  <si>
+    <t>123213</t>
+  </si>
+  <si>
+    <t>天源转债</t>
+  </si>
+  <si>
+    <t>2029-07-28</t>
+  </si>
+  <si>
+    <t>4.247</t>
+  </si>
+  <si>
+    <t>4.59%</t>
+  </si>
+  <si>
+    <t>-15.71%</t>
+  </si>
+  <si>
+    <t>127076</t>
+  </si>
+  <si>
+    <t>中宠转2</t>
+  </si>
+  <si>
+    <t>2028-10-25</t>
+  </si>
+  <si>
+    <t>3.49</t>
+  </si>
+  <si>
+    <t>-1.36%</t>
+  </si>
+  <si>
+    <t>-15.93%</t>
+  </si>
+  <si>
+    <t>111011</t>
+  </si>
+  <si>
+    <t>冠盛转债</t>
+  </si>
+  <si>
+    <t>2029-01-03</t>
+  </si>
+  <si>
+    <t>3.682</t>
+  </si>
+  <si>
+    <t>7.81%</t>
+  </si>
+  <si>
+    <t>-18.60%</t>
   </si>
   <si>
     <t>128144</t>
@@ -209,67 +512,58 @@
     <t>2027-03-01</t>
   </si>
   <si>
-    <t>1.91</t>
-  </si>
-  <si>
-    <t>0.65%</t>
-  </si>
-  <si>
-    <t>-9.48%</t>
-  </si>
-  <si>
-    <t>113690</t>
-  </si>
-  <si>
-    <t>豪24转债</t>
-  </si>
-  <si>
-    <t>2030-10-22</t>
-  </si>
-  <si>
-    <t>5.556</t>
-  </si>
-  <si>
-    <t>-0.89%</t>
-  </si>
-  <si>
-    <t>-9.71%</t>
-  </si>
-  <si>
-    <t>128141</t>
-  </si>
-  <si>
-    <t>旺能转债</t>
-  </si>
-  <si>
-    <t>2026-12-17</t>
-  </si>
-  <si>
-    <t>1.707</t>
-  </si>
-  <si>
-    <t>-0.66%</t>
-  </si>
-  <si>
-    <t>-10.34%</t>
-  </si>
-  <si>
-    <t>127055</t>
-  </si>
-  <si>
-    <t>精装转债</t>
-  </si>
-  <si>
-    <t>2028-02-22</t>
-  </si>
-  <si>
-    <t>2.89</t>
-  </si>
-  <si>
-    <t>1.82%</t>
-  </si>
-  <si>
-    <t>-11.39%</t>
+    <t>1.836</t>
+  </si>
+  <si>
+    <t>-5.36%</t>
+  </si>
+  <si>
+    <t>-27.22%</t>
+  </si>
+  <si>
+    <t>113030</t>
+  </si>
+  <si>
+    <t>东风转债</t>
+  </si>
+  <si>
+    <t>2025-12-24</t>
+  </si>
+  <si>
+    <t>0.652</t>
+  </si>
+  <si>
+    <t>0.14%</t>
+  </si>
+  <si>
+    <t>-999%</t>
+  </si>
+  <si>
+    <t>123132</t>
+  </si>
+  <si>
+    <t>回盛转债</t>
+  </si>
+  <si>
+    <t>2027-12-17</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>-1.4%</t>
+  </si>
+  <si>
+    <t>123078</t>
+  </si>
+  <si>
+    <t>飞凯转债</t>
+  </si>
+  <si>
+    <t>2026-11-27</t>
+  </si>
+  <si>
+    <t>1.47%</t>
   </si>
   <si>
     <t>128117</t>
@@ -281,280 +575,7 @@
     <t>2026-07-02</t>
   </si>
   <si>
-    <t>1.247</t>
-  </si>
-  <si>
-    <t>-6.38%</t>
-  </si>
-  <si>
-    <t>-13.32%</t>
-  </si>
-  <si>
-    <t>118016</t>
-  </si>
-  <si>
-    <t>京源转债</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>2028-08-05</t>
-  </si>
-  <si>
-    <t>3.343</t>
-  </si>
-  <si>
-    <t>-3.84%</t>
-  </si>
-  <si>
-    <t>-13.94%</t>
-  </si>
-  <si>
-    <t>111011</t>
-  </si>
-  <si>
-    <t>冠盛转债</t>
-  </si>
-  <si>
-    <t>2029-01-03</t>
-  </si>
-  <si>
-    <t>3.756</t>
-  </si>
-  <si>
-    <t>-10.79%</t>
-  </si>
-  <si>
-    <t>-14.79%</t>
-  </si>
-  <si>
-    <t>123241</t>
-  </si>
-  <si>
-    <t>欧通转债</t>
-  </si>
-  <si>
-    <t>2030-07-05</t>
-  </si>
-  <si>
-    <t>5.258</t>
-  </si>
-  <si>
-    <t>-5.71%</t>
-  </si>
-  <si>
-    <t>-15.39%</t>
-  </si>
-  <si>
-    <t>123213</t>
-  </si>
-  <si>
-    <t>天源转债</t>
-  </si>
-  <si>
-    <t>2029-07-28</t>
-  </si>
-  <si>
-    <t>4.321</t>
-  </si>
-  <si>
-    <t>-0.77%</t>
-  </si>
-  <si>
-    <t>-22.54%</t>
-  </si>
-  <si>
-    <t>123132</t>
-  </si>
-  <si>
-    <t>回盛转债</t>
-  </si>
-  <si>
-    <t>2027-12-17</t>
-  </si>
-  <si>
-    <t>2.707</t>
-  </si>
-  <si>
-    <t>18.38%</t>
-  </si>
-  <si>
-    <t>-24.13%</t>
-  </si>
-  <si>
-    <t>111012</t>
-  </si>
-  <si>
-    <t>福新转债</t>
-  </si>
-  <si>
-    <t>2029-01-04</t>
-  </si>
-  <si>
-    <t>3.759</t>
-  </si>
-  <si>
-    <t>-3.07%</t>
-  </si>
-  <si>
-    <t>-31.57%</t>
-  </si>
-  <si>
-    <t>113582</t>
-  </si>
-  <si>
-    <t>火炬转债</t>
-  </si>
-  <si>
-    <t>2026-05-27</t>
-  </si>
-  <si>
-    <t>1.148</t>
-  </si>
-  <si>
-    <t>0.59%</t>
-  </si>
-  <si>
-    <t>-38.65%</t>
-  </si>
-  <si>
-    <t>110074</t>
-  </si>
-  <si>
-    <t>精达转债</t>
-  </si>
-  <si>
-    <t>2026-08-19</t>
-  </si>
-  <si>
-    <t>1.378</t>
-  </si>
-  <si>
-    <t>-3%</t>
-  </si>
-  <si>
-    <t>-99.79%</t>
-  </si>
-  <si>
-    <t>128066</t>
-  </si>
-  <si>
-    <t>亚泰转债</t>
-  </si>
-  <si>
-    <t>2025-04-17</t>
-  </si>
-  <si>
-    <t>0.038</t>
-  </si>
-  <si>
-    <t>-0.38%</t>
-  </si>
-  <si>
-    <t>-999%</t>
-  </si>
-  <si>
-    <t>123226</t>
-  </si>
-  <si>
-    <t>中富转债</t>
-  </si>
-  <si>
-    <t>2029-10-17</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>-4.52%</t>
-  </si>
-  <si>
-    <t>123152</t>
-  </si>
-  <si>
-    <t>润禾转债</t>
-  </si>
-  <si>
-    <t>2028-07-21</t>
-  </si>
-  <si>
-    <t>-7.16%</t>
-  </si>
-  <si>
-    <t>128072</t>
-  </si>
-  <si>
-    <t>翔鹭转债</t>
-  </si>
-  <si>
-    <t>A-</t>
-  </si>
-  <si>
-    <t>2025-08-20</t>
-  </si>
-  <si>
-    <t>-1.11%</t>
-  </si>
-  <si>
-    <t>127091</t>
-  </si>
-  <si>
-    <t>科数转债</t>
-  </si>
-  <si>
-    <t>2029-08-23</t>
-  </si>
-  <si>
-    <t>-2.55%</t>
-  </si>
-  <si>
-    <t>123228</t>
-  </si>
-  <si>
-    <t>震裕转债</t>
-  </si>
-  <si>
-    <t>2029-10-20</t>
-  </si>
-  <si>
-    <t>-1.72%</t>
-  </si>
-  <si>
-    <t>127087</t>
-  </si>
-  <si>
-    <t>Z帅转2</t>
-  </si>
-  <si>
-    <t>2029-06-14</t>
-  </si>
-  <si>
-    <t>-4.26%</t>
-  </si>
-  <si>
-    <t>123190</t>
-  </si>
-  <si>
-    <t>道氏转02</t>
-  </si>
-  <si>
-    <t>2029-04-07</t>
-  </si>
-  <si>
-    <t>-3.27%</t>
-  </si>
-  <si>
-    <t>127051</t>
-  </si>
-  <si>
-    <t>博杰转债</t>
-  </si>
-  <si>
-    <t>2027-11-17</t>
-  </si>
-  <si>
-    <t>-5.12%</t>
+    <t>1.21%</t>
   </si>
 </sst>
 </file>
@@ -935,7 +956,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>46.956</v>
+        <v>52.176</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -961,7 +982,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>129.595</v>
+        <v>129.289</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -987,10 +1008,10 @@
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>134.271</v>
+        <v>123.404</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -1013,36 +1034,36 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>138.387</v>
+        <v>129.701</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>127.699</v>
+        <v>143.2</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>38</v>
@@ -1065,10 +1086,10 @@
         <v>43</v>
       </c>
       <c r="D7" t="n">
-        <v>171.001</v>
+        <v>146.4</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>44</v>
@@ -1091,114 +1112,114 @@
         <v>49</v>
       </c>
       <c r="D8" t="n">
-        <v>183.1</v>
+        <v>143.098</v>
       </c>
       <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
         <v>50</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>52</v>
-      </c>
-      <c r="H8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
         <v>54</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>55</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="n">
+        <v>145.77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
         <v>56</v>
       </c>
-      <c r="D9" t="n">
-        <v>128.917</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>57</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>58</v>
-      </c>
-      <c r="H9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>61</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="n">
+        <v>128.472</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>62</v>
       </c>
-      <c r="D10" t="n">
-        <v>131.9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>63</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>64</v>
-      </c>
-      <c r="H10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
         <v>66</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>67</v>
       </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
       <c r="D11" t="n">
-        <v>197.479</v>
+        <v>141.075</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
         <v>69</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>70</v>
-      </c>
-      <c r="H11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
         <v>72</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>73</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="n">
+        <v>127.22</v>
+      </c>
+      <c r="E12" t="s">
         <v>74</v>
-      </c>
-      <c r="D12" t="n">
-        <v>130.09</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1221,10 +1242,10 @@
         <v>80</v>
       </c>
       <c r="D13" t="n">
-        <v>156.8</v>
+        <v>186.299</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
         <v>81</v>
@@ -1247,10 +1268,10 @@
         <v>86</v>
       </c>
       <c r="D14" t="n">
-        <v>134.626</v>
+        <v>167.5</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
         <v>87</v>
@@ -1273,276 +1294,276 @@
         <v>92</v>
       </c>
       <c r="D15" t="n">
-        <v>186.078</v>
+        <v>129.462</v>
       </c>
       <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" t="s">
         <v>93</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>94</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>95</v>
-      </c>
-      <c r="H15" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
         <v>97</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>98</v>
       </c>
-      <c r="C16" t="s">
-        <v>99</v>
-      </c>
       <c r="D16" t="n">
-        <v>201.492</v>
+        <v>151.322</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
       <c r="F16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" t="s">
         <v>100</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>101</v>
-      </c>
-      <c r="H16" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" t="s">
         <v>103</v>
       </c>
-      <c r="B17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" t="s">
-        <v>105</v>
-      </c>
       <c r="D17" t="n">
-        <v>259</v>
+        <v>182.81</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
       </c>
       <c r="F17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" t="s">
         <v>106</v>
-      </c>
-      <c r="G17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
         <v>109</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="n">
+        <v>192.576</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
         <v>110</v>
       </c>
-      <c r="C18" t="s">
+      <c r="G18" t="s">
         <v>111</v>
       </c>
-      <c r="D18" t="n">
-        <v>231.504</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>112</v>
-      </c>
-      <c r="G18" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" t="s">
         <v>115</v>
       </c>
-      <c r="B19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" t="s">
-        <v>117</v>
-      </c>
       <c r="D19" t="n">
-        <v>228</v>
+        <v>157.653</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
       </c>
       <c r="F19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" t="s">
         <v>118</v>
-      </c>
-      <c r="G19" t="s">
-        <v>119</v>
-      </c>
-      <c r="H19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
         <v>121</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="n">
+        <v>220</v>
+      </c>
+      <c r="E20" t="s">
         <v>122</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F20" t="s">
         <v>123</v>
       </c>
-      <c r="D20" t="n">
-        <v>323.855</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>124</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>125</v>
-      </c>
-      <c r="H20" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" t="s">
         <v>127</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>128</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="n">
+        <v>226.67</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
         <v>129</v>
       </c>
-      <c r="D21" t="n">
-        <v>168.454</v>
-      </c>
-      <c r="E21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>130</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>131</v>
-      </c>
-      <c r="H21" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" t="s">
         <v>133</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>134</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="n">
+        <v>183.308</v>
+      </c>
+      <c r="E22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" t="s">
         <v>135</v>
       </c>
-      <c r="D22" t="n">
-        <v>216.329</v>
-      </c>
-      <c r="E22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>136</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>137</v>
-      </c>
-      <c r="H22" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" t="s">
         <v>139</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>140</v>
       </c>
-      <c r="C23" t="s">
-        <v>141</v>
-      </c>
       <c r="D23" t="n">
-        <v>113.967</v>
+        <v>247.22</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
       </c>
       <c r="F23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" t="s">
         <v>142</v>
       </c>
-      <c r="G23" t="s">
-        <v>143</v>
-      </c>
       <c r="H23" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s">
         <v>145</v>
       </c>
-      <c r="B24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" t="s">
-        <v>147</v>
-      </c>
       <c r="D24" t="n">
-        <v>107.88</v>
+        <v>229.677</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" t="s">
         <v>148</v>
-      </c>
-      <c r="G24" t="s">
-        <v>149</v>
-      </c>
-      <c r="H24" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" t="s">
         <v>151</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="n">
+        <v>203.2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
         <v>152</v>
       </c>
-      <c r="D25" t="n">
-        <v>129.99</v>
-      </c>
-      <c r="E25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>153</v>
-      </c>
-      <c r="G25" t="s">
-        <v>149</v>
       </c>
       <c r="H25" t="s">
         <v>154</v>
@@ -1550,158 +1571,158 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D26" t="n">
-        <v>124.5</v>
+        <v>216.93</v>
       </c>
       <c r="E26" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
         <v>158</v>
       </c>
       <c r="G26" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="H26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D27" t="n">
-        <v>153</v>
+        <v>158.995</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G27" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="H27" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D28" t="n">
-        <v>279.499</v>
+        <v>133.129</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G28" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="H28" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C29" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D29" t="n">
-        <v>127</v>
+        <v>142.125</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G29" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="H29" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C30" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D30" t="n">
-        <v>118.2</v>
+        <v>115.278</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G30" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="H30" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C31" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D31" t="n">
-        <v>126</v>
+        <v>132.599</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G31" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="H31" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -41,7 +41,7 @@
     <t>涨跌幅</t>
   </si>
   <si>
-    <t>78.30%</t>
+    <t>88.18%</t>
   </si>
   <si>
     <t>404004</t>
@@ -56,13 +56,13 @@
     <t>2026-08-18</t>
   </si>
   <si>
-    <t>1.301</t>
-  </si>
-  <si>
-    <t>-3.2%</t>
-  </si>
-  <si>
-    <t>-2.24%</t>
+    <t>1.208</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>-2.36%</t>
   </si>
   <si>
     <t>123243</t>
@@ -77,13 +77,466 @@
     <t>2030-07-10</t>
   </si>
   <si>
-    <t>5.197</t>
-  </si>
-  <si>
-    <t>0.22%</t>
-  </si>
-  <si>
-    <t>-2.60%</t>
+    <t>5.104</t>
+  </si>
+  <si>
+    <t>0.33%</t>
+  </si>
+  <si>
+    <t>-4.47%</t>
+  </si>
+  <si>
+    <t>123201</t>
+  </si>
+  <si>
+    <t>纽泰转债</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>2029-06-27</t>
+  </si>
+  <si>
+    <t>4.069</t>
+  </si>
+  <si>
+    <t>3.84%</t>
+  </si>
+  <si>
+    <t>-4.55%</t>
+  </si>
+  <si>
+    <t>113065</t>
+  </si>
+  <si>
+    <t>齐鲁转债</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>2028-11-29</t>
+  </si>
+  <si>
+    <t>3.493</t>
+  </si>
+  <si>
+    <t>0.36%</t>
+  </si>
+  <si>
+    <t>-5.24%</t>
+  </si>
+  <si>
+    <t>123187</t>
+  </si>
+  <si>
+    <t>超达转债</t>
+  </si>
+  <si>
+    <t>2029-04-04</t>
+  </si>
+  <si>
+    <t>3.838</t>
+  </si>
+  <si>
+    <t>1.23%</t>
+  </si>
+  <si>
+    <t>-6.02%</t>
+  </si>
+  <si>
+    <t>123209</t>
+  </si>
+  <si>
+    <t>聚隆转债</t>
+  </si>
+  <si>
+    <t>2029-07-26</t>
+  </si>
+  <si>
+    <t>4.148</t>
+  </si>
+  <si>
+    <t>-0.15%</t>
+  </si>
+  <si>
+    <t>-6.39%</t>
+  </si>
+  <si>
+    <t>127043</t>
+  </si>
+  <si>
+    <t>川恒转债</t>
+  </si>
+  <si>
+    <t>2027-08-12</t>
+  </si>
+  <si>
+    <t>2.192</t>
+  </si>
+  <si>
+    <t>-1.99%</t>
+  </si>
+  <si>
+    <t>-6.61%</t>
+  </si>
+  <si>
+    <t>123174</t>
+  </si>
+  <si>
+    <t>精锻转债</t>
+  </si>
+  <si>
+    <t>2029-02-15</t>
+  </si>
+  <si>
+    <t>3.707</t>
+  </si>
+  <si>
+    <t>0.13%</t>
+  </si>
+  <si>
+    <t>-6.72%</t>
+  </si>
+  <si>
+    <t>123221</t>
+  </si>
+  <si>
+    <t>力诺转债</t>
+  </si>
+  <si>
+    <t>2029-08-23</t>
+  </si>
+  <si>
+    <t>4.225</t>
+  </si>
+  <si>
+    <t>0.43%</t>
+  </si>
+  <si>
+    <t>-7.33%</t>
+  </si>
+  <si>
+    <t>123248</t>
+  </si>
+  <si>
+    <t>恒辉转债</t>
+  </si>
+  <si>
+    <t>2030-08-21</t>
+  </si>
+  <si>
+    <t>5.219</t>
+  </si>
+  <si>
+    <t>5.34%</t>
+  </si>
+  <si>
+    <t>-7.76%</t>
+  </si>
+  <si>
+    <t>123186</t>
+  </si>
+  <si>
+    <t>志特转债</t>
+  </si>
+  <si>
+    <t>2029-03-31</t>
+  </si>
+  <si>
+    <t>3.827</t>
+  </si>
+  <si>
+    <t>5.88%</t>
+  </si>
+  <si>
+    <t>-8.07%</t>
+  </si>
+  <si>
+    <t>123235</t>
+  </si>
+  <si>
+    <t>亿田转债</t>
+  </si>
+  <si>
+    <t>2029-12-21</t>
+  </si>
+  <si>
+    <t>4.553</t>
+  </si>
+  <si>
+    <t>1.99%</t>
+  </si>
+  <si>
+    <t>-8.79%</t>
+  </si>
+  <si>
+    <t>113651</t>
+  </si>
+  <si>
+    <t>松霖转债</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>2028-07-20</t>
+  </si>
+  <si>
+    <t>3.132</t>
+  </si>
+  <si>
+    <t>-10.78%</t>
+  </si>
+  <si>
+    <t>113598</t>
+  </si>
+  <si>
+    <t>法兰转债</t>
+  </si>
+  <si>
+    <t>2026-07-31</t>
+  </si>
+  <si>
+    <t>1.159</t>
+  </si>
+  <si>
+    <t>0.18%</t>
+  </si>
+  <si>
+    <t>-11.93%</t>
+  </si>
+  <si>
+    <t>113050</t>
+  </si>
+  <si>
+    <t>南银转债</t>
+  </si>
+  <si>
+    <t>2027-06-15</t>
+  </si>
+  <si>
+    <t>2.033</t>
+  </si>
+  <si>
+    <t>-0.23%</t>
+  </si>
+  <si>
+    <t>-12.22%</t>
+  </si>
+  <si>
+    <t>113690</t>
+  </si>
+  <si>
+    <t>豪24转债</t>
+  </si>
+  <si>
+    <t>2030-10-23</t>
+  </si>
+  <si>
+    <t>5.392</t>
+  </si>
+  <si>
+    <t>-13.35%</t>
+  </si>
+  <si>
+    <t>123241</t>
+  </si>
+  <si>
+    <t>欧通转债</t>
+  </si>
+  <si>
+    <t>2030-07-05</t>
+  </si>
+  <si>
+    <t>5.09</t>
+  </si>
+  <si>
+    <t>1.14%</t>
+  </si>
+  <si>
+    <t>-13.58%</t>
+  </si>
+  <si>
+    <t>123213</t>
+  </si>
+  <si>
+    <t>天源转债</t>
+  </si>
+  <si>
+    <t>2029-07-28</t>
+  </si>
+  <si>
+    <t>4.153</t>
+  </si>
+  <si>
+    <t>0.95%</t>
+  </si>
+  <si>
+    <t>-17.72%</t>
+  </si>
+  <si>
+    <t>127055</t>
+  </si>
+  <si>
+    <t>精装转债</t>
+  </si>
+  <si>
+    <t>2028-02-22</t>
+  </si>
+  <si>
+    <t>2.723</t>
+  </si>
+  <si>
+    <t>-1.75%</t>
+  </si>
+  <si>
+    <t>-20.12%</t>
+  </si>
+  <si>
+    <t>127076</t>
+  </si>
+  <si>
+    <t>中宠转2</t>
+  </si>
+  <si>
+    <t>2028-10-25</t>
+  </si>
+  <si>
+    <t>3.397</t>
+  </si>
+  <si>
+    <t>6.04%</t>
+  </si>
+  <si>
+    <t>-22.25%</t>
+  </si>
+  <si>
+    <t>127053</t>
+  </si>
+  <si>
+    <t>豪美转债</t>
+  </si>
+  <si>
+    <t>2028-01-24</t>
+  </si>
+  <si>
+    <t>2.644</t>
+  </si>
+  <si>
+    <t>8.87%</t>
+  </si>
+  <si>
+    <t>-25.96%</t>
+  </si>
+  <si>
+    <t>127081</t>
+  </si>
+  <si>
+    <t>中旗转债</t>
+  </si>
+  <si>
+    <t>2029-03-03</t>
+  </si>
+  <si>
+    <t>3.751</t>
+  </si>
+  <si>
+    <t>-12.8%</t>
+  </si>
+  <si>
+    <t>-27.41%</t>
+  </si>
+  <si>
+    <t>111012</t>
+  </si>
+  <si>
+    <t>福新转债</t>
+  </si>
+  <si>
+    <t>2029-01-04</t>
+  </si>
+  <si>
+    <t>3.592</t>
+  </si>
+  <si>
+    <t>7.62%</t>
+  </si>
+  <si>
+    <t>-30.20%</t>
+  </si>
+  <si>
+    <t>123056</t>
+  </si>
+  <si>
+    <t>雪榕转债</t>
+  </si>
+  <si>
+    <t>2026-06-24</t>
+  </si>
+  <si>
+    <t>1.058</t>
+  </si>
+  <si>
+    <t>-2.51%</t>
+  </si>
+  <si>
+    <t>-32.85%</t>
+  </si>
+  <si>
+    <t>128144</t>
+  </si>
+  <si>
+    <t>利民转债</t>
+  </si>
+  <si>
+    <t>2027-03-01</t>
+  </si>
+  <si>
+    <t>1.743</t>
+  </si>
+  <si>
+    <t>-1.57%</t>
+  </si>
+  <si>
+    <t>-44.69%</t>
+  </si>
+  <si>
+    <t>113561</t>
+  </si>
+  <si>
+    <t>正裕转债</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>0.578</t>
+  </si>
+  <si>
+    <t>-0.3%</t>
+  </si>
+  <si>
+    <t>-108.64%</t>
+  </si>
+  <si>
+    <t>110060</t>
+  </si>
+  <si>
+    <t>天路转债</t>
+  </si>
+  <si>
+    <t>2025-10-28</t>
+  </si>
+  <si>
+    <t>0.403</t>
+  </si>
+  <si>
+    <t>3.67%</t>
+  </si>
+  <si>
+    <t>-999%</t>
   </si>
   <si>
     <t>113637</t>
@@ -95,34 +548,22 @@
     <t>2027-12-22</t>
   </si>
   <si>
-    <t>2.647</t>
-  </si>
-  <si>
-    <t>-1.09%</t>
-  </si>
-  <si>
-    <t>-3.97%</t>
-  </si>
-  <si>
-    <t>123161</t>
-  </si>
-  <si>
-    <t>强联转债</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>2028-10-11</t>
-  </si>
-  <si>
-    <t>3.452</t>
-  </si>
-  <si>
-    <t>-2.36%</t>
-  </si>
-  <si>
-    <t>-4.76%</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>-1.12%</t>
+  </si>
+  <si>
+    <t>110079</t>
+  </si>
+  <si>
+    <t>杭银转债</t>
+  </si>
+  <si>
+    <t>2027-03-29</t>
+  </si>
+  <si>
+    <t>0.62%</t>
   </si>
   <si>
     <t>123218</t>
@@ -134,448 +575,7 @@
     <t>2029-08-10</t>
   </si>
   <si>
-    <t>4.282</t>
-  </si>
-  <si>
-    <t>9.74%</t>
-  </si>
-  <si>
-    <t>-5.66%</t>
-  </si>
-  <si>
-    <t>123209</t>
-  </si>
-  <si>
-    <t>聚隆转债</t>
-  </si>
-  <si>
-    <t>2029-07-26</t>
-  </si>
-  <si>
-    <t>4.241</t>
-  </si>
-  <si>
-    <t>-1.74%</t>
-  </si>
-  <si>
-    <t>-5.83%</t>
-  </si>
-  <si>
-    <t>118028</t>
-  </si>
-  <si>
-    <t>会通转债</t>
-  </si>
-  <si>
-    <t>2028-12-06</t>
-  </si>
-  <si>
-    <t>3.606</t>
-  </si>
-  <si>
-    <t>1.75%</t>
-  </si>
-  <si>
-    <t>-6.00%</t>
-  </si>
-  <si>
-    <t>123174</t>
-  </si>
-  <si>
-    <t>精锻转债</t>
-  </si>
-  <si>
-    <t>2029-02-15</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>5.13%</t>
-  </si>
-  <si>
-    <t>-6.71%</t>
-  </si>
-  <si>
-    <t>123063</t>
-  </si>
-  <si>
-    <t>大禹转债</t>
-  </si>
-  <si>
-    <t>2026-07-28</t>
-  </si>
-  <si>
-    <t>1.244</t>
-  </si>
-  <si>
-    <t>-0.55%</t>
-  </si>
-  <si>
-    <t>-7.38%</t>
-  </si>
-  <si>
-    <t>118004</t>
-  </si>
-  <si>
-    <t>博瑞转债</t>
-  </si>
-  <si>
-    <t>2028-01-04</t>
-  </si>
-  <si>
-    <t>2.682</t>
-  </si>
-  <si>
-    <t>0.02%</t>
-  </si>
-  <si>
-    <t>-7.55%</t>
-  </si>
-  <si>
-    <t>113050</t>
-  </si>
-  <si>
-    <t>南银转债</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>2027-06-15</t>
-  </si>
-  <si>
-    <t>2.126</t>
-  </si>
-  <si>
-    <t>-0.53%</t>
-  </si>
-  <si>
-    <t>-8.96%</t>
-  </si>
-  <si>
-    <t>123249</t>
-  </si>
-  <si>
-    <t>英搏转债</t>
-  </si>
-  <si>
-    <t>2030-10-24</t>
-  </si>
-  <si>
-    <t>5.488</t>
-  </si>
-  <si>
-    <t>0.43%</t>
-  </si>
-  <si>
-    <t>-9.06%</t>
-  </si>
-  <si>
-    <t>123186</t>
-  </si>
-  <si>
-    <t>志特转债</t>
-  </si>
-  <si>
-    <t>2029-03-31</t>
-  </si>
-  <si>
-    <t>3.921</t>
-  </si>
-  <si>
-    <t>2.26%</t>
-  </si>
-  <si>
-    <t>-9.17%</t>
-  </si>
-  <si>
-    <t>110079</t>
-  </si>
-  <si>
-    <t>杭银转债</t>
-  </si>
-  <si>
-    <t>2027-03-29</t>
-  </si>
-  <si>
-    <t>1.912</t>
-  </si>
-  <si>
-    <t>-0.37%</t>
-  </si>
-  <si>
-    <t>-9.45%</t>
-  </si>
-  <si>
-    <t>127055</t>
-  </si>
-  <si>
-    <t>精装转债</t>
-  </si>
-  <si>
-    <t>2028-02-22</t>
-  </si>
-  <si>
-    <t>2.816</t>
-  </si>
-  <si>
-    <t>-1.03%</t>
-  </si>
-  <si>
-    <t>123235</t>
-  </si>
-  <si>
-    <t>亿田转债</t>
-  </si>
-  <si>
-    <t>2029-12-21</t>
-  </si>
-  <si>
-    <t>4.647</t>
-  </si>
-  <si>
-    <t>10.33%</t>
-  </si>
-  <si>
-    <t>-10.05%</t>
-  </si>
-  <si>
-    <t>113687</t>
-  </si>
-  <si>
-    <t>振华转债</t>
-  </si>
-  <si>
-    <t>2030-07-12</t>
-  </si>
-  <si>
-    <t>5.203</t>
-  </si>
-  <si>
-    <t>-2.65%</t>
-  </si>
-  <si>
-    <t>-10.26%</t>
-  </si>
-  <si>
-    <t>127053</t>
-  </si>
-  <si>
-    <t>豪美转债</t>
-  </si>
-  <si>
-    <t>2028-01-24</t>
-  </si>
-  <si>
-    <t>2.737</t>
-  </si>
-  <si>
-    <t>1.78%</t>
-  </si>
-  <si>
-    <t>-11.42%</t>
-  </si>
-  <si>
-    <t>123245</t>
-  </si>
-  <si>
-    <t>集智转债</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>2030-08-14</t>
-  </si>
-  <si>
-    <t>5.293</t>
-  </si>
-  <si>
-    <t>-1.35%</t>
-  </si>
-  <si>
-    <t>-11.87%</t>
-  </si>
-  <si>
-    <t>113690</t>
-  </si>
-  <si>
-    <t>豪24转债</t>
-  </si>
-  <si>
-    <t>2030-10-23</t>
-  </si>
-  <si>
-    <t>5.485</t>
-  </si>
-  <si>
-    <t>7.11%</t>
-  </si>
-  <si>
-    <t>-13.20%</t>
-  </si>
-  <si>
-    <t>118016</t>
-  </si>
-  <si>
-    <t>京源转债</t>
-  </si>
-  <si>
-    <t>2028-08-05</t>
-  </si>
-  <si>
-    <t>3.269</t>
-  </si>
-  <si>
-    <t>2.3%</t>
-  </si>
-  <si>
-    <t>-14.22%</t>
-  </si>
-  <si>
-    <t>123241</t>
-  </si>
-  <si>
-    <t>欧通转债</t>
-  </si>
-  <si>
-    <t>2030-07-05</t>
-  </si>
-  <si>
-    <t>5.184</t>
-  </si>
-  <si>
-    <t>-15.48%</t>
-  </si>
-  <si>
-    <t>123213</t>
-  </si>
-  <si>
-    <t>天源转债</t>
-  </si>
-  <si>
-    <t>2029-07-28</t>
-  </si>
-  <si>
-    <t>4.247</t>
-  </si>
-  <si>
-    <t>4.59%</t>
-  </si>
-  <si>
-    <t>-15.71%</t>
-  </si>
-  <si>
-    <t>127076</t>
-  </si>
-  <si>
-    <t>中宠转2</t>
-  </si>
-  <si>
-    <t>2028-10-25</t>
-  </si>
-  <si>
-    <t>3.49</t>
-  </si>
-  <si>
-    <t>-1.36%</t>
-  </si>
-  <si>
-    <t>-15.93%</t>
-  </si>
-  <si>
-    <t>111011</t>
-  </si>
-  <si>
-    <t>冠盛转债</t>
-  </si>
-  <si>
-    <t>2029-01-03</t>
-  </si>
-  <si>
-    <t>3.682</t>
-  </si>
-  <si>
-    <t>7.81%</t>
-  </si>
-  <si>
-    <t>-18.60%</t>
-  </si>
-  <si>
-    <t>128144</t>
-  </si>
-  <si>
-    <t>利民转债</t>
-  </si>
-  <si>
-    <t>2027-03-01</t>
-  </si>
-  <si>
-    <t>1.836</t>
-  </si>
-  <si>
-    <t>-5.36%</t>
-  </si>
-  <si>
-    <t>-27.22%</t>
-  </si>
-  <si>
-    <t>113030</t>
-  </si>
-  <si>
-    <t>东风转债</t>
-  </si>
-  <si>
-    <t>2025-12-24</t>
-  </si>
-  <si>
-    <t>0.652</t>
-  </si>
-  <si>
-    <t>0.14%</t>
-  </si>
-  <si>
-    <t>-999%</t>
-  </si>
-  <si>
-    <t>123132</t>
-  </si>
-  <si>
-    <t>回盛转债</t>
-  </si>
-  <si>
-    <t>2027-12-17</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>-1.4%</t>
-  </si>
-  <si>
-    <t>123078</t>
-  </si>
-  <si>
-    <t>飞凯转债</t>
-  </si>
-  <si>
-    <t>2026-11-27</t>
-  </si>
-  <si>
-    <t>1.47%</t>
-  </si>
-  <si>
-    <t>128117</t>
-  </si>
-  <si>
-    <t>道恩转债</t>
-  </si>
-  <si>
-    <t>2026-07-02</t>
-  </si>
-  <si>
-    <t>1.21%</t>
+    <t>-0.51%</t>
   </si>
 </sst>
 </file>
@@ -956,7 +956,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>52.176</v>
+        <v>51.663</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -982,7 +982,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>129.289</v>
+        <v>129.827</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -1008,218 +1008,218 @@
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>123.404</v>
+        <v>140.181</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>129.701</v>
+        <v>130.465</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>143.2</v>
+        <v>142.28</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" t="n">
-        <v>146.4</v>
+        <v>147.865</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>143.098</v>
+        <v>132.8</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" t="n">
-        <v>145.77</v>
+        <v>148.4</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" t="n">
-        <v>128.472</v>
+        <v>147.23</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D11" t="n">
-        <v>141.075</v>
+        <v>167.666</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" t="n">
-        <v>127.22</v>
+        <v>157.403</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1242,10 +1242,10 @@
         <v>80</v>
       </c>
       <c r="D13" t="n">
-        <v>186.299</v>
+        <v>169.199</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>81</v>
@@ -1268,19 +1268,19 @@
         <v>86</v>
       </c>
       <c r="D14" t="n">
-        <v>167.5</v>
+        <v>150.076</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1294,10 +1294,10 @@
         <v>92</v>
       </c>
       <c r="D15" t="n">
-        <v>129.462</v>
+        <v>129.827</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
         <v>93</v>
@@ -1320,10 +1320,10 @@
         <v>98</v>
       </c>
       <c r="D16" t="n">
-        <v>151.322</v>
+        <v>139.197</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
         <v>99</v>
@@ -1337,28 +1337,28 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D17" t="n">
-        <v>182.81</v>
+        <v>228.904</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H17" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1372,10 +1372,10 @@
         <v>109</v>
       </c>
       <c r="D18" t="n">
-        <v>192.576</v>
+        <v>231.609</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
         <v>110</v>
@@ -1398,7 +1398,7 @@
         <v>115</v>
       </c>
       <c r="D19" t="n">
-        <v>157.653</v>
+        <v>206.401</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -1424,97 +1424,97 @@
         <v>121</v>
       </c>
       <c r="D20" t="n">
-        <v>220</v>
+        <v>194.038</v>
       </c>
       <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
         <v>122</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>123</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>124</v>
-      </c>
-      <c r="H20" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s">
         <v>126</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>127</v>
       </c>
-      <c r="C21" t="s">
-        <v>128</v>
-      </c>
       <c r="D21" t="n">
-        <v>226.67</v>
+        <v>239.64</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
       </c>
       <c r="F21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" t="s">
         <v>129</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>130</v>
-      </c>
-      <c r="H21" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" t="s">
         <v>132</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>133</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="n">
+        <v>227.05</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
         <v>134</v>
       </c>
-      <c r="D22" t="n">
-        <v>183.308</v>
-      </c>
-      <c r="E22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>135</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>136</v>
-      </c>
-      <c r="H22" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" t="s">
         <v>138</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>139</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="n">
+        <v>342.5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
         <v>140</v>
       </c>
-      <c r="D23" t="n">
-        <v>247.22</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>141</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>142</v>
-      </c>
-      <c r="H23" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1528,10 +1528,10 @@
         <v>145</v>
       </c>
       <c r="D24" t="n">
-        <v>229.677</v>
+        <v>361.758</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
         <v>146</v>
@@ -1554,10 +1554,10 @@
         <v>151</v>
       </c>
       <c r="D25" t="n">
-        <v>203.2</v>
+        <v>165.7</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -1580,10 +1580,10 @@
         <v>157</v>
       </c>
       <c r="D26" t="n">
-        <v>216.93</v>
+        <v>217.8</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s">
         <v>158</v>
@@ -1606,10 +1606,10 @@
         <v>163</v>
       </c>
       <c r="D27" t="n">
-        <v>158.995</v>
+        <v>147.524</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F27" t="s">
         <v>164</v>
@@ -1632,10 +1632,10 @@
         <v>169</v>
       </c>
       <c r="D28" t="n">
-        <v>133.129</v>
+        <v>190.998</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
         <v>170</v>
@@ -1658,7 +1658,7 @@
         <v>175</v>
       </c>
       <c r="D29" t="n">
-        <v>142.125</v>
+        <v>141.467</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -1684,10 +1684,10 @@
         <v>180</v>
       </c>
       <c r="D30" t="n">
-        <v>115.278</v>
+        <v>147.594</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
         <v>181</v>
@@ -1710,10 +1710,10 @@
         <v>184</v>
       </c>
       <c r="D31" t="n">
-        <v>132.599</v>
+        <v>117.9</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F31" t="s">
         <v>185</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
   <si>
     <t>到期税后收益率</t>
   </si>
@@ -41,7 +41,28 @@
     <t>涨跌幅</t>
   </si>
   <si>
-    <t>108.55%</t>
+    <t>12005.00%</t>
+  </si>
+  <si>
+    <t>404003</t>
+  </si>
+  <si>
+    <t>鸿达退债</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>2025-12-16</t>
+  </si>
+  <si>
+    <t>0.375</t>
+  </si>
+  <si>
+    <t>-87.19%</t>
+  </si>
+  <si>
+    <t>91.74%</t>
   </si>
   <si>
     <t>404004</t>
@@ -56,109 +77,451 @@
     <t>2026-08-18</t>
   </si>
   <si>
-    <t>1.126</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2.29%</t>
-  </si>
-  <si>
-    <t>111022</t>
-  </si>
-  <si>
-    <t>锡振转债</t>
+    <t>1.047</t>
+  </si>
+  <si>
+    <t>33.35%</t>
+  </si>
+  <si>
+    <t>-3.94%</t>
+  </si>
+  <si>
+    <t>127047</t>
+  </si>
+  <si>
+    <t>帝欧转债</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>2027-10-25</t>
+  </si>
+  <si>
+    <t>2.233</t>
+  </si>
+  <si>
+    <t>0.41%</t>
+  </si>
+  <si>
+    <t>-4.14%</t>
+  </si>
+  <si>
+    <t>123251</t>
+  </si>
+  <si>
+    <t>华医转债</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>2030-12-23</t>
+  </si>
+  <si>
+    <t>5.397</t>
+  </si>
+  <si>
+    <t>-3.09%</t>
+  </si>
+  <si>
+    <t>-4.77%</t>
+  </si>
+  <si>
+    <t>113068</t>
+  </si>
+  <si>
+    <t>金铜转债</t>
+  </si>
+  <si>
+    <t>AA+</t>
+  </si>
+  <si>
+    <t>2029-07-28</t>
+  </si>
+  <si>
+    <t>3.992</t>
+  </si>
+  <si>
+    <t>-1.17%</t>
+  </si>
+  <si>
+    <t>-5.71%</t>
+  </si>
+  <si>
+    <t>113058</t>
+  </si>
+  <si>
+    <t>友发转债</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>2028-03-30</t>
+  </si>
+  <si>
+    <t>2.663</t>
+  </si>
+  <si>
+    <t>0.39%</t>
+  </si>
+  <si>
+    <t>-7.29%</t>
+  </si>
+  <si>
+    <t>113064</t>
+  </si>
+  <si>
+    <t>东材转债</t>
+  </si>
+  <si>
+    <t>2028-11-16</t>
+  </si>
+  <si>
+    <t>3.296</t>
+  </si>
+  <si>
+    <t>-2.71%</t>
+  </si>
+  <si>
+    <t>-7.38%</t>
+  </si>
+  <si>
+    <t>127101</t>
+  </si>
+  <si>
+    <t>豪鹏转债</t>
   </si>
   <si>
     <t>AA-</t>
   </si>
   <si>
-    <t>2031-06-17</t>
-  </si>
-  <si>
-    <t>5.959</t>
-  </si>
-  <si>
-    <t>118057</t>
-  </si>
-  <si>
-    <t>甬矽转债</t>
-  </si>
-  <si>
-    <t>A+</t>
-  </si>
-  <si>
-    <t>2031-06-25</t>
-  </si>
-  <si>
-    <t>5.981</t>
-  </si>
-  <si>
-    <t>2.07%</t>
-  </si>
-  <si>
-    <t>118056</t>
-  </si>
-  <si>
-    <t>路维转债</t>
-  </si>
-  <si>
-    <t>2031-06-10</t>
-  </si>
-  <si>
-    <t>5.94</t>
-  </si>
-  <si>
-    <t>1.91%</t>
-  </si>
-  <si>
-    <t>127109</t>
-  </si>
-  <si>
-    <t>电化转债</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>2031-06-16</t>
-  </si>
-  <si>
-    <t>5.956</t>
-  </si>
-  <si>
-    <t>1.63%</t>
-  </si>
-  <si>
-    <t>123257</t>
-  </si>
-  <si>
-    <t>安克转债</t>
-  </si>
-  <si>
-    <t>AA+</t>
-  </si>
-  <si>
-    <t>-3.52%</t>
-  </si>
-  <si>
-    <t>118028</t>
-  </si>
-  <si>
-    <t>会通转债</t>
-  </si>
-  <si>
-    <t>2028-12-06</t>
-  </si>
-  <si>
-    <t>3.43</t>
-  </si>
-  <si>
-    <t>-0.38%</t>
-  </si>
-  <si>
-    <t>-4.24%</t>
+    <t>2029-12-22</t>
+  </si>
+  <si>
+    <t>4.395</t>
+  </si>
+  <si>
+    <t>2.69%</t>
+  </si>
+  <si>
+    <t>-9.01%</t>
+  </si>
+  <si>
+    <t>118014</t>
+  </si>
+  <si>
+    <t>高测转债</t>
+  </si>
+  <si>
+    <t>2028-07-18</t>
+  </si>
+  <si>
+    <t>2.964</t>
+  </si>
+  <si>
+    <t>1.27%</t>
+  </si>
+  <si>
+    <t>-10.71%</t>
+  </si>
+  <si>
+    <t>123120</t>
+  </si>
+  <si>
+    <t>隆华转债</t>
+  </si>
+  <si>
+    <t>2027-07-30</t>
+  </si>
+  <si>
+    <t>1.995</t>
+  </si>
+  <si>
+    <t>-0.97%</t>
+  </si>
+  <si>
+    <t>-11.61%</t>
+  </si>
+  <si>
+    <t>123162</t>
+  </si>
+  <si>
+    <t>东杰转债</t>
+  </si>
+  <si>
+    <t>BBB+</t>
+  </si>
+  <si>
+    <t>2028-10-14</t>
+  </si>
+  <si>
+    <t>3.206</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>-17.22%</t>
+  </si>
+  <si>
+    <t>113606</t>
+  </si>
+  <si>
+    <t>荣泰转债</t>
+  </si>
+  <si>
+    <t>2026-10-30</t>
+  </si>
+  <si>
+    <t>1.247</t>
+  </si>
+  <si>
+    <t>3.85%</t>
+  </si>
+  <si>
+    <t>-22.81%</t>
+  </si>
+  <si>
+    <t>127081</t>
+  </si>
+  <si>
+    <t>中旗转债</t>
+  </si>
+  <si>
+    <t>2029-03-03</t>
+  </si>
+  <si>
+    <t>3.589</t>
+  </si>
+  <si>
+    <t>1.37%</t>
+  </si>
+  <si>
+    <t>-46.73%</t>
+  </si>
+  <si>
+    <t>128081</t>
+  </si>
+  <si>
+    <t>海亮转债</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>0.307</t>
+  </si>
+  <si>
+    <t>4.81%</t>
+  </si>
+  <si>
+    <t>-55.54%</t>
+  </si>
+  <si>
+    <t>113601</t>
+  </si>
+  <si>
+    <t>塞力转债</t>
+  </si>
+  <si>
+    <t>BB+</t>
+  </si>
+  <si>
+    <t>2026-08-21</t>
+  </si>
+  <si>
+    <t>1.055</t>
+  </si>
+  <si>
+    <t>4.55%</t>
+  </si>
+  <si>
+    <t>-56.74%</t>
+  </si>
+  <si>
+    <t>113549</t>
+  </si>
+  <si>
+    <t>白电转债</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>0.13%</t>
+  </si>
+  <si>
+    <t>-148.43%</t>
+  </si>
+  <si>
+    <t>128074</t>
+  </si>
+  <si>
+    <t>游族转债</t>
+  </si>
+  <si>
+    <t>2025-09-23</t>
+  </si>
+  <si>
+    <t>0.145</t>
+  </si>
+  <si>
+    <t>-1.29%</t>
+  </si>
+  <si>
+    <t>-999%</t>
+  </si>
+  <si>
+    <t>123141</t>
+  </si>
+  <si>
+    <t>宏丰转债</t>
+  </si>
+  <si>
+    <t>2028-03-15</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>-4.95%</t>
+  </si>
+  <si>
+    <t>123063</t>
+  </si>
+  <si>
+    <t>大禹转债</t>
+  </si>
+  <si>
+    <t>2026-07-28</t>
+  </si>
+  <si>
+    <t>-7.01%</t>
+  </si>
+  <si>
+    <t>123186</t>
+  </si>
+  <si>
+    <t>Z特转债</t>
+  </si>
+  <si>
+    <t>2029-03-31</t>
+  </si>
+  <si>
+    <t>-0.96%</t>
+  </si>
+  <si>
+    <t>123087</t>
+  </si>
+  <si>
+    <t>明电转债</t>
+  </si>
+  <si>
+    <t>2026-12-15</t>
+  </si>
+  <si>
+    <t>-0.59%</t>
+  </si>
+  <si>
+    <t>123052</t>
+  </si>
+  <si>
+    <t>飞鹿转债</t>
+  </si>
+  <si>
+    <t>2026-06-05</t>
+  </si>
+  <si>
+    <t>-0.22%</t>
+  </si>
+  <si>
+    <t>128120</t>
+  </si>
+  <si>
+    <t>联诚转债</t>
+  </si>
+  <si>
+    <t>2026-07-17</t>
+  </si>
+  <si>
+    <t>2.54%</t>
+  </si>
+  <si>
+    <t>127035</t>
+  </si>
+  <si>
+    <t>濮耐转债</t>
+  </si>
+  <si>
+    <t>2026-05-26</t>
+  </si>
+  <si>
+    <t>-2.53%</t>
+  </si>
+  <si>
+    <t>123038</t>
+  </si>
+  <si>
+    <t>联得转债</t>
+  </si>
+  <si>
+    <t>2025-12-25</t>
+  </si>
+  <si>
+    <t>0.96%</t>
+  </si>
+  <si>
+    <t>113609</t>
+  </si>
+  <si>
+    <t>永安转债</t>
+  </si>
+  <si>
+    <t>2026-11-24</t>
+  </si>
+  <si>
+    <t>-2.43%</t>
+  </si>
+  <si>
+    <t>128109</t>
+  </si>
+  <si>
+    <t>楚江转债</t>
+  </si>
+  <si>
+    <t>2026-06-04</t>
+  </si>
+  <si>
+    <t>0.23%</t>
+  </si>
+  <si>
+    <t>118023</t>
+  </si>
+  <si>
+    <t>广大转债</t>
+  </si>
+  <si>
+    <t>2028-10-13</t>
+  </si>
+  <si>
+    <t>1.49%</t>
+  </si>
+  <si>
+    <t>113065</t>
+  </si>
+  <si>
+    <t>齐鲁转债</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>2028-11-29</t>
   </si>
   <si>
     <t>123156</t>
@@ -170,379 +533,7 @@
     <t>2028-08-16</t>
   </si>
   <si>
-    <t>3.123</t>
-  </si>
-  <si>
-    <t>-0.28%</t>
-  </si>
-  <si>
-    <t>-4.25%</t>
-  </si>
-  <si>
-    <t>118023</t>
-  </si>
-  <si>
-    <t>广大转债</t>
-  </si>
-  <si>
-    <t>2028-10-13</t>
-  </si>
-  <si>
-    <t>3.282</t>
-  </si>
-  <si>
-    <t>0.44%</t>
-  </si>
-  <si>
-    <t>-4.39%</t>
-  </si>
-  <si>
-    <t>113065</t>
-  </si>
-  <si>
-    <t>齐鲁转债</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>2028-11-29</t>
-  </si>
-  <si>
-    <t>3.411</t>
-  </si>
-  <si>
-    <t>0.03%</t>
-  </si>
-  <si>
-    <t>-4.41%</t>
-  </si>
-  <si>
-    <t>127047</t>
-  </si>
-  <si>
-    <t>帝欧转债</t>
-  </si>
-  <si>
-    <t>A-</t>
-  </si>
-  <si>
-    <t>2027-10-25</t>
-  </si>
-  <si>
-    <t>2.312</t>
-  </si>
-  <si>
-    <t>0.29%</t>
-  </si>
-  <si>
-    <t>-4.82%</t>
-  </si>
-  <si>
-    <t>127106</t>
-  </si>
-  <si>
-    <t>伟隆转债</t>
-  </si>
-  <si>
-    <t>2030-08-13</t>
-  </si>
-  <si>
-    <t>5.115</t>
-  </si>
-  <si>
-    <t>3.09%</t>
-  </si>
-  <si>
-    <t>-6.80%</t>
-  </si>
-  <si>
-    <t>123186</t>
-  </si>
-  <si>
-    <t>志特转债</t>
-  </si>
-  <si>
-    <t>2029-03-31</t>
-  </si>
-  <si>
-    <t>3.745</t>
-  </si>
-  <si>
-    <t>1.49%</t>
-  </si>
-  <si>
-    <t>-8.22%</t>
-  </si>
-  <si>
-    <t>113629</t>
-  </si>
-  <si>
-    <t>泉峰转债</t>
-  </si>
-  <si>
-    <t>2027-09-14</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>0.21%</t>
-  </si>
-  <si>
-    <t>-11.17%</t>
-  </si>
-  <si>
-    <t>118016</t>
-  </si>
-  <si>
-    <t>京源转债</t>
-  </si>
-  <si>
-    <t>2028-08-05</t>
-  </si>
-  <si>
-    <t>3.093</t>
-  </si>
-  <si>
-    <t>0.91%</t>
-  </si>
-  <si>
-    <t>-12.86%</t>
-  </si>
-  <si>
-    <t>113669</t>
-  </si>
-  <si>
-    <t>景23转债</t>
-  </si>
-  <si>
-    <t>2029-04-04</t>
-  </si>
-  <si>
-    <t>3.756</t>
-  </si>
-  <si>
-    <t>6.28%</t>
-  </si>
-  <si>
-    <t>-13.83%</t>
-  </si>
-  <si>
-    <t>123082</t>
-  </si>
-  <si>
-    <t>北陆转债</t>
-  </si>
-  <si>
-    <t>2026-12-07</t>
-  </si>
-  <si>
-    <t>1.43</t>
-  </si>
-  <si>
-    <t>1%</t>
-  </si>
-  <si>
-    <t>-15.88%</t>
-  </si>
-  <si>
-    <t>127055</t>
-  </si>
-  <si>
-    <t>精装转债</t>
-  </si>
-  <si>
-    <t>2028-02-22</t>
-  </si>
-  <si>
-    <t>2.641</t>
-  </si>
-  <si>
-    <t>1.43%</t>
-  </si>
-  <si>
-    <t>-17.28%</t>
-  </si>
-  <si>
-    <t>123213</t>
-  </si>
-  <si>
-    <t>天源转债</t>
-  </si>
-  <si>
-    <t>2029-07-28</t>
-  </si>
-  <si>
-    <t>4.071</t>
-  </si>
-  <si>
-    <t>1.96%</t>
-  </si>
-  <si>
-    <t>-18.53%</t>
-  </si>
-  <si>
-    <t>111011</t>
-  </si>
-  <si>
-    <t>冠盛转债</t>
-  </si>
-  <si>
-    <t>2029-01-03</t>
-  </si>
-  <si>
-    <t>3.507</t>
-  </si>
-  <si>
-    <t>1.62%</t>
-  </si>
-  <si>
-    <t>-23.23%</t>
-  </si>
-  <si>
-    <t>127081</t>
-  </si>
-  <si>
-    <t>中旗转债</t>
-  </si>
-  <si>
-    <t>2029-03-03</t>
-  </si>
-  <si>
-    <t>3.669</t>
-  </si>
-  <si>
-    <t>1.47%</t>
-  </si>
-  <si>
-    <t>-23.66%</t>
-  </si>
-  <si>
-    <t>127053</t>
-  </si>
-  <si>
-    <t>豪美转债</t>
-  </si>
-  <si>
-    <t>2028-01-24</t>
-  </si>
-  <si>
-    <t>2.562</t>
-  </si>
-  <si>
-    <t>0.48%</t>
-  </si>
-  <si>
-    <t>-32.72%</t>
-  </si>
-  <si>
-    <t>123056</t>
-  </si>
-  <si>
-    <t>雪榕转债</t>
-  </si>
-  <si>
-    <t>2026-06-24</t>
-  </si>
-  <si>
-    <t>0.975</t>
-  </si>
-  <si>
-    <t>-0.58%</t>
-  </si>
-  <si>
-    <t>-146.75%</t>
-  </si>
-  <si>
-    <t>110060</t>
-  </si>
-  <si>
-    <t>天路转债</t>
-  </si>
-  <si>
-    <t>2025-10-28</t>
-  </si>
-  <si>
-    <t>0.321</t>
-  </si>
-  <si>
-    <t>-0.41%</t>
-  </si>
-  <si>
-    <t>-999%</t>
-  </si>
-  <si>
-    <t>123093</t>
-  </si>
-  <si>
-    <t>金陵转债</t>
-  </si>
-  <si>
-    <t>2027-01-19</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>-2.99%</t>
-  </si>
-  <si>
-    <t>123184</t>
-  </si>
-  <si>
-    <t>天阳转债</t>
-  </si>
-  <si>
-    <t>2029-03-23</t>
-  </si>
-  <si>
-    <t>0.11%</t>
-  </si>
-  <si>
-    <t>128082</t>
-  </si>
-  <si>
-    <t>华锋转债</t>
-  </si>
-  <si>
-    <t>2025-12-04</t>
-  </si>
-  <si>
-    <t>0.68%</t>
-  </si>
-  <si>
-    <t>123204</t>
-  </si>
-  <si>
-    <t>金丹转债</t>
-  </si>
-  <si>
-    <t>2029-07-13</t>
-  </si>
-  <si>
-    <t>0.18%</t>
-  </si>
-  <si>
-    <t>113050</t>
-  </si>
-  <si>
-    <t>南银转债</t>
-  </si>
-  <si>
-    <t>2027-06-15</t>
-  </si>
-  <si>
-    <t>0.06%</t>
-  </si>
-  <si>
-    <t>127043</t>
-  </si>
-  <si>
-    <t>川恒转债</t>
-  </si>
-  <si>
-    <t>2027-08-12</t>
+    <t>4.19%</t>
   </si>
 </sst>
 </file>
@@ -923,7 +914,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>48.611</v>
+        <v>2.484</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -949,7 +940,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>56.14</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -961,550 +952,550 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>125.499</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>145.25</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>132.788</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>130.986</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D8" t="n">
-        <v>130.477</v>
+        <v>144.455</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D9" t="n">
-        <v>132.72</v>
+        <v>158.19</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D10" t="n">
-        <v>132.807</v>
+        <v>145.415</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="E11" t="s">
         <v>59</v>
       </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" t="n">
-        <v>129.249</v>
-      </c>
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D12" t="n">
-        <v>127.299</v>
+        <v>171.6</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D13" t="n">
-        <v>150.196</v>
+        <v>143.773</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D14" t="n">
-        <v>150.5</v>
+        <v>281.351</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D15" t="n">
-        <v>138.678</v>
+        <v>126.075</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D16" t="n">
-        <v>166.674</v>
+        <v>264.845</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D17" t="n">
-        <v>182.879</v>
+        <v>129.069</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="H17" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D18" t="n">
-        <v>140.7</v>
+        <v>142.77</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H18" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D19" t="n">
-        <v>180.246</v>
+        <v>130.033</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G19" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="H19" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D20" t="n">
-        <v>243.178</v>
+        <v>155</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H20" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" t="n">
+        <v>155.896</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" t="s">
         <v>123</v>
       </c>
-      <c r="D21" t="n">
-        <v>234.637</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" t="s">
-        <v>124</v>
-      </c>
-      <c r="G21" t="s">
-        <v>125</v>
-      </c>
       <c r="H21" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D22" t="n">
-        <v>293</v>
+        <v>130.9</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H22" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D23" t="n">
-        <v>233</v>
+        <v>154.176</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G23" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="H23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D24" t="n">
-        <v>164.281</v>
+        <v>133.35</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G24" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="H24" t="s">
         <v>144</v>
@@ -1512,184 +1503,184 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" t="s">
         <v>145</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>146</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="n">
+        <v>166.2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>147</v>
       </c>
-      <c r="D25" t="n">
-        <v>202.393</v>
-      </c>
-      <c r="E25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" t="s">
         <v>148</v>
-      </c>
-      <c r="G25" t="s">
-        <v>149</v>
-      </c>
-      <c r="H25" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" t="n">
+        <v>130.092</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" t="s">
         <v>151</v>
       </c>
-      <c r="B26" t="s">
+      <c r="G26" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" t="s">
         <v>152</v>
-      </c>
-      <c r="C26" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" t="n">
-        <v>140.571</v>
-      </c>
-      <c r="E26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" t="s">
-        <v>155</v>
-      </c>
-      <c r="H26" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D27" t="n">
-        <v>176.3</v>
+        <v>146.351</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G27" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="H27" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D28" t="n">
-        <v>148.2</v>
+        <v>145.598</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G28" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="H28" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D29" t="n">
-        <v>115.417</v>
+        <v>118.982</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F29" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G29" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="H29" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C30" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D30" t="n">
-        <v>148.73</v>
+        <v>120.691</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="F30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G30" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="H30" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D31" t="n">
-        <v>134.764</v>
+        <v>159</v>
       </c>
       <c r="E31" t="s">
         <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G31" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="H31" t="s">
-        <v>58</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
